--- a/工作簿1(1).xlsx
+++ b/工作簿1(1).xlsx
@@ -1,27 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25128"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\BIYE\Compress\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{546EEAEB-56CF-42C5-96EF-273C6B2C97C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="15915" windowHeight="8820"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13695" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -30,151 +31,20 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="38">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -195,210 +65,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.8"/>
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.6"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -421,251 +105,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -707,61 +149,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1019,32 +417,32 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AE24" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.375" style="1" customWidth="1"/>
-    <col min="2" max="9" width="4.375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="2.3984375" style="1" customWidth="1"/>
+    <col min="2" max="9" width="4.3984375" style="1" customWidth="1"/>
     <col min="10" max="10" width="9" style="1"/>
-    <col min="11" max="11" width="2.375" style="1" customWidth="1"/>
-    <col min="12" max="19" width="4.375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="2.3984375" style="1" customWidth="1"/>
+    <col min="12" max="19" width="4.3984375" style="1" customWidth="1"/>
     <col min="20" max="20" width="9" style="1"/>
-    <col min="21" max="21" width="3.375" style="1" customWidth="1"/>
-    <col min="22" max="29" width="4.375" style="1" customWidth="1"/>
+    <col min="21" max="21" width="3.3984375" style="1" customWidth="1"/>
+    <col min="22" max="29" width="4.3984375" style="1" customWidth="1"/>
     <col min="30" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="2:29">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B1" s="1">
         <v>1</v>
       </c>
@@ -1069,8 +467,6 @@
       <c r="I1" s="1">
         <v>8</v>
       </c>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
       <c r="L1" s="1">
         <v>1</v>
       </c>
@@ -1095,8 +491,6 @@
       <c r="S1" s="1">
         <v>8</v>
       </c>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
       <c r="V1" s="1">
         <v>1</v>
       </c>
@@ -1122,7 +516,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:29">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1150,7 +544,6 @@
       <c r="I2" s="1">
         <v>140</v>
       </c>
-      <c r="J2" s="1"/>
       <c r="K2" s="1">
         <v>1</v>
       </c>
@@ -1178,7 +571,6 @@
       <c r="S2" s="4">
         <v>0</v>
       </c>
-      <c r="T2" s="1"/>
       <c r="U2" s="1">
         <v>1</v>
       </c>
@@ -1207,7 +599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:29">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1235,7 +627,6 @@
       <c r="I3" s="1">
         <v>142</v>
       </c>
-      <c r="J3" s="1"/>
       <c r="K3" s="1">
         <v>2</v>
       </c>
@@ -1263,7 +654,6 @@
       <c r="S3" s="6">
         <v>2</v>
       </c>
-      <c r="T3" s="1"/>
       <c r="U3" s="1">
         <v>2</v>
       </c>
@@ -1292,7 +682,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" spans="1:29">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1320,7 +710,6 @@
       <c r="I4" s="1">
         <v>141</v>
       </c>
-      <c r="J4" s="1"/>
       <c r="K4" s="1">
         <v>3</v>
       </c>
@@ -1348,7 +737,6 @@
       <c r="S4" s="7">
         <v>3</v>
       </c>
-      <c r="T4" s="1"/>
       <c r="U4" s="1">
         <v>3</v>
       </c>
@@ -1377,7 +765,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" spans="1:29">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1405,7 +793,6 @@
       <c r="I5" s="1">
         <v>137</v>
       </c>
-      <c r="J5" s="1"/>
       <c r="K5" s="1">
         <v>4</v>
       </c>
@@ -1433,7 +820,6 @@
       <c r="S5" s="4">
         <v>-1</v>
       </c>
-      <c r="T5" s="1"/>
       <c r="U5" s="1">
         <v>4</v>
       </c>
@@ -1462,7 +848,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" spans="1:29">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1490,7 +876,6 @@
       <c r="I6" s="1">
         <v>134</v>
       </c>
-      <c r="J6" s="1"/>
       <c r="K6" s="1">
         <v>5</v>
       </c>
@@ -1518,7 +903,6 @@
       <c r="S6" s="4">
         <v>-4</v>
       </c>
-      <c r="T6" s="1"/>
       <c r="U6" s="1">
         <v>5</v>
       </c>
@@ -1547,7 +931,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" spans="1:29">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1575,7 +959,6 @@
       <c r="I7" s="1">
         <v>138</v>
       </c>
-      <c r="J7" s="1"/>
       <c r="K7" s="1">
         <v>6</v>
       </c>
@@ -1603,7 +986,6 @@
       <c r="S7" s="6">
         <v>0</v>
       </c>
-      <c r="T7" s="1"/>
       <c r="U7" s="1">
         <v>6</v>
       </c>
@@ -1632,7 +1014,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" spans="1:29">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1660,7 +1042,6 @@
       <c r="I8" s="1">
         <v>138</v>
       </c>
-      <c r="J8" s="1"/>
       <c r="K8" s="1">
         <v>7</v>
       </c>
@@ -1688,7 +1069,6 @@
       <c r="S8" s="7">
         <v>-1</v>
       </c>
-      <c r="T8" s="1"/>
       <c r="U8" s="1">
         <v>7</v>
       </c>
@@ -1717,7 +1097,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" spans="1:29">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1745,7 +1125,6 @@
       <c r="I9" s="1">
         <v>137</v>
       </c>
-      <c r="J9" s="1"/>
       <c r="K9" s="1">
         <v>8</v>
       </c>
@@ -1773,7 +1152,6 @@
       <c r="S9" s="4">
         <v>-2</v>
       </c>
-      <c r="T9" s="1"/>
       <c r="U9" s="1">
         <v>8</v>
       </c>
@@ -1802,7 +1180,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" spans="2:29">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B11" s="1">
         <v>1</v>
       </c>
@@ -1827,8 +1205,6 @@
       <c r="I11" s="1">
         <v>8</v>
       </c>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
       <c r="L11" s="1">
         <v>1</v>
       </c>
@@ -1853,8 +1229,6 @@
       <c r="S11" s="1">
         <v>8</v>
       </c>
-      <c r="T11" s="1"/>
-      <c r="U11" s="1"/>
       <c r="V11" s="1">
         <v>1</v>
       </c>
@@ -1880,7 +1254,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" spans="1:29">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>1</v>
       </c>
@@ -1908,7 +1282,6 @@
       <c r="I12" s="4">
         <v>0</v>
       </c>
-      <c r="J12" s="1"/>
       <c r="K12" s="1">
         <v>1</v>
       </c>
@@ -1936,7 +1309,6 @@
       <c r="S12" s="4">
         <v>0</v>
       </c>
-      <c r="T12" s="1"/>
       <c r="U12" s="1">
         <v>1</v>
       </c>
@@ -1965,7 +1337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" s="1" customFormat="1" spans="1:29">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>2</v>
       </c>
@@ -1993,7 +1365,6 @@
       <c r="I13" s="4">
         <v>-1</v>
       </c>
-      <c r="J13" s="1"/>
       <c r="K13" s="1">
         <v>2</v>
       </c>
@@ -2021,7 +1392,6 @@
       <c r="S13" s="4">
         <v>-1</v>
       </c>
-      <c r="T13" s="1"/>
       <c r="U13" s="1">
         <v>2</v>
       </c>
@@ -2050,7 +1420,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="14" s="1" customFormat="1" spans="1:29">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>3</v>
       </c>
@@ -2078,7 +1448,6 @@
       <c r="I14" s="4">
         <v>-4</v>
       </c>
-      <c r="J14" s="1"/>
       <c r="K14" s="1">
         <v>3</v>
       </c>
@@ -2106,7 +1475,6 @@
       <c r="S14" s="4">
         <v>-4</v>
       </c>
-      <c r="T14" s="1"/>
       <c r="U14" s="1">
         <v>3</v>
       </c>
@@ -2135,7 +1503,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="15" s="1" customFormat="1" spans="1:29">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>4</v>
       </c>
@@ -2163,7 +1531,6 @@
       <c r="I15" s="4">
         <v>-2</v>
       </c>
-      <c r="J15" s="1"/>
       <c r="K15" s="1">
         <v>4</v>
       </c>
@@ -2191,7 +1558,6 @@
       <c r="S15" s="4">
         <v>-2</v>
       </c>
-      <c r="T15" s="1"/>
       <c r="U15" s="1">
         <v>4</v>
       </c>
@@ -2220,7 +1586,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="16" s="1" customFormat="1" spans="1:29">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>5</v>
       </c>
@@ -2248,7 +1614,6 @@
       <c r="I16" s="7">
         <v>3</v>
       </c>
-      <c r="J16" s="1"/>
       <c r="K16" s="1">
         <v>5</v>
       </c>
@@ -2276,7 +1641,6 @@
       <c r="S16" s="7">
         <v>3</v>
       </c>
-      <c r="T16" s="1"/>
       <c r="U16" s="1">
         <v>5</v>
       </c>
@@ -2305,7 +1669,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" s="1" customFormat="1" spans="1:29">
+    <row r="17" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>6</v>
       </c>
@@ -2333,7 +1697,6 @@
       <c r="I17" s="7">
         <v>-1</v>
       </c>
-      <c r="J17" s="1"/>
       <c r="K17" s="1">
         <v>6</v>
       </c>
@@ -2361,7 +1724,6 @@
       <c r="S17" s="7">
         <v>-1</v>
       </c>
-      <c r="T17" s="1"/>
       <c r="U17" s="1">
         <v>6</v>
       </c>
@@ -2390,7 +1752,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="18" s="1" customFormat="1" spans="1:29">
+    <row r="18" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>7</v>
       </c>
@@ -2418,7 +1780,6 @@
       <c r="I18" s="7">
         <v>-1</v>
       </c>
-      <c r="J18" s="1"/>
       <c r="K18" s="1">
         <v>7</v>
       </c>
@@ -2446,7 +1807,6 @@
       <c r="S18" s="7">
         <v>-1</v>
       </c>
-      <c r="T18" s="1"/>
       <c r="U18" s="1">
         <v>7</v>
       </c>
@@ -2475,7 +1835,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="19" s="1" customFormat="1" spans="1:29">
+    <row r="19" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>8</v>
       </c>
@@ -2503,7 +1863,6 @@
       <c r="I19" s="7">
         <v>7</v>
       </c>
-      <c r="J19" s="1"/>
       <c r="K19" s="1">
         <v>8</v>
       </c>
@@ -2531,7 +1890,6 @@
       <c r="S19" s="7">
         <v>7</v>
       </c>
-      <c r="T19" s="1"/>
       <c r="U19" s="1">
         <v>8</v>
       </c>
@@ -2560,7 +1918,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" s="1" customFormat="1" spans="2:29">
+    <row r="21" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B21" s="1">
         <v>1</v>
       </c>
@@ -2585,8 +1943,6 @@
       <c r="I21" s="1">
         <v>8</v>
       </c>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
       <c r="L21" s="1">
         <v>1</v>
       </c>
@@ -2611,8 +1967,6 @@
       <c r="S21" s="1">
         <v>8</v>
       </c>
-      <c r="T21" s="1"/>
-      <c r="U21" s="1"/>
       <c r="V21" s="1">
         <v>1</v>
       </c>
@@ -2638,7 +1992,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" s="1" customFormat="1" spans="1:29">
+    <row r="22" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>1</v>
       </c>
@@ -2666,7 +2020,6 @@
       <c r="I22" s="4">
         <v>0</v>
       </c>
-      <c r="J22" s="1"/>
       <c r="K22" s="1">
         <v>1</v>
       </c>
@@ -2694,7 +2047,6 @@
       <c r="S22" s="4">
         <v>0</v>
       </c>
-      <c r="T22" s="1"/>
       <c r="U22" s="1">
         <v>1</v>
       </c>
@@ -2723,7 +2075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" s="1" customFormat="1" spans="1:29">
+    <row r="23" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>2</v>
       </c>
@@ -2751,7 +2103,6 @@
       <c r="I23" s="4">
         <v>255</v>
       </c>
-      <c r="J23" s="1"/>
       <c r="K23" s="1">
         <v>2</v>
       </c>
@@ -2779,7 +2130,6 @@
       <c r="S23" s="4">
         <v>255</v>
       </c>
-      <c r="T23" s="1"/>
       <c r="U23" s="1">
         <v>2</v>
       </c>
@@ -2808,7 +2158,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="24" s="1" customFormat="1" spans="1:29">
+    <row r="24" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>3</v>
       </c>
@@ -2836,7 +2186,6 @@
       <c r="I24" s="4">
         <v>252</v>
       </c>
-      <c r="J24" s="1"/>
       <c r="K24" s="1">
         <v>3</v>
       </c>
@@ -2864,7 +2213,6 @@
       <c r="S24" s="4">
         <v>252</v>
       </c>
-      <c r="T24" s="1"/>
       <c r="U24" s="1">
         <v>3</v>
       </c>
@@ -2893,7 +2241,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="25" s="1" customFormat="1" spans="1:29">
+    <row r="25" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>4</v>
       </c>
@@ -2921,7 +2269,6 @@
       <c r="I25" s="4">
         <v>254</v>
       </c>
-      <c r="J25" s="1"/>
       <c r="K25" s="1">
         <v>4</v>
       </c>
@@ -2949,7 +2296,6 @@
       <c r="S25" s="4">
         <v>254</v>
       </c>
-      <c r="T25" s="1"/>
       <c r="U25" s="1">
         <v>4</v>
       </c>
@@ -2978,7 +2324,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="26" s="1" customFormat="1" spans="1:29">
+    <row r="26" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>5</v>
       </c>
@@ -3006,7 +2352,6 @@
       <c r="I26" s="7">
         <v>3</v>
       </c>
-      <c r="J26" s="1"/>
       <c r="K26" s="1">
         <v>5</v>
       </c>
@@ -3034,7 +2379,6 @@
       <c r="S26" s="7">
         <v>3</v>
       </c>
-      <c r="T26" s="1"/>
       <c r="U26" s="1">
         <v>5</v>
       </c>
@@ -3063,7 +2407,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" s="1" customFormat="1" spans="1:29">
+    <row r="27" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>6</v>
       </c>
@@ -3091,7 +2435,6 @@
       <c r="I27" s="7">
         <v>255</v>
       </c>
-      <c r="J27" s="1"/>
       <c r="K27" s="1">
         <v>6</v>
       </c>
@@ -3119,7 +2462,6 @@
       <c r="S27" s="7">
         <v>255</v>
       </c>
-      <c r="T27" s="1"/>
       <c r="U27" s="1">
         <v>6</v>
       </c>
@@ -3148,7 +2490,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="28" s="1" customFormat="1" spans="1:29">
+    <row r="28" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>7</v>
       </c>
@@ -3176,7 +2518,6 @@
       <c r="I28" s="7">
         <v>255</v>
       </c>
-      <c r="J28" s="1"/>
       <c r="K28" s="1">
         <v>7</v>
       </c>
@@ -3204,7 +2545,6 @@
       <c r="S28" s="7">
         <v>255</v>
       </c>
-      <c r="T28" s="1"/>
       <c r="U28" s="1">
         <v>7</v>
       </c>
@@ -3233,7 +2573,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="29" s="1" customFormat="1" spans="1:29">
+    <row r="29" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>8</v>
       </c>
@@ -3261,7 +2601,6 @@
       <c r="I29" s="7">
         <v>7</v>
       </c>
-      <c r="J29" s="1"/>
       <c r="K29" s="1">
         <v>8</v>
       </c>
@@ -3289,7 +2628,6 @@
       <c r="S29" s="7">
         <v>7</v>
       </c>
-      <c r="T29" s="1"/>
       <c r="U29" s="1">
         <v>8</v>
       </c>
@@ -3318,7 +2656,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" s="1" customFormat="1" spans="2:29">
+    <row r="30" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
@@ -3344,7 +2682,7 @@
       <c r="AB30" s="7"/>
       <c r="AC30" s="7"/>
     </row>
-    <row r="31" s="1" customFormat="1" spans="2:29">
+    <row r="31" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
@@ -3370,7 +2708,7 @@
       <c r="AB31" s="7"/>
       <c r="AC31" s="7"/>
     </row>
-    <row r="32" s="1" customFormat="1" spans="2:29">
+    <row r="32" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
@@ -3396,7 +2734,7 @@
       <c r="AB32" s="7"/>
       <c r="AC32" s="7"/>
     </row>
-    <row r="34" s="1" customFormat="1" spans="2:29">
+    <row r="34" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B34" s="1">
         <v>1</v>
       </c>
@@ -3421,8 +2759,6 @@
       <c r="I34" s="1">
         <v>8</v>
       </c>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
       <c r="L34" s="1">
         <v>1</v>
       </c>
@@ -3447,8 +2783,6 @@
       <c r="S34" s="1">
         <v>8</v>
       </c>
-      <c r="T34" s="1"/>
-      <c r="U34" s="1"/>
       <c r="V34" s="1">
         <v>1</v>
       </c>
@@ -3474,7 +2808,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" s="1" customFormat="1" spans="1:29">
+    <row r="35" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>1</v>
       </c>
@@ -3502,7 +2836,6 @@
       <c r="I35" s="4">
         <v>0</v>
       </c>
-      <c r="J35" s="1"/>
       <c r="K35" s="1">
         <v>1</v>
       </c>
@@ -3530,7 +2863,6 @@
       <c r="S35" s="4">
         <v>0</v>
       </c>
-      <c r="T35" s="1"/>
       <c r="U35" s="1">
         <v>1</v>
       </c>
@@ -3559,7 +2891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" s="1" customFormat="1" spans="1:29">
+    <row r="36" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>2</v>
       </c>
@@ -3587,7 +2919,6 @@
       <c r="I36" s="6">
         <v>2</v>
       </c>
-      <c r="J36" s="1"/>
       <c r="K36" s="1">
         <v>2</v>
       </c>
@@ -3615,7 +2946,6 @@
       <c r="S36" s="4">
         <v>255</v>
       </c>
-      <c r="T36" s="1"/>
       <c r="U36" s="1">
         <v>2</v>
       </c>
@@ -3644,7 +2974,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="37" s="1" customFormat="1" spans="1:29">
+    <row r="37" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>3</v>
       </c>
@@ -3672,7 +3002,6 @@
       <c r="I37" s="7">
         <v>3</v>
       </c>
-      <c r="J37" s="1"/>
       <c r="K37" s="1">
         <v>3</v>
       </c>
@@ -3700,7 +3029,6 @@
       <c r="S37" s="4">
         <v>252</v>
       </c>
-      <c r="T37" s="1"/>
       <c r="U37" s="1">
         <v>3</v>
       </c>
@@ -3729,7 +3057,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="38" s="1" customFormat="1" spans="1:29">
+    <row r="38" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>4</v>
       </c>
@@ -3757,7 +3085,6 @@
       <c r="I38" s="4">
         <v>255</v>
       </c>
-      <c r="J38" s="1"/>
       <c r="K38" s="1">
         <v>4</v>
       </c>
@@ -3785,7 +3112,6 @@
       <c r="S38" s="4">
         <v>254</v>
       </c>
-      <c r="T38" s="1"/>
       <c r="U38" s="1">
         <v>4</v>
       </c>
@@ -3814,7 +3140,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="39" s="1" customFormat="1" spans="1:29">
+    <row r="39" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>5</v>
       </c>
@@ -3842,7 +3168,6 @@
       <c r="I39" s="4">
         <v>252</v>
       </c>
-      <c r="J39" s="1"/>
       <c r="K39" s="1">
         <v>5</v>
       </c>
@@ -3870,7 +3195,6 @@
       <c r="S39" s="7">
         <v>3</v>
       </c>
-      <c r="T39" s="1"/>
       <c r="U39" s="1">
         <v>5</v>
       </c>
@@ -3899,7 +3223,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" s="1" customFormat="1" spans="1:29">
+    <row r="40" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>6</v>
       </c>
@@ -3927,7 +3251,6 @@
       <c r="I40" s="6">
         <v>0</v>
       </c>
-      <c r="J40" s="1"/>
       <c r="K40" s="1">
         <v>6</v>
       </c>
@@ -3955,7 +3278,6 @@
       <c r="S40" s="7">
         <v>255</v>
       </c>
-      <c r="T40" s="1"/>
       <c r="U40" s="1">
         <v>6</v>
       </c>
@@ -3984,7 +3306,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="41" s="1" customFormat="1" spans="1:29">
+    <row r="41" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>7</v>
       </c>
@@ -4012,7 +3334,6 @@
       <c r="I41" s="7">
         <v>255</v>
       </c>
-      <c r="J41" s="1"/>
       <c r="K41" s="1">
         <v>7</v>
       </c>
@@ -4040,7 +3361,6 @@
       <c r="S41" s="7">
         <v>255</v>
       </c>
-      <c r="T41" s="1"/>
       <c r="U41" s="1">
         <v>7</v>
       </c>
@@ -4069,7 +3389,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="42" s="1" customFormat="1" spans="1:29">
+    <row r="42" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>8</v>
       </c>
@@ -4097,7 +3417,6 @@
       <c r="I42" s="4">
         <v>254</v>
       </c>
-      <c r="J42" s="1"/>
       <c r="K42" s="1">
         <v>8</v>
       </c>
@@ -4125,7 +3444,6 @@
       <c r="S42" s="7">
         <v>7</v>
       </c>
-      <c r="T42" s="1"/>
       <c r="U42" s="1">
         <v>8</v>
       </c>
@@ -4154,7 +3472,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="44" s="1" customFormat="1" spans="2:19">
+    <row r="44" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B44" s="1">
         <v>1</v>
       </c>
@@ -4204,7 +3522,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" s="1" customFormat="1" spans="1:19">
+    <row r="45" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>1</v>
       </c>
@@ -4260,7 +3578,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="46" s="1" customFormat="1" spans="1:19">
+    <row r="46" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>2</v>
       </c>
@@ -4316,7 +3634,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="47" s="1" customFormat="1" spans="1:19">
+    <row r="47" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>3</v>
       </c>
@@ -4372,7 +3690,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="48" s="1" customFormat="1" spans="1:19">
+    <row r="48" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>4</v>
       </c>
@@ -4428,7 +3746,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="49" s="1" customFormat="1" spans="1:19">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>5</v>
       </c>
@@ -4484,7 +3802,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="50" s="1" customFormat="1" spans="1:19">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>6</v>
       </c>
@@ -4540,7 +3858,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="51" s="1" customFormat="1" spans="1:19">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>7</v>
       </c>
@@ -4596,7 +3914,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="52" s="1" customFormat="1" spans="1:19">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>8</v>
       </c>
@@ -4653,7 +3971,3562 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95F37FE0-6766-4987-9FD4-EA9070FC1F3F}">
+  <dimension ref="A1:AC52"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="AF20" sqref="AF20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="2.3984375" style="1" customWidth="1"/>
+    <col min="2" max="9" width="4.3984375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9" style="1"/>
+    <col min="11" max="11" width="2.3984375" style="1" customWidth="1"/>
+    <col min="12" max="19" width="4.3984375" style="1" customWidth="1"/>
+    <col min="20" max="20" width="9" style="1"/>
+    <col min="21" max="21" width="3.3984375" style="1" customWidth="1"/>
+    <col min="22" max="29" width="4.3984375" style="1" customWidth="1"/>
+    <col min="30" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1">
+        <v>8</v>
+      </c>
+      <c r="L1" s="1">
+        <v>1</v>
+      </c>
+      <c r="M1" s="1">
+        <v>2</v>
+      </c>
+      <c r="N1" s="1">
+        <v>3</v>
+      </c>
+      <c r="O1" s="1">
+        <v>4</v>
+      </c>
+      <c r="P1" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>6</v>
+      </c>
+      <c r="R1" s="1">
+        <v>7</v>
+      </c>
+      <c r="S1" s="1">
+        <v>8</v>
+      </c>
+      <c r="V1" s="1">
+        <v>1</v>
+      </c>
+      <c r="W1" s="1">
+        <v>2</v>
+      </c>
+      <c r="X1" s="1">
+        <v>3</v>
+      </c>
+      <c r="Y1" s="1">
+        <v>4</v>
+      </c>
+      <c r="Z1" s="1">
+        <v>5</v>
+      </c>
+      <c r="AA1" s="1">
+        <v>6</v>
+      </c>
+      <c r="AB1" s="1">
+        <v>7</v>
+      </c>
+      <c r="AC1" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>137</v>
+      </c>
+      <c r="C2" s="1">
+        <v>135</v>
+      </c>
+      <c r="D2" s="1">
+        <v>140</v>
+      </c>
+      <c r="E2" s="1">
+        <v>140</v>
+      </c>
+      <c r="F2" s="1">
+        <v>138</v>
+      </c>
+      <c r="G2" s="1">
+        <v>140</v>
+      </c>
+      <c r="H2" s="1">
+        <v>140</v>
+      </c>
+      <c r="I2" s="1">
+        <v>140</v>
+      </c>
+      <c r="K2" s="1">
+        <v>1</v>
+      </c>
+      <c r="L2" s="4">
+        <v>-1</v>
+      </c>
+      <c r="M2" s="10">
+        <v>-3</v>
+      </c>
+      <c r="N2" s="7">
+        <v>1</v>
+      </c>
+      <c r="O2" s="4">
+        <v>1</v>
+      </c>
+      <c r="P2" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="10">
+        <v>3</v>
+      </c>
+      <c r="R2" s="7">
+        <v>0</v>
+      </c>
+      <c r="S2" s="4">
+        <v>0</v>
+      </c>
+      <c r="U2" s="1">
+        <v>1</v>
+      </c>
+      <c r="V2" s="11">
+        <v>138</v>
+      </c>
+      <c r="W2" s="11">
+        <v>139</v>
+      </c>
+      <c r="X2" s="2">
+        <v>137</v>
+      </c>
+      <c r="Y2" s="2">
+        <v>140</v>
+      </c>
+      <c r="Z2" s="5">
+        <v>-1</v>
+      </c>
+      <c r="AA2" s="5">
+        <v>1</v>
+      </c>
+      <c r="AB2" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC2" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>143</v>
+      </c>
+      <c r="C3" s="2">
+        <v>138</v>
+      </c>
+      <c r="D3" s="2">
+        <v>139</v>
+      </c>
+      <c r="E3" s="1">
+        <v>143</v>
+      </c>
+      <c r="F3" s="1">
+        <v>139</v>
+      </c>
+      <c r="G3" s="2">
+        <v>137</v>
+      </c>
+      <c r="H3" s="2">
+        <v>140</v>
+      </c>
+      <c r="I3" s="1">
+        <v>142</v>
+      </c>
+      <c r="K3" s="1">
+        <v>2</v>
+      </c>
+      <c r="L3" s="7">
+        <v>5</v>
+      </c>
+      <c r="M3" s="2">
+        <v>138</v>
+      </c>
+      <c r="N3" s="2">
+        <v>139</v>
+      </c>
+      <c r="O3" s="10">
+        <v>4</v>
+      </c>
+      <c r="P3" s="7">
+        <v>2</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>137</v>
+      </c>
+      <c r="R3" s="2">
+        <v>140</v>
+      </c>
+      <c r="S3" s="6">
+        <v>2</v>
+      </c>
+      <c r="U3" s="1">
+        <v>2</v>
+      </c>
+      <c r="V3" s="11">
+        <v>136</v>
+      </c>
+      <c r="W3" s="11">
+        <v>138</v>
+      </c>
+      <c r="X3" s="2">
+        <v>138</v>
+      </c>
+      <c r="Y3" s="2">
+        <v>138</v>
+      </c>
+      <c r="Z3" s="5">
+        <v>2</v>
+      </c>
+      <c r="AA3" s="5">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>135</v>
+      </c>
+      <c r="C4" s="2">
+        <v>136</v>
+      </c>
+      <c r="D4" s="2">
+        <v>138</v>
+      </c>
+      <c r="E4" s="1">
+        <v>139</v>
+      </c>
+      <c r="F4" s="1">
+        <v>136</v>
+      </c>
+      <c r="G4" s="2">
+        <v>138</v>
+      </c>
+      <c r="H4" s="2">
+        <v>138</v>
+      </c>
+      <c r="I4" s="1">
+        <v>141</v>
+      </c>
+      <c r="K4" s="1">
+        <v>3</v>
+      </c>
+      <c r="L4" s="10">
+        <v>-1</v>
+      </c>
+      <c r="M4" s="2">
+        <v>136</v>
+      </c>
+      <c r="N4" s="2">
+        <v>138</v>
+      </c>
+      <c r="O4" s="7">
+        <v>1</v>
+      </c>
+      <c r="P4" s="6">
+        <v>-2</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>138</v>
+      </c>
+      <c r="R4" s="2">
+        <v>138</v>
+      </c>
+      <c r="S4" s="7">
+        <v>3</v>
+      </c>
+      <c r="U4" s="1">
+        <v>3</v>
+      </c>
+      <c r="V4" s="2">
+        <v>140</v>
+      </c>
+      <c r="W4" s="2">
+        <v>137</v>
+      </c>
+      <c r="X4" s="2">
+        <v>132</v>
+      </c>
+      <c r="Y4" s="2">
+        <v>138</v>
+      </c>
+      <c r="Z4" s="4">
+        <v>-3</v>
+      </c>
+      <c r="AA4" s="4">
+        <v>-2</v>
+      </c>
+      <c r="AB4" s="4">
+        <v>4</v>
+      </c>
+      <c r="AC4" s="4">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>138</v>
+      </c>
+      <c r="C5" s="1">
+        <v>137</v>
+      </c>
+      <c r="D5" s="1">
+        <v>139</v>
+      </c>
+      <c r="E5" s="1">
+        <v>139</v>
+      </c>
+      <c r="F5" s="1">
+        <v>138</v>
+      </c>
+      <c r="G5" s="1">
+        <v>137</v>
+      </c>
+      <c r="H5" s="1">
+        <v>143</v>
+      </c>
+      <c r="I5" s="1">
+        <v>137</v>
+      </c>
+      <c r="K5" s="1">
+        <v>4</v>
+      </c>
+      <c r="L5" s="4">
+        <v>2</v>
+      </c>
+      <c r="M5" s="7">
+        <v>1</v>
+      </c>
+      <c r="N5" s="10">
+        <v>1</v>
+      </c>
+      <c r="O5" s="4">
+        <v>1</v>
+      </c>
+      <c r="P5" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="7">
+        <v>-1</v>
+      </c>
+      <c r="R5" s="6">
+        <v>5</v>
+      </c>
+      <c r="S5" s="4">
+        <v>-1</v>
+      </c>
+      <c r="U5" s="1">
+        <v>4</v>
+      </c>
+      <c r="V5" s="2">
+        <v>139</v>
+      </c>
+      <c r="W5" s="2">
+        <v>139</v>
+      </c>
+      <c r="X5" s="2">
+        <v>129</v>
+      </c>
+      <c r="Y5" s="2">
+        <v>139</v>
+      </c>
+      <c r="Z5" s="4">
+        <v>-1</v>
+      </c>
+      <c r="AA5" s="4">
+        <v>-5</v>
+      </c>
+      <c r="AB5" s="4">
+        <v>9</v>
+      </c>
+      <c r="AC5" s="4">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>137</v>
+      </c>
+      <c r="C6" s="1">
+        <v>138</v>
+      </c>
+      <c r="D6" s="1">
+        <v>136</v>
+      </c>
+      <c r="E6" s="1">
+        <v>135</v>
+      </c>
+      <c r="F6" s="1">
+        <v>136</v>
+      </c>
+      <c r="G6" s="1">
+        <v>138</v>
+      </c>
+      <c r="H6" s="1">
+        <v>141</v>
+      </c>
+      <c r="I6" s="1">
+        <v>134</v>
+      </c>
+      <c r="K6" s="1">
+        <v>5</v>
+      </c>
+      <c r="L6" s="4">
+        <v>-3</v>
+      </c>
+      <c r="M6" s="6">
+        <v>-2</v>
+      </c>
+      <c r="N6" s="7">
+        <v>-1</v>
+      </c>
+      <c r="O6" s="4">
+        <v>-2</v>
+      </c>
+      <c r="P6" s="4">
+        <v>4</v>
+      </c>
+      <c r="Q6" s="6">
+        <v>6</v>
+      </c>
+      <c r="R6" s="7">
+        <v>3</v>
+      </c>
+      <c r="S6" s="4">
+        <v>-4</v>
+      </c>
+      <c r="U6" s="1">
+        <v>5</v>
+      </c>
+      <c r="V6" s="8">
+        <v>-3</v>
+      </c>
+      <c r="W6" s="8">
+        <v>4</v>
+      </c>
+      <c r="X6" s="6">
+        <v>3</v>
+      </c>
+      <c r="Y6" s="6">
+        <v>2</v>
+      </c>
+      <c r="Z6" s="9">
+        <v>5</v>
+      </c>
+      <c r="AA6" s="9">
+        <v>1</v>
+      </c>
+      <c r="AB6" s="7">
+        <v>2</v>
+      </c>
+      <c r="AC6" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>136</v>
+      </c>
+      <c r="C7" s="2">
+        <v>140</v>
+      </c>
+      <c r="D7" s="2">
+        <v>137</v>
+      </c>
+      <c r="E7" s="1">
+        <v>136</v>
+      </c>
+      <c r="F7" s="1">
+        <v>135</v>
+      </c>
+      <c r="G7" s="2">
+        <v>132</v>
+      </c>
+      <c r="H7" s="2">
+        <v>138</v>
+      </c>
+      <c r="I7" s="1">
+        <v>138</v>
+      </c>
+      <c r="K7" s="1">
+        <v>6</v>
+      </c>
+      <c r="L7" s="7">
+        <v>-4</v>
+      </c>
+      <c r="M7" s="2">
+        <v>140</v>
+      </c>
+      <c r="N7" s="2">
+        <v>137</v>
+      </c>
+      <c r="O7" s="6">
+        <v>-1</v>
+      </c>
+      <c r="P7" s="7">
+        <v>3</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>132</v>
+      </c>
+      <c r="R7" s="2">
+        <v>138</v>
+      </c>
+      <c r="S7" s="6">
+        <v>0</v>
+      </c>
+      <c r="U7" s="1">
+        <v>6</v>
+      </c>
+      <c r="V7" s="8">
+        <v>-1</v>
+      </c>
+      <c r="W7" s="8">
+        <v>1</v>
+      </c>
+      <c r="X7" s="6">
+        <v>-2</v>
+      </c>
+      <c r="Y7" s="6">
+        <v>5</v>
+      </c>
+      <c r="Z7" s="9">
+        <v>1</v>
+      </c>
+      <c r="AA7" s="9">
+        <v>1</v>
+      </c>
+      <c r="AB7" s="7">
+        <v>-1</v>
+      </c>
+      <c r="AC7" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>137</v>
+      </c>
+      <c r="C8" s="2">
+        <v>139</v>
+      </c>
+      <c r="D8" s="2">
+        <v>139</v>
+      </c>
+      <c r="E8" s="1">
+        <v>136</v>
+      </c>
+      <c r="F8" s="1">
+        <v>131</v>
+      </c>
+      <c r="G8" s="2">
+        <v>129</v>
+      </c>
+      <c r="H8" s="2">
+        <v>139</v>
+      </c>
+      <c r="I8" s="1">
+        <v>138</v>
+      </c>
+      <c r="K8" s="1">
+        <v>7</v>
+      </c>
+      <c r="L8" s="6">
+        <v>-2</v>
+      </c>
+      <c r="M8" s="2">
+        <v>139</v>
+      </c>
+      <c r="N8" s="2">
+        <v>139</v>
+      </c>
+      <c r="O8" s="7">
+        <v>-3</v>
+      </c>
+      <c r="P8" s="6">
+        <v>2</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>129</v>
+      </c>
+      <c r="R8" s="2">
+        <v>139</v>
+      </c>
+      <c r="S8" s="7">
+        <v>-1</v>
+      </c>
+      <c r="U8" s="1">
+        <v>7</v>
+      </c>
+      <c r="V8" s="6">
+        <v>-2</v>
+      </c>
+      <c r="W8" s="6">
+        <v>-1</v>
+      </c>
+      <c r="X8" s="6">
+        <v>6</v>
+      </c>
+      <c r="Y8" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="7">
+        <v>-4</v>
+      </c>
+      <c r="AA8" s="7">
+        <v>-1</v>
+      </c>
+      <c r="AB8" s="7">
+        <v>3</v>
+      </c>
+      <c r="AC8" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
+        <v>138</v>
+      </c>
+      <c r="C9" s="1">
+        <v>135</v>
+      </c>
+      <c r="D9" s="1">
+        <v>137</v>
+      </c>
+      <c r="E9" s="1">
+        <v>134</v>
+      </c>
+      <c r="F9" s="1">
+        <v>138</v>
+      </c>
+      <c r="G9" s="1">
+        <v>136</v>
+      </c>
+      <c r="H9" s="1">
+        <v>139</v>
+      </c>
+      <c r="I9" s="1">
+        <v>137</v>
+      </c>
+      <c r="K9" s="1">
+        <v>8</v>
+      </c>
+      <c r="L9" s="4">
+        <v>-1</v>
+      </c>
+      <c r="M9" s="7">
+        <v>-4</v>
+      </c>
+      <c r="N9" s="6">
+        <v>-2</v>
+      </c>
+      <c r="O9" s="4">
+        <v>-5</v>
+      </c>
+      <c r="P9" s="4">
+        <v>9</v>
+      </c>
+      <c r="Q9" s="7">
+        <v>7</v>
+      </c>
+      <c r="R9" s="6">
+        <v>0</v>
+      </c>
+      <c r="S9" s="4">
+        <v>-2</v>
+      </c>
+      <c r="U9" s="1">
+        <v>8</v>
+      </c>
+      <c r="V9" s="6">
+        <v>-2</v>
+      </c>
+      <c r="W9" s="6">
+        <v>-2</v>
+      </c>
+      <c r="X9" s="6">
+        <v>2</v>
+      </c>
+      <c r="Y9" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="7">
+        <v>-4</v>
+      </c>
+      <c r="AA9" s="7">
+        <v>-3</v>
+      </c>
+      <c r="AB9" s="7">
+        <v>7</v>
+      </c>
+      <c r="AC9" s="7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="B11" s="1">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1">
+        <v>2</v>
+      </c>
+      <c r="D11" s="1">
+        <v>3</v>
+      </c>
+      <c r="E11" s="1">
+        <v>4</v>
+      </c>
+      <c r="F11" s="1">
+        <v>5</v>
+      </c>
+      <c r="G11" s="1">
+        <v>6</v>
+      </c>
+      <c r="H11" s="1">
+        <v>7</v>
+      </c>
+      <c r="I11" s="1">
+        <v>8</v>
+      </c>
+      <c r="L11" s="1">
+        <v>1</v>
+      </c>
+      <c r="M11" s="1">
+        <v>2</v>
+      </c>
+      <c r="N11" s="1">
+        <v>3</v>
+      </c>
+      <c r="O11" s="1">
+        <v>4</v>
+      </c>
+      <c r="P11" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>6</v>
+      </c>
+      <c r="R11" s="1">
+        <v>7</v>
+      </c>
+      <c r="S11" s="1">
+        <v>8</v>
+      </c>
+      <c r="V11" s="1">
+        <v>1</v>
+      </c>
+      <c r="W11" s="1">
+        <v>2</v>
+      </c>
+      <c r="X11" s="1">
+        <v>3</v>
+      </c>
+      <c r="Y11" s="1">
+        <v>4</v>
+      </c>
+      <c r="Z11" s="1">
+        <v>5</v>
+      </c>
+      <c r="AA11" s="1">
+        <v>6</v>
+      </c>
+      <c r="AB11" s="1">
+        <v>7</v>
+      </c>
+      <c r="AC11" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>1</v>
+      </c>
+      <c r="B12" s="3">
+        <v>138</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0</v>
+      </c>
+      <c r="E12" s="4">
+        <v>2</v>
+      </c>
+      <c r="F12" s="5">
+        <v>-1</v>
+      </c>
+      <c r="G12" s="5">
+        <v>1</v>
+      </c>
+      <c r="H12" s="4">
+        <v>1</v>
+      </c>
+      <c r="I12" s="4">
+        <v>0</v>
+      </c>
+      <c r="K12" s="1">
+        <v>1</v>
+      </c>
+      <c r="L12" s="3">
+        <v>138</v>
+      </c>
+      <c r="M12" s="2">
+        <v>138</v>
+      </c>
+      <c r="N12" s="4">
+        <v>0</v>
+      </c>
+      <c r="O12" s="4">
+        <v>2</v>
+      </c>
+      <c r="P12" s="5">
+        <v>-1</v>
+      </c>
+      <c r="Q12" s="5">
+        <v>1</v>
+      </c>
+      <c r="R12" s="4">
+        <v>1</v>
+      </c>
+      <c r="S12" s="4">
+        <v>0</v>
+      </c>
+      <c r="U12" s="1">
+        <v>1</v>
+      </c>
+      <c r="V12" s="4">
+        <v>0</v>
+      </c>
+      <c r="W12" s="6">
+        <v>1</v>
+      </c>
+      <c r="X12" s="7">
+        <v>-1</v>
+      </c>
+      <c r="Y12" s="4">
+        <v>2</v>
+      </c>
+      <c r="Z12" s="5">
+        <v>-1</v>
+      </c>
+      <c r="AA12" s="5">
+        <v>1</v>
+      </c>
+      <c r="AB12" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC12" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>2</v>
+      </c>
+      <c r="B13" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C13" s="2">
+        <v>-6</v>
+      </c>
+      <c r="D13" s="4">
+        <v>2</v>
+      </c>
+      <c r="E13" s="4">
+        <v>7</v>
+      </c>
+      <c r="F13" s="5">
+        <v>2</v>
+      </c>
+      <c r="G13" s="5">
+        <v>1</v>
+      </c>
+      <c r="H13" s="4">
+        <v>0</v>
+      </c>
+      <c r="I13" s="4">
+        <v>-1</v>
+      </c>
+      <c r="K13" s="1">
+        <v>2</v>
+      </c>
+      <c r="L13" s="2">
+        <v>137</v>
+      </c>
+      <c r="M13" s="2">
+        <v>132</v>
+      </c>
+      <c r="N13" s="4">
+        <v>2</v>
+      </c>
+      <c r="O13" s="4">
+        <v>7</v>
+      </c>
+      <c r="P13" s="5">
+        <v>2</v>
+      </c>
+      <c r="Q13" s="5">
+        <v>1</v>
+      </c>
+      <c r="R13" s="4">
+        <v>0</v>
+      </c>
+      <c r="S13" s="4">
+        <v>-1</v>
+      </c>
+      <c r="U13" s="1">
+        <v>2</v>
+      </c>
+      <c r="V13" s="7">
+        <v>-2</v>
+      </c>
+      <c r="W13" s="3">
+        <v>138</v>
+      </c>
+      <c r="X13" s="2">
+        <v>138</v>
+      </c>
+      <c r="Y13" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="5">
+        <v>2</v>
+      </c>
+      <c r="AA13" s="5">
+        <v>1</v>
+      </c>
+      <c r="AB13" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>3</v>
+      </c>
+      <c r="B14" s="6">
+        <v>1</v>
+      </c>
+      <c r="C14" s="6">
+        <v>0</v>
+      </c>
+      <c r="D14" s="7">
+        <v>-2</v>
+      </c>
+      <c r="E14" s="7">
+        <v>-1</v>
+      </c>
+      <c r="F14" s="4">
+        <v>-3</v>
+      </c>
+      <c r="G14" s="4">
+        <v>-2</v>
+      </c>
+      <c r="H14" s="4">
+        <v>4</v>
+      </c>
+      <c r="I14" s="4">
+        <v>-4</v>
+      </c>
+      <c r="K14" s="1">
+        <v>3</v>
+      </c>
+      <c r="L14" s="6">
+        <v>1</v>
+      </c>
+      <c r="M14" s="6">
+        <v>0</v>
+      </c>
+      <c r="N14" s="7">
+        <v>-2</v>
+      </c>
+      <c r="O14" s="7">
+        <v>-1</v>
+      </c>
+      <c r="P14" s="4">
+        <v>-3</v>
+      </c>
+      <c r="Q14" s="4">
+        <v>-2</v>
+      </c>
+      <c r="R14" s="4">
+        <v>4</v>
+      </c>
+      <c r="S14" s="4">
+        <v>-4</v>
+      </c>
+      <c r="U14" s="1">
+        <v>3</v>
+      </c>
+      <c r="V14" s="6">
+        <v>3</v>
+      </c>
+      <c r="W14" s="2">
+        <v>137</v>
+      </c>
+      <c r="X14" s="2">
+        <v>132</v>
+      </c>
+      <c r="Y14" s="7">
+        <v>6</v>
+      </c>
+      <c r="Z14" s="4">
+        <v>-3</v>
+      </c>
+      <c r="AA14" s="4">
+        <v>-2</v>
+      </c>
+      <c r="AB14" s="4">
+        <v>4</v>
+      </c>
+      <c r="AC14" s="4">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>4</v>
+      </c>
+      <c r="B15" s="6">
+        <v>3</v>
+      </c>
+      <c r="C15" s="6">
+        <v>-3</v>
+      </c>
+      <c r="D15" s="7">
+        <v>2</v>
+      </c>
+      <c r="E15" s="7">
+        <v>6</v>
+      </c>
+      <c r="F15" s="4">
+        <v>-1</v>
+      </c>
+      <c r="G15" s="4">
+        <v>-5</v>
+      </c>
+      <c r="H15" s="4">
+        <v>9</v>
+      </c>
+      <c r="I15" s="4">
+        <v>-2</v>
+      </c>
+      <c r="K15" s="1">
+        <v>4</v>
+      </c>
+      <c r="L15" s="6">
+        <v>3</v>
+      </c>
+      <c r="M15" s="6">
+        <v>-3</v>
+      </c>
+      <c r="N15" s="7">
+        <v>2</v>
+      </c>
+      <c r="O15" s="7">
+        <v>6</v>
+      </c>
+      <c r="P15" s="4">
+        <v>-1</v>
+      </c>
+      <c r="Q15" s="4">
+        <v>-5</v>
+      </c>
+      <c r="R15" s="4">
+        <v>9</v>
+      </c>
+      <c r="S15" s="4">
+        <v>-2</v>
+      </c>
+      <c r="U15" s="1">
+        <v>4</v>
+      </c>
+      <c r="V15" s="4">
+        <v>2</v>
+      </c>
+      <c r="W15" s="7">
+        <v>2</v>
+      </c>
+      <c r="X15" s="6">
+        <v>-3</v>
+      </c>
+      <c r="Y15" s="4">
+        <v>7</v>
+      </c>
+      <c r="Z15" s="4">
+        <v>-1</v>
+      </c>
+      <c r="AA15" s="4">
+        <v>-5</v>
+      </c>
+      <c r="AB15" s="4">
+        <v>9</v>
+      </c>
+      <c r="AC15" s="4">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>5</v>
+      </c>
+      <c r="B16" s="8">
+        <v>-3</v>
+      </c>
+      <c r="C16" s="8">
+        <v>4</v>
+      </c>
+      <c r="D16" s="6">
+        <v>3</v>
+      </c>
+      <c r="E16" s="6">
+        <v>2</v>
+      </c>
+      <c r="F16" s="9">
+        <v>1</v>
+      </c>
+      <c r="G16" s="9">
+        <v>1</v>
+      </c>
+      <c r="H16" s="7">
+        <v>0</v>
+      </c>
+      <c r="I16" s="7">
+        <v>3</v>
+      </c>
+      <c r="K16" s="1">
+        <v>5</v>
+      </c>
+      <c r="L16" s="8">
+        <v>-3</v>
+      </c>
+      <c r="M16" s="8">
+        <v>4</v>
+      </c>
+      <c r="N16" s="6">
+        <v>3</v>
+      </c>
+      <c r="O16" s="6">
+        <v>2</v>
+      </c>
+      <c r="P16" s="9">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="9">
+        <v>1</v>
+      </c>
+      <c r="R16" s="7">
+        <v>0</v>
+      </c>
+      <c r="S16" s="7">
+        <v>3</v>
+      </c>
+      <c r="U16" s="1">
+        <v>5</v>
+      </c>
+      <c r="V16" s="8">
+        <v>-3</v>
+      </c>
+      <c r="W16" s="8">
+        <v>4</v>
+      </c>
+      <c r="X16" s="6">
+        <v>3</v>
+      </c>
+      <c r="Y16" s="6">
+        <v>2</v>
+      </c>
+      <c r="Z16" s="9">
+        <v>5</v>
+      </c>
+      <c r="AA16" s="9">
+        <v>1</v>
+      </c>
+      <c r="AB16" s="7">
+        <v>2</v>
+      </c>
+      <c r="AC16" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>6</v>
+      </c>
+      <c r="B17" s="8">
+        <v>-1</v>
+      </c>
+      <c r="C17" s="8">
+        <v>1</v>
+      </c>
+      <c r="D17" s="6">
+        <v>-2</v>
+      </c>
+      <c r="E17" s="6">
+        <v>5</v>
+      </c>
+      <c r="F17" s="9">
+        <v>5</v>
+      </c>
+      <c r="G17" s="9">
+        <v>1</v>
+      </c>
+      <c r="H17" s="7">
+        <v>2</v>
+      </c>
+      <c r="I17" s="7">
+        <v>-1</v>
+      </c>
+      <c r="K17" s="1">
+        <v>6</v>
+      </c>
+      <c r="L17" s="8">
+        <v>-1</v>
+      </c>
+      <c r="M17" s="8">
+        <v>1</v>
+      </c>
+      <c r="N17" s="6">
+        <v>-2</v>
+      </c>
+      <c r="O17" s="6">
+        <v>5</v>
+      </c>
+      <c r="P17" s="9">
+        <v>5</v>
+      </c>
+      <c r="Q17" s="9">
+        <v>1</v>
+      </c>
+      <c r="R17" s="7">
+        <v>2</v>
+      </c>
+      <c r="S17" s="7">
+        <v>-1</v>
+      </c>
+      <c r="U17" s="1">
+        <v>6</v>
+      </c>
+      <c r="V17" s="8">
+        <v>-1</v>
+      </c>
+      <c r="W17" s="8">
+        <v>1</v>
+      </c>
+      <c r="X17" s="6">
+        <v>-2</v>
+      </c>
+      <c r="Y17" s="6">
+        <v>5</v>
+      </c>
+      <c r="Z17" s="9">
+        <v>1</v>
+      </c>
+      <c r="AA17" s="9">
+        <v>1</v>
+      </c>
+      <c r="AB17" s="7">
+        <v>-1</v>
+      </c>
+      <c r="AC17" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>7</v>
+      </c>
+      <c r="B18" s="6">
+        <v>-2</v>
+      </c>
+      <c r="C18" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D18" s="6">
+        <v>6</v>
+      </c>
+      <c r="E18" s="6">
+        <v>0</v>
+      </c>
+      <c r="F18" s="7">
+        <v>-1</v>
+      </c>
+      <c r="G18" s="7">
+        <v>-3</v>
+      </c>
+      <c r="H18" s="7">
+        <v>3</v>
+      </c>
+      <c r="I18" s="7">
+        <v>-1</v>
+      </c>
+      <c r="K18" s="1">
+        <v>7</v>
+      </c>
+      <c r="L18" s="6">
+        <v>-2</v>
+      </c>
+      <c r="M18" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N18" s="6">
+        <v>6</v>
+      </c>
+      <c r="O18" s="6">
+        <v>0</v>
+      </c>
+      <c r="P18" s="7">
+        <v>-1</v>
+      </c>
+      <c r="Q18" s="7">
+        <v>-3</v>
+      </c>
+      <c r="R18" s="7">
+        <v>3</v>
+      </c>
+      <c r="S18" s="7">
+        <v>-1</v>
+      </c>
+      <c r="U18" s="1">
+        <v>7</v>
+      </c>
+      <c r="V18" s="6">
+        <v>-2</v>
+      </c>
+      <c r="W18" s="6">
+        <v>-1</v>
+      </c>
+      <c r="X18" s="6">
+        <v>6</v>
+      </c>
+      <c r="Y18" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="7">
+        <v>-4</v>
+      </c>
+      <c r="AA18" s="7">
+        <v>-1</v>
+      </c>
+      <c r="AB18" s="7">
+        <v>3</v>
+      </c>
+      <c r="AC18" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>8</v>
+      </c>
+      <c r="B19" s="6">
+        <v>-2</v>
+      </c>
+      <c r="C19" s="6">
+        <v>-2</v>
+      </c>
+      <c r="D19" s="6">
+        <v>2</v>
+      </c>
+      <c r="E19" s="6">
+        <v>0</v>
+      </c>
+      <c r="F19" s="7">
+        <v>-4</v>
+      </c>
+      <c r="G19" s="7">
+        <v>-4</v>
+      </c>
+      <c r="H19" s="7">
+        <v>3</v>
+      </c>
+      <c r="I19" s="7">
+        <v>7</v>
+      </c>
+      <c r="K19" s="1">
+        <v>8</v>
+      </c>
+      <c r="L19" s="6">
+        <v>-2</v>
+      </c>
+      <c r="M19" s="6">
+        <v>-2</v>
+      </c>
+      <c r="N19" s="6">
+        <v>2</v>
+      </c>
+      <c r="O19" s="6">
+        <v>0</v>
+      </c>
+      <c r="P19" s="7">
+        <v>-4</v>
+      </c>
+      <c r="Q19" s="7">
+        <v>-4</v>
+      </c>
+      <c r="R19" s="7">
+        <v>3</v>
+      </c>
+      <c r="S19" s="7">
+        <v>7</v>
+      </c>
+      <c r="U19" s="1">
+        <v>8</v>
+      </c>
+      <c r="V19" s="6">
+        <v>-2</v>
+      </c>
+      <c r="W19" s="6">
+        <v>-2</v>
+      </c>
+      <c r="X19" s="6">
+        <v>2</v>
+      </c>
+      <c r="Y19" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="7">
+        <v>-4</v>
+      </c>
+      <c r="AA19" s="7">
+        <v>-3</v>
+      </c>
+      <c r="AB19" s="7">
+        <v>7</v>
+      </c>
+      <c r="AC19" s="7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="B21" s="1">
+        <v>1</v>
+      </c>
+      <c r="C21" s="1">
+        <v>2</v>
+      </c>
+      <c r="D21" s="1">
+        <v>3</v>
+      </c>
+      <c r="E21" s="1">
+        <v>4</v>
+      </c>
+      <c r="F21" s="1">
+        <v>5</v>
+      </c>
+      <c r="G21" s="1">
+        <v>6</v>
+      </c>
+      <c r="H21" s="1">
+        <v>7</v>
+      </c>
+      <c r="I21" s="1">
+        <v>8</v>
+      </c>
+      <c r="L21" s="1">
+        <v>1</v>
+      </c>
+      <c r="M21" s="1">
+        <v>2</v>
+      </c>
+      <c r="N21" s="1">
+        <v>3</v>
+      </c>
+      <c r="O21" s="1">
+        <v>4</v>
+      </c>
+      <c r="P21" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q21" s="1">
+        <v>6</v>
+      </c>
+      <c r="R21" s="1">
+        <v>7</v>
+      </c>
+      <c r="S21" s="1">
+        <v>8</v>
+      </c>
+      <c r="V21" s="1">
+        <v>1</v>
+      </c>
+      <c r="W21" s="1">
+        <v>2</v>
+      </c>
+      <c r="X21" s="1">
+        <v>3</v>
+      </c>
+      <c r="Y21" s="1">
+        <v>4</v>
+      </c>
+      <c r="Z21" s="1">
+        <v>5</v>
+      </c>
+      <c r="AA21" s="1">
+        <v>6</v>
+      </c>
+      <c r="AB21" s="1">
+        <v>7</v>
+      </c>
+      <c r="AC21" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>1</v>
+      </c>
+      <c r="B22" s="3">
+        <v>138</v>
+      </c>
+      <c r="C22" s="2">
+        <v>0</v>
+      </c>
+      <c r="D22" s="4">
+        <v>0</v>
+      </c>
+      <c r="E22" s="4">
+        <v>2</v>
+      </c>
+      <c r="F22" s="5">
+        <v>255</v>
+      </c>
+      <c r="G22" s="5">
+        <v>1</v>
+      </c>
+      <c r="H22" s="4">
+        <v>1</v>
+      </c>
+      <c r="I22" s="4">
+        <v>0</v>
+      </c>
+      <c r="K22" s="1">
+        <v>1</v>
+      </c>
+      <c r="L22" s="3">
+        <v>138</v>
+      </c>
+      <c r="M22" s="2">
+        <v>138</v>
+      </c>
+      <c r="N22" s="4">
+        <v>0</v>
+      </c>
+      <c r="O22" s="4">
+        <v>2</v>
+      </c>
+      <c r="P22" s="5">
+        <v>255</v>
+      </c>
+      <c r="Q22" s="5">
+        <v>1</v>
+      </c>
+      <c r="R22" s="4">
+        <v>1</v>
+      </c>
+      <c r="S22" s="4">
+        <v>0</v>
+      </c>
+      <c r="U22" s="1">
+        <v>1</v>
+      </c>
+      <c r="V22" s="4">
+        <v>0</v>
+      </c>
+      <c r="W22" s="6">
+        <v>1</v>
+      </c>
+      <c r="X22" s="7">
+        <v>255</v>
+      </c>
+      <c r="Y22" s="4">
+        <v>2</v>
+      </c>
+      <c r="Z22" s="5">
+        <v>255</v>
+      </c>
+      <c r="AA22" s="5">
+        <v>1</v>
+      </c>
+      <c r="AB22" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC22" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>2</v>
+      </c>
+      <c r="B23" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C23" s="2">
+        <v>-6</v>
+      </c>
+      <c r="D23" s="4">
+        <v>2</v>
+      </c>
+      <c r="E23" s="4">
+        <v>7</v>
+      </c>
+      <c r="F23" s="5">
+        <v>2</v>
+      </c>
+      <c r="G23" s="5">
+        <v>1</v>
+      </c>
+      <c r="H23" s="4">
+        <v>0</v>
+      </c>
+      <c r="I23" s="4">
+        <v>255</v>
+      </c>
+      <c r="K23" s="1">
+        <v>2</v>
+      </c>
+      <c r="L23" s="2">
+        <v>137</v>
+      </c>
+      <c r="M23" s="2">
+        <v>132</v>
+      </c>
+      <c r="N23" s="4">
+        <v>2</v>
+      </c>
+      <c r="O23" s="4">
+        <v>7</v>
+      </c>
+      <c r="P23" s="5">
+        <v>2</v>
+      </c>
+      <c r="Q23" s="5">
+        <v>1</v>
+      </c>
+      <c r="R23" s="4">
+        <v>0</v>
+      </c>
+      <c r="S23" s="4">
+        <v>255</v>
+      </c>
+      <c r="U23" s="1">
+        <v>2</v>
+      </c>
+      <c r="V23" s="7">
+        <v>254</v>
+      </c>
+      <c r="W23" s="3">
+        <v>138</v>
+      </c>
+      <c r="X23" s="2">
+        <v>138</v>
+      </c>
+      <c r="Y23" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="5">
+        <v>2</v>
+      </c>
+      <c r="AA23" s="5">
+        <v>1</v>
+      </c>
+      <c r="AB23" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC23" s="4">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>3</v>
+      </c>
+      <c r="B24" s="6">
+        <v>1</v>
+      </c>
+      <c r="C24" s="6">
+        <v>0</v>
+      </c>
+      <c r="D24" s="7">
+        <v>255</v>
+      </c>
+      <c r="E24" s="7">
+        <v>6</v>
+      </c>
+      <c r="F24" s="4">
+        <v>253</v>
+      </c>
+      <c r="G24" s="4">
+        <v>254</v>
+      </c>
+      <c r="H24" s="4">
+        <v>4</v>
+      </c>
+      <c r="I24" s="4">
+        <v>252</v>
+      </c>
+      <c r="K24" s="1">
+        <v>3</v>
+      </c>
+      <c r="L24" s="6">
+        <v>1</v>
+      </c>
+      <c r="M24" s="6">
+        <v>0</v>
+      </c>
+      <c r="N24" s="7">
+        <v>255</v>
+      </c>
+      <c r="O24" s="7">
+        <v>6</v>
+      </c>
+      <c r="P24" s="4">
+        <v>253</v>
+      </c>
+      <c r="Q24" s="4">
+        <v>254</v>
+      </c>
+      <c r="R24" s="4">
+        <v>4</v>
+      </c>
+      <c r="S24" s="4">
+        <v>252</v>
+      </c>
+      <c r="U24" s="1">
+        <v>3</v>
+      </c>
+      <c r="V24" s="6">
+        <v>3</v>
+      </c>
+      <c r="W24" s="2">
+        <v>137</v>
+      </c>
+      <c r="X24" s="2">
+        <v>132</v>
+      </c>
+      <c r="Y24" s="7">
+        <v>6</v>
+      </c>
+      <c r="Z24" s="4">
+        <v>253</v>
+      </c>
+      <c r="AA24" s="4">
+        <v>254</v>
+      </c>
+      <c r="AB24" s="4">
+        <v>4</v>
+      </c>
+      <c r="AC24" s="4">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>4</v>
+      </c>
+      <c r="B25" s="6">
+        <v>3</v>
+      </c>
+      <c r="C25" s="6">
+        <v>253</v>
+      </c>
+      <c r="D25" s="7">
+        <v>254</v>
+      </c>
+      <c r="E25" s="7">
+        <v>2</v>
+      </c>
+      <c r="F25" s="4">
+        <v>255</v>
+      </c>
+      <c r="G25" s="4">
+        <v>251</v>
+      </c>
+      <c r="H25" s="4">
+        <v>9</v>
+      </c>
+      <c r="I25" s="4">
+        <v>254</v>
+      </c>
+      <c r="K25" s="1">
+        <v>4</v>
+      </c>
+      <c r="L25" s="6">
+        <v>3</v>
+      </c>
+      <c r="M25" s="6">
+        <v>253</v>
+      </c>
+      <c r="N25" s="7">
+        <v>254</v>
+      </c>
+      <c r="O25" s="7">
+        <v>2</v>
+      </c>
+      <c r="P25" s="4">
+        <v>255</v>
+      </c>
+      <c r="Q25" s="4">
+        <v>251</v>
+      </c>
+      <c r="R25" s="4">
+        <v>9</v>
+      </c>
+      <c r="S25" s="4">
+        <v>254</v>
+      </c>
+      <c r="U25" s="1">
+        <v>4</v>
+      </c>
+      <c r="V25" s="4">
+        <v>2</v>
+      </c>
+      <c r="W25" s="7">
+        <v>2</v>
+      </c>
+      <c r="X25" s="6">
+        <v>253</v>
+      </c>
+      <c r="Y25" s="4">
+        <v>7</v>
+      </c>
+      <c r="Z25" s="4">
+        <v>255</v>
+      </c>
+      <c r="AA25" s="4">
+        <v>251</v>
+      </c>
+      <c r="AB25" s="4">
+        <v>9</v>
+      </c>
+      <c r="AC25" s="4">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>5</v>
+      </c>
+      <c r="B26" s="8">
+        <v>253</v>
+      </c>
+      <c r="C26" s="8">
+        <v>4</v>
+      </c>
+      <c r="D26" s="6">
+        <v>3</v>
+      </c>
+      <c r="E26" s="6">
+        <v>2</v>
+      </c>
+      <c r="F26" s="9">
+        <v>1</v>
+      </c>
+      <c r="G26" s="9">
+        <v>1</v>
+      </c>
+      <c r="H26" s="7">
+        <v>0</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3</v>
+      </c>
+      <c r="K26" s="1">
+        <v>5</v>
+      </c>
+      <c r="L26" s="8">
+        <v>253</v>
+      </c>
+      <c r="M26" s="8">
+        <v>4</v>
+      </c>
+      <c r="N26" s="6">
+        <v>3</v>
+      </c>
+      <c r="O26" s="6">
+        <v>2</v>
+      </c>
+      <c r="P26" s="9">
+        <v>1</v>
+      </c>
+      <c r="Q26" s="9">
+        <v>1</v>
+      </c>
+      <c r="R26" s="7">
+        <v>0</v>
+      </c>
+      <c r="S26" s="7">
+        <v>3</v>
+      </c>
+      <c r="U26" s="1">
+        <v>5</v>
+      </c>
+      <c r="V26" s="8">
+        <v>253</v>
+      </c>
+      <c r="W26" s="8">
+        <v>4</v>
+      </c>
+      <c r="X26" s="6">
+        <v>3</v>
+      </c>
+      <c r="Y26" s="6">
+        <v>2</v>
+      </c>
+      <c r="Z26" s="9">
+        <v>1</v>
+      </c>
+      <c r="AA26" s="9">
+        <v>1</v>
+      </c>
+      <c r="AB26" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC26" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>6</v>
+      </c>
+      <c r="B27" s="8">
+        <v>255</v>
+      </c>
+      <c r="C27" s="8">
+        <v>1</v>
+      </c>
+      <c r="D27" s="6">
+        <v>254</v>
+      </c>
+      <c r="E27" s="6">
+        <v>5</v>
+      </c>
+      <c r="F27" s="9">
+        <v>5</v>
+      </c>
+      <c r="G27" s="9">
+        <v>1</v>
+      </c>
+      <c r="H27" s="7">
+        <v>2</v>
+      </c>
+      <c r="I27" s="7">
+        <v>255</v>
+      </c>
+      <c r="K27" s="1">
+        <v>6</v>
+      </c>
+      <c r="L27" s="8">
+        <v>255</v>
+      </c>
+      <c r="M27" s="8">
+        <v>1</v>
+      </c>
+      <c r="N27" s="6">
+        <v>254</v>
+      </c>
+      <c r="O27" s="6">
+        <v>5</v>
+      </c>
+      <c r="P27" s="9">
+        <v>5</v>
+      </c>
+      <c r="Q27" s="9">
+        <v>1</v>
+      </c>
+      <c r="R27" s="7">
+        <v>2</v>
+      </c>
+      <c r="S27" s="7">
+        <v>255</v>
+      </c>
+      <c r="U27" s="1">
+        <v>6</v>
+      </c>
+      <c r="V27" s="8">
+        <v>255</v>
+      </c>
+      <c r="W27" s="8">
+        <v>1</v>
+      </c>
+      <c r="X27" s="6">
+        <v>254</v>
+      </c>
+      <c r="Y27" s="6">
+        <v>5</v>
+      </c>
+      <c r="Z27" s="9">
+        <v>5</v>
+      </c>
+      <c r="AA27" s="9">
+        <v>1</v>
+      </c>
+      <c r="AB27" s="7">
+        <v>2</v>
+      </c>
+      <c r="AC27" s="7">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>7</v>
+      </c>
+      <c r="B28" s="6">
+        <v>254</v>
+      </c>
+      <c r="C28" s="6">
+        <v>255</v>
+      </c>
+      <c r="D28" s="6">
+        <v>6</v>
+      </c>
+      <c r="E28" s="6">
+        <v>0</v>
+      </c>
+      <c r="F28" s="7">
+        <v>255</v>
+      </c>
+      <c r="G28" s="7">
+        <v>253</v>
+      </c>
+      <c r="H28" s="7">
+        <v>3</v>
+      </c>
+      <c r="I28" s="7">
+        <v>255</v>
+      </c>
+      <c r="K28" s="1">
+        <v>7</v>
+      </c>
+      <c r="L28" s="6">
+        <v>254</v>
+      </c>
+      <c r="M28" s="6">
+        <v>255</v>
+      </c>
+      <c r="N28" s="6">
+        <v>6</v>
+      </c>
+      <c r="O28" s="6">
+        <v>0</v>
+      </c>
+      <c r="P28" s="7">
+        <v>255</v>
+      </c>
+      <c r="Q28" s="7">
+        <v>253</v>
+      </c>
+      <c r="R28" s="7">
+        <v>3</v>
+      </c>
+      <c r="S28" s="7">
+        <v>255</v>
+      </c>
+      <c r="U28" s="1">
+        <v>7</v>
+      </c>
+      <c r="V28" s="6">
+        <v>254</v>
+      </c>
+      <c r="W28" s="6">
+        <v>255</v>
+      </c>
+      <c r="X28" s="6">
+        <v>6</v>
+      </c>
+      <c r="Y28" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="7">
+        <v>255</v>
+      </c>
+      <c r="AA28" s="7">
+        <v>253</v>
+      </c>
+      <c r="AB28" s="7">
+        <v>3</v>
+      </c>
+      <c r="AC28" s="7">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>8</v>
+      </c>
+      <c r="B29" s="6">
+        <v>254</v>
+      </c>
+      <c r="C29" s="6">
+        <v>254</v>
+      </c>
+      <c r="D29" s="6">
+        <v>2</v>
+      </c>
+      <c r="E29" s="6">
+        <v>0</v>
+      </c>
+      <c r="F29" s="7">
+        <v>252</v>
+      </c>
+      <c r="G29" s="7">
+        <v>252</v>
+      </c>
+      <c r="H29" s="7">
+        <v>3</v>
+      </c>
+      <c r="I29" s="7">
+        <v>7</v>
+      </c>
+      <c r="K29" s="1">
+        <v>8</v>
+      </c>
+      <c r="L29" s="6">
+        <v>254</v>
+      </c>
+      <c r="M29" s="6">
+        <v>254</v>
+      </c>
+      <c r="N29" s="6">
+        <v>2</v>
+      </c>
+      <c r="O29" s="6">
+        <v>0</v>
+      </c>
+      <c r="P29" s="7">
+        <v>252</v>
+      </c>
+      <c r="Q29" s="7">
+        <v>252</v>
+      </c>
+      <c r="R29" s="7">
+        <v>3</v>
+      </c>
+      <c r="S29" s="7">
+        <v>7</v>
+      </c>
+      <c r="U29" s="1">
+        <v>8</v>
+      </c>
+      <c r="V29" s="6">
+        <v>254</v>
+      </c>
+      <c r="W29" s="6">
+        <v>254</v>
+      </c>
+      <c r="X29" s="6">
+        <v>2</v>
+      </c>
+      <c r="Y29" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="7">
+        <v>252</v>
+      </c>
+      <c r="AA29" s="7">
+        <v>252</v>
+      </c>
+      <c r="AB29" s="7">
+        <v>3</v>
+      </c>
+      <c r="AC29" s="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+      <c r="L30" s="6"/>
+      <c r="M30" s="6"/>
+      <c r="N30" s="6"/>
+      <c r="O30" s="6"/>
+      <c r="P30" s="7"/>
+      <c r="Q30" s="7"/>
+      <c r="R30" s="7"/>
+      <c r="S30" s="7"/>
+      <c r="V30" s="6"/>
+      <c r="W30" s="6"/>
+      <c r="X30" s="6"/>
+      <c r="Y30" s="6"/>
+      <c r="Z30" s="7"/>
+      <c r="AA30" s="7"/>
+      <c r="AB30" s="7"/>
+      <c r="AC30" s="7"/>
+    </row>
+    <row r="31" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="L31" s="6"/>
+      <c r="M31" s="6"/>
+      <c r="N31" s="6"/>
+      <c r="O31" s="6"/>
+      <c r="P31" s="7"/>
+      <c r="Q31" s="7"/>
+      <c r="R31" s="7"/>
+      <c r="S31" s="7"/>
+      <c r="V31" s="6"/>
+      <c r="W31" s="6"/>
+      <c r="X31" s="6"/>
+      <c r="Y31" s="6"/>
+      <c r="Z31" s="7"/>
+      <c r="AA31" s="7"/>
+      <c r="AB31" s="7"/>
+      <c r="AC31" s="7"/>
+    </row>
+    <row r="32" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+      <c r="L32" s="6"/>
+      <c r="M32" s="6"/>
+      <c r="N32" s="6"/>
+      <c r="O32" s="6"/>
+      <c r="P32" s="7"/>
+      <c r="Q32" s="7"/>
+      <c r="R32" s="7"/>
+      <c r="S32" s="7"/>
+      <c r="V32" s="6"/>
+      <c r="W32" s="6"/>
+      <c r="X32" s="6"/>
+      <c r="Y32" s="6"/>
+      <c r="Z32" s="7"/>
+      <c r="AA32" s="7"/>
+      <c r="AB32" s="7"/>
+      <c r="AC32" s="7"/>
+    </row>
+    <row r="34" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="B34" s="1">
+        <v>1</v>
+      </c>
+      <c r="C34" s="1">
+        <v>2</v>
+      </c>
+      <c r="D34" s="1">
+        <v>3</v>
+      </c>
+      <c r="E34" s="1">
+        <v>4</v>
+      </c>
+      <c r="F34" s="1">
+        <v>5</v>
+      </c>
+      <c r="G34" s="1">
+        <v>6</v>
+      </c>
+      <c r="H34" s="1">
+        <v>7</v>
+      </c>
+      <c r="I34" s="1">
+        <v>8</v>
+      </c>
+      <c r="L34" s="1">
+        <v>1</v>
+      </c>
+      <c r="M34" s="1">
+        <v>2</v>
+      </c>
+      <c r="N34" s="1">
+        <v>3</v>
+      </c>
+      <c r="O34" s="1">
+        <v>4</v>
+      </c>
+      <c r="P34" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q34" s="1">
+        <v>6</v>
+      </c>
+      <c r="R34" s="1">
+        <v>7</v>
+      </c>
+      <c r="S34" s="1">
+        <v>8</v>
+      </c>
+      <c r="V34" s="1">
+        <v>1</v>
+      </c>
+      <c r="W34" s="1">
+        <v>2</v>
+      </c>
+      <c r="X34" s="1">
+        <v>3</v>
+      </c>
+      <c r="Y34" s="1">
+        <v>4</v>
+      </c>
+      <c r="Z34" s="1">
+        <v>5</v>
+      </c>
+      <c r="AA34" s="1">
+        <v>6</v>
+      </c>
+      <c r="AB34" s="1">
+        <v>7</v>
+      </c>
+      <c r="AC34" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>1</v>
+      </c>
+      <c r="B35" s="4">
+        <v>255</v>
+      </c>
+      <c r="C35" s="6">
+        <v>253</v>
+      </c>
+      <c r="D35" s="7">
+        <v>1</v>
+      </c>
+      <c r="E35" s="4">
+        <v>1</v>
+      </c>
+      <c r="F35" s="4">
+        <v>1</v>
+      </c>
+      <c r="G35" s="6">
+        <v>3</v>
+      </c>
+      <c r="H35" s="7">
+        <v>0</v>
+      </c>
+      <c r="I35" s="4">
+        <v>0</v>
+      </c>
+      <c r="K35" s="1">
+        <v>1</v>
+      </c>
+      <c r="L35" s="4">
+        <v>138</v>
+      </c>
+      <c r="M35" s="6">
+        <v>139</v>
+      </c>
+      <c r="N35" s="7">
+        <v>137</v>
+      </c>
+      <c r="O35" s="4">
+        <v>140</v>
+      </c>
+      <c r="P35" s="5">
+        <v>255</v>
+      </c>
+      <c r="Q35" s="5">
+        <v>1</v>
+      </c>
+      <c r="R35" s="4">
+        <v>1</v>
+      </c>
+      <c r="S35" s="4">
+        <v>0</v>
+      </c>
+      <c r="U35" s="1">
+        <v>1</v>
+      </c>
+      <c r="V35" s="4">
+        <v>138</v>
+      </c>
+      <c r="W35" s="6">
+        <v>139</v>
+      </c>
+      <c r="X35" s="7">
+        <v>393</v>
+      </c>
+      <c r="Y35" s="4">
+        <v>140</v>
+      </c>
+      <c r="Z35" s="5">
+        <v>255</v>
+      </c>
+      <c r="AA35" s="5">
+        <v>1</v>
+      </c>
+      <c r="AB35" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC35" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>2</v>
+      </c>
+      <c r="B36" s="7">
+        <v>5</v>
+      </c>
+      <c r="C36" s="3">
+        <v>138</v>
+      </c>
+      <c r="D36" s="3">
+        <v>139</v>
+      </c>
+      <c r="E36" s="6">
+        <v>4</v>
+      </c>
+      <c r="F36" s="7">
+        <v>2</v>
+      </c>
+      <c r="G36" s="2">
+        <v>137</v>
+      </c>
+      <c r="H36" s="2">
+        <v>140</v>
+      </c>
+      <c r="I36" s="6">
+        <v>2</v>
+      </c>
+      <c r="K36" s="1">
+        <v>2</v>
+      </c>
+      <c r="L36" s="7">
+        <v>136</v>
+      </c>
+      <c r="M36" s="3">
+        <v>138</v>
+      </c>
+      <c r="N36" s="2">
+        <v>138</v>
+      </c>
+      <c r="O36" s="6">
+        <v>138</v>
+      </c>
+      <c r="P36" s="5">
+        <v>2</v>
+      </c>
+      <c r="Q36" s="5">
+        <v>1</v>
+      </c>
+      <c r="R36" s="4">
+        <v>0</v>
+      </c>
+      <c r="S36" s="4">
+        <v>255</v>
+      </c>
+      <c r="U36" s="1">
+        <v>2</v>
+      </c>
+      <c r="V36" s="7">
+        <v>392</v>
+      </c>
+      <c r="W36" s="3">
+        <v>138</v>
+      </c>
+      <c r="X36" s="2">
+        <v>138</v>
+      </c>
+      <c r="Y36" s="6">
+        <v>138</v>
+      </c>
+      <c r="Z36" s="5">
+        <v>2</v>
+      </c>
+      <c r="AA36" s="5">
+        <v>1</v>
+      </c>
+      <c r="AB36" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC36" s="4">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="37" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>3</v>
+      </c>
+      <c r="B37" s="6">
+        <v>255</v>
+      </c>
+      <c r="C37" s="3">
+        <v>136</v>
+      </c>
+      <c r="D37" s="3">
+        <v>138</v>
+      </c>
+      <c r="E37" s="7">
+        <v>1</v>
+      </c>
+      <c r="F37" s="6">
+        <v>254</v>
+      </c>
+      <c r="G37" s="2">
+        <v>138</v>
+      </c>
+      <c r="H37" s="2">
+        <v>138</v>
+      </c>
+      <c r="I37" s="7">
+        <v>3</v>
+      </c>
+      <c r="K37" s="1">
+        <v>3</v>
+      </c>
+      <c r="L37" s="6">
+        <v>140</v>
+      </c>
+      <c r="M37" s="2">
+        <v>137</v>
+      </c>
+      <c r="N37" s="2">
+        <v>132</v>
+      </c>
+      <c r="O37" s="7">
+        <v>138</v>
+      </c>
+      <c r="P37" s="4">
+        <v>253</v>
+      </c>
+      <c r="Q37" s="4">
+        <v>254</v>
+      </c>
+      <c r="R37" s="4">
+        <v>4</v>
+      </c>
+      <c r="S37" s="4">
+        <v>252</v>
+      </c>
+      <c r="U37" s="1">
+        <v>3</v>
+      </c>
+      <c r="V37" s="6">
+        <v>140</v>
+      </c>
+      <c r="W37" s="2">
+        <v>137</v>
+      </c>
+      <c r="X37" s="2">
+        <v>132</v>
+      </c>
+      <c r="Y37" s="7">
+        <v>138</v>
+      </c>
+      <c r="Z37" s="4">
+        <v>253</v>
+      </c>
+      <c r="AA37" s="4">
+        <v>254</v>
+      </c>
+      <c r="AB37" s="4">
+        <v>4</v>
+      </c>
+      <c r="AC37" s="4">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="38" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>4</v>
+      </c>
+      <c r="B38" s="4">
+        <v>2</v>
+      </c>
+      <c r="C38" s="7">
+        <v>1</v>
+      </c>
+      <c r="D38" s="6">
+        <v>1</v>
+      </c>
+      <c r="E38" s="4">
+        <v>1</v>
+      </c>
+      <c r="F38" s="4">
+        <v>0</v>
+      </c>
+      <c r="G38" s="7">
+        <v>255</v>
+      </c>
+      <c r="H38" s="6">
+        <v>5</v>
+      </c>
+      <c r="I38" s="4">
+        <v>255</v>
+      </c>
+      <c r="K38" s="1">
+        <v>4</v>
+      </c>
+      <c r="L38" s="4">
+        <v>139</v>
+      </c>
+      <c r="M38" s="7">
+        <v>139</v>
+      </c>
+      <c r="N38" s="6">
+        <v>129</v>
+      </c>
+      <c r="O38" s="4">
+        <v>139</v>
+      </c>
+      <c r="P38" s="4">
+        <v>255</v>
+      </c>
+      <c r="Q38" s="4">
+        <v>251</v>
+      </c>
+      <c r="R38" s="4">
+        <v>9</v>
+      </c>
+      <c r="S38" s="4">
+        <v>254</v>
+      </c>
+      <c r="U38" s="1">
+        <v>4</v>
+      </c>
+      <c r="V38" s="4">
+        <v>139</v>
+      </c>
+      <c r="W38" s="7">
+        <v>139</v>
+      </c>
+      <c r="X38" s="6">
+        <v>385</v>
+      </c>
+      <c r="Y38" s="4">
+        <v>139</v>
+      </c>
+      <c r="Z38" s="4">
+        <v>255</v>
+      </c>
+      <c r="AA38" s="4">
+        <v>251</v>
+      </c>
+      <c r="AB38" s="4">
+        <v>9</v>
+      </c>
+      <c r="AC38" s="4">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="39" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <v>5</v>
+      </c>
+      <c r="B39" s="4">
+        <v>253</v>
+      </c>
+      <c r="C39" s="6">
+        <v>254</v>
+      </c>
+      <c r="D39" s="7">
+        <v>255</v>
+      </c>
+      <c r="E39" s="4">
+        <v>254</v>
+      </c>
+      <c r="F39" s="4">
+        <v>4</v>
+      </c>
+      <c r="G39" s="6">
+        <v>6</v>
+      </c>
+      <c r="H39" s="7">
+        <v>3</v>
+      </c>
+      <c r="I39" s="4">
+        <v>252</v>
+      </c>
+      <c r="K39" s="1">
+        <v>5</v>
+      </c>
+      <c r="L39" s="8">
+        <v>253</v>
+      </c>
+      <c r="M39" s="8">
+        <v>4</v>
+      </c>
+      <c r="N39" s="6">
+        <v>3</v>
+      </c>
+      <c r="O39" s="6">
+        <v>2</v>
+      </c>
+      <c r="P39" s="9">
+        <v>1</v>
+      </c>
+      <c r="Q39" s="9">
+        <v>1</v>
+      </c>
+      <c r="R39" s="7">
+        <v>0</v>
+      </c>
+      <c r="S39" s="7">
+        <v>3</v>
+      </c>
+      <c r="U39" s="1">
+        <v>5</v>
+      </c>
+      <c r="V39" s="8">
+        <v>253</v>
+      </c>
+      <c r="W39" s="8">
+        <v>4</v>
+      </c>
+      <c r="X39" s="6">
+        <v>3</v>
+      </c>
+      <c r="Y39" s="6">
+        <v>2</v>
+      </c>
+      <c r="Z39" s="9">
+        <v>1</v>
+      </c>
+      <c r="AA39" s="9">
+        <v>1</v>
+      </c>
+      <c r="AB39" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC39" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <v>6</v>
+      </c>
+      <c r="B40" s="7">
+        <v>252</v>
+      </c>
+      <c r="C40" s="2">
+        <v>140</v>
+      </c>
+      <c r="D40" s="2">
+        <v>137</v>
+      </c>
+      <c r="E40" s="6">
+        <v>255</v>
+      </c>
+      <c r="F40" s="7">
+        <v>3</v>
+      </c>
+      <c r="G40" s="2">
+        <v>132</v>
+      </c>
+      <c r="H40" s="2">
+        <v>138</v>
+      </c>
+      <c r="I40" s="6">
+        <v>0</v>
+      </c>
+      <c r="K40" s="1">
+        <v>6</v>
+      </c>
+      <c r="L40" s="8">
+        <v>255</v>
+      </c>
+      <c r="M40" s="8">
+        <v>1</v>
+      </c>
+      <c r="N40" s="6">
+        <v>254</v>
+      </c>
+      <c r="O40" s="6">
+        <v>5</v>
+      </c>
+      <c r="P40" s="9">
+        <v>5</v>
+      </c>
+      <c r="Q40" s="9">
+        <v>1</v>
+      </c>
+      <c r="R40" s="7">
+        <v>2</v>
+      </c>
+      <c r="S40" s="7">
+        <v>255</v>
+      </c>
+      <c r="U40" s="1">
+        <v>6</v>
+      </c>
+      <c r="V40" s="8">
+        <v>255</v>
+      </c>
+      <c r="W40" s="8">
+        <v>1</v>
+      </c>
+      <c r="X40" s="6">
+        <v>254</v>
+      </c>
+      <c r="Y40" s="6">
+        <v>5</v>
+      </c>
+      <c r="Z40" s="9">
+        <v>5</v>
+      </c>
+      <c r="AA40" s="9">
+        <v>1</v>
+      </c>
+      <c r="AB40" s="7">
+        <v>2</v>
+      </c>
+      <c r="AC40" s="7">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="41" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <v>7</v>
+      </c>
+      <c r="B41" s="6">
+        <v>254</v>
+      </c>
+      <c r="C41" s="2">
+        <v>139</v>
+      </c>
+      <c r="D41" s="2">
+        <v>139</v>
+      </c>
+      <c r="E41" s="7">
+        <v>253</v>
+      </c>
+      <c r="F41" s="6">
+        <v>2</v>
+      </c>
+      <c r="G41" s="2">
+        <v>129</v>
+      </c>
+      <c r="H41" s="2">
+        <v>139</v>
+      </c>
+      <c r="I41" s="7">
+        <v>255</v>
+      </c>
+      <c r="K41" s="1">
+        <v>7</v>
+      </c>
+      <c r="L41" s="6">
+        <v>254</v>
+      </c>
+      <c r="M41" s="6">
+        <v>255</v>
+      </c>
+      <c r="N41" s="6">
+        <v>6</v>
+      </c>
+      <c r="O41" s="6">
+        <v>0</v>
+      </c>
+      <c r="P41" s="7">
+        <v>255</v>
+      </c>
+      <c r="Q41" s="7">
+        <v>253</v>
+      </c>
+      <c r="R41" s="7">
+        <v>3</v>
+      </c>
+      <c r="S41" s="7">
+        <v>255</v>
+      </c>
+      <c r="U41" s="1">
+        <v>7</v>
+      </c>
+      <c r="V41" s="6">
+        <v>254</v>
+      </c>
+      <c r="W41" s="6">
+        <v>255</v>
+      </c>
+      <c r="X41" s="6">
+        <v>6</v>
+      </c>
+      <c r="Y41" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z41" s="7">
+        <v>255</v>
+      </c>
+      <c r="AA41" s="7">
+        <v>253</v>
+      </c>
+      <c r="AB41" s="7">
+        <v>3</v>
+      </c>
+      <c r="AC41" s="7">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="42" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
+        <v>8</v>
+      </c>
+      <c r="B42" s="4">
+        <v>255</v>
+      </c>
+      <c r="C42" s="7">
+        <v>252</v>
+      </c>
+      <c r="D42" s="6">
+        <v>254</v>
+      </c>
+      <c r="E42" s="4">
+        <v>251</v>
+      </c>
+      <c r="F42" s="4">
+        <v>9</v>
+      </c>
+      <c r="G42" s="7">
+        <v>7</v>
+      </c>
+      <c r="H42" s="6">
+        <v>0</v>
+      </c>
+      <c r="I42" s="4">
+        <v>254</v>
+      </c>
+      <c r="K42" s="1">
+        <v>8</v>
+      </c>
+      <c r="L42" s="6">
+        <v>254</v>
+      </c>
+      <c r="M42" s="6">
+        <v>254</v>
+      </c>
+      <c r="N42" s="6">
+        <v>2</v>
+      </c>
+      <c r="O42" s="6">
+        <v>0</v>
+      </c>
+      <c r="P42" s="7">
+        <v>252</v>
+      </c>
+      <c r="Q42" s="7">
+        <v>252</v>
+      </c>
+      <c r="R42" s="7">
+        <v>3</v>
+      </c>
+      <c r="S42" s="7">
+        <v>7</v>
+      </c>
+      <c r="U42" s="1">
+        <v>8</v>
+      </c>
+      <c r="V42" s="6">
+        <v>254</v>
+      </c>
+      <c r="W42" s="6">
+        <v>254</v>
+      </c>
+      <c r="X42" s="6">
+        <v>2</v>
+      </c>
+      <c r="Y42" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z42" s="7">
+        <v>252</v>
+      </c>
+      <c r="AA42" s="7">
+        <v>252</v>
+      </c>
+      <c r="AB42" s="7">
+        <v>3</v>
+      </c>
+      <c r="AC42" s="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="B44" s="1">
+        <v>1</v>
+      </c>
+      <c r="C44" s="1">
+        <v>2</v>
+      </c>
+      <c r="D44" s="1">
+        <v>3</v>
+      </c>
+      <c r="E44" s="1">
+        <v>4</v>
+      </c>
+      <c r="F44" s="1">
+        <v>5</v>
+      </c>
+      <c r="G44" s="1">
+        <v>6</v>
+      </c>
+      <c r="H44" s="1">
+        <v>7</v>
+      </c>
+      <c r="I44" s="1">
+        <v>8</v>
+      </c>
+      <c r="L44" s="1">
+        <v>1</v>
+      </c>
+      <c r="M44" s="1">
+        <v>2</v>
+      </c>
+      <c r="N44" s="1">
+        <v>3</v>
+      </c>
+      <c r="O44" s="1">
+        <v>4</v>
+      </c>
+      <c r="P44" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q44" s="1">
+        <v>6</v>
+      </c>
+      <c r="R44" s="1">
+        <v>7</v>
+      </c>
+      <c r="S44" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A45" s="1">
+        <v>1</v>
+      </c>
+      <c r="B45" s="4">
+        <v>393</v>
+      </c>
+      <c r="C45" s="6">
+        <v>391</v>
+      </c>
+      <c r="D45" s="7">
+        <v>140</v>
+      </c>
+      <c r="E45" s="4">
+        <v>140</v>
+      </c>
+      <c r="F45" s="4">
+        <v>138</v>
+      </c>
+      <c r="G45" s="6">
+        <v>140</v>
+      </c>
+      <c r="H45" s="7">
+        <v>140</v>
+      </c>
+      <c r="I45" s="4">
+        <v>140</v>
+      </c>
+      <c r="K45" s="1">
+        <v>1</v>
+      </c>
+      <c r="L45" s="4">
+        <v>137</v>
+      </c>
+      <c r="M45" s="6">
+        <v>135</v>
+      </c>
+      <c r="N45" s="7">
+        <v>140</v>
+      </c>
+      <c r="O45" s="4">
+        <v>140</v>
+      </c>
+      <c r="P45" s="4">
+        <v>138</v>
+      </c>
+      <c r="Q45" s="6">
+        <v>140</v>
+      </c>
+      <c r="R45" s="7">
+        <v>140</v>
+      </c>
+      <c r="S45" s="4">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="46" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A46" s="1">
+        <v>2</v>
+      </c>
+      <c r="B46" s="7">
+        <v>143</v>
+      </c>
+      <c r="C46" s="3">
+        <v>138</v>
+      </c>
+      <c r="D46" s="3">
+        <v>139</v>
+      </c>
+      <c r="E46" s="6">
+        <v>143</v>
+      </c>
+      <c r="F46" s="7">
+        <v>139</v>
+      </c>
+      <c r="G46" s="2">
+        <v>137</v>
+      </c>
+      <c r="H46" s="2">
+        <v>140</v>
+      </c>
+      <c r="I46" s="6">
+        <v>142</v>
+      </c>
+      <c r="K46" s="1">
+        <v>2</v>
+      </c>
+      <c r="L46" s="7">
+        <v>143</v>
+      </c>
+      <c r="M46" s="3">
+        <v>138</v>
+      </c>
+      <c r="N46" s="3">
+        <v>139</v>
+      </c>
+      <c r="O46" s="6">
+        <v>143</v>
+      </c>
+      <c r="P46" s="7">
+        <v>139</v>
+      </c>
+      <c r="Q46" s="2">
+        <v>137</v>
+      </c>
+      <c r="R46" s="2">
+        <v>140</v>
+      </c>
+      <c r="S46" s="6">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="47" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A47" s="1">
+        <v>3</v>
+      </c>
+      <c r="B47" s="6">
+        <v>391</v>
+      </c>
+      <c r="C47" s="3">
+        <v>136</v>
+      </c>
+      <c r="D47" s="3">
+        <v>138</v>
+      </c>
+      <c r="E47" s="7">
+        <v>139</v>
+      </c>
+      <c r="F47" s="6">
+        <v>392</v>
+      </c>
+      <c r="G47" s="2">
+        <v>138</v>
+      </c>
+      <c r="H47" s="2">
+        <v>138</v>
+      </c>
+      <c r="I47" s="7">
+        <v>141</v>
+      </c>
+      <c r="K47" s="1">
+        <v>3</v>
+      </c>
+      <c r="L47" s="6">
+        <v>135</v>
+      </c>
+      <c r="M47" s="3">
+        <v>136</v>
+      </c>
+      <c r="N47" s="3">
+        <v>138</v>
+      </c>
+      <c r="O47" s="7">
+        <v>139</v>
+      </c>
+      <c r="P47" s="6">
+        <v>136</v>
+      </c>
+      <c r="Q47" s="2">
+        <v>138</v>
+      </c>
+      <c r="R47" s="2">
+        <v>138</v>
+      </c>
+      <c r="S47" s="7">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="48" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A48" s="1">
+        <v>4</v>
+      </c>
+      <c r="B48" s="4">
+        <v>138</v>
+      </c>
+      <c r="C48" s="7">
+        <v>137</v>
+      </c>
+      <c r="D48" s="6">
+        <v>139</v>
+      </c>
+      <c r="E48" s="4">
+        <v>139</v>
+      </c>
+      <c r="F48" s="4">
+        <v>138</v>
+      </c>
+      <c r="G48" s="7">
+        <v>393</v>
+      </c>
+      <c r="H48" s="6">
+        <v>143</v>
+      </c>
+      <c r="I48" s="4">
+        <v>393</v>
+      </c>
+      <c r="K48" s="1">
+        <v>4</v>
+      </c>
+      <c r="L48" s="4">
+        <v>138</v>
+      </c>
+      <c r="M48" s="7">
+        <v>137</v>
+      </c>
+      <c r="N48" s="6">
+        <v>139</v>
+      </c>
+      <c r="O48" s="4">
+        <v>139</v>
+      </c>
+      <c r="P48" s="4">
+        <v>138</v>
+      </c>
+      <c r="Q48" s="7">
+        <v>137</v>
+      </c>
+      <c r="R48" s="6">
+        <v>143</v>
+      </c>
+      <c r="S48" s="4">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A49" s="1">
+        <v>5</v>
+      </c>
+      <c r="B49" s="4">
+        <v>393</v>
+      </c>
+      <c r="C49" s="6">
+        <v>394</v>
+      </c>
+      <c r="D49" s="7">
+        <v>392</v>
+      </c>
+      <c r="E49" s="4">
+        <v>391</v>
+      </c>
+      <c r="F49" s="4">
+        <v>136</v>
+      </c>
+      <c r="G49" s="6">
+        <v>138</v>
+      </c>
+      <c r="H49" s="7">
+        <v>141</v>
+      </c>
+      <c r="I49" s="4">
+        <v>390</v>
+      </c>
+      <c r="K49" s="1">
+        <v>5</v>
+      </c>
+      <c r="L49" s="4">
+        <v>137</v>
+      </c>
+      <c r="M49" s="6">
+        <v>138</v>
+      </c>
+      <c r="N49" s="7">
+        <v>136</v>
+      </c>
+      <c r="O49" s="4">
+        <v>135</v>
+      </c>
+      <c r="P49" s="4">
+        <v>136</v>
+      </c>
+      <c r="Q49" s="6">
+        <v>138</v>
+      </c>
+      <c r="R49" s="7">
+        <v>141</v>
+      </c>
+      <c r="S49" s="4">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A50" s="1">
+        <v>6</v>
+      </c>
+      <c r="B50" s="7">
+        <v>392</v>
+      </c>
+      <c r="C50" s="2">
+        <v>140</v>
+      </c>
+      <c r="D50" s="2">
+        <v>137</v>
+      </c>
+      <c r="E50" s="6">
+        <v>392</v>
+      </c>
+      <c r="F50" s="7">
+        <v>135</v>
+      </c>
+      <c r="G50" s="2">
+        <v>132</v>
+      </c>
+      <c r="H50" s="2">
+        <v>138</v>
+      </c>
+      <c r="I50" s="6">
+        <v>138</v>
+      </c>
+      <c r="K50" s="1">
+        <v>6</v>
+      </c>
+      <c r="L50" s="7">
+        <v>136</v>
+      </c>
+      <c r="M50" s="2">
+        <v>140</v>
+      </c>
+      <c r="N50" s="2">
+        <v>137</v>
+      </c>
+      <c r="O50" s="6">
+        <v>136</v>
+      </c>
+      <c r="P50" s="7">
+        <v>135</v>
+      </c>
+      <c r="Q50" s="2">
+        <v>132</v>
+      </c>
+      <c r="R50" s="2">
+        <v>138</v>
+      </c>
+      <c r="S50" s="6">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A51" s="1">
+        <v>7</v>
+      </c>
+      <c r="B51" s="6">
+        <v>393</v>
+      </c>
+      <c r="C51" s="2">
+        <v>139</v>
+      </c>
+      <c r="D51" s="2">
+        <v>139</v>
+      </c>
+      <c r="E51" s="7">
+        <v>392</v>
+      </c>
+      <c r="F51" s="6">
+        <v>131</v>
+      </c>
+      <c r="G51" s="2">
+        <v>129</v>
+      </c>
+      <c r="H51" s="2">
+        <v>139</v>
+      </c>
+      <c r="I51" s="7">
+        <v>394</v>
+      </c>
+      <c r="K51" s="1">
+        <v>7</v>
+      </c>
+      <c r="L51" s="6">
+        <v>137</v>
+      </c>
+      <c r="M51" s="2">
+        <v>139</v>
+      </c>
+      <c r="N51" s="2">
+        <v>139</v>
+      </c>
+      <c r="O51" s="7">
+        <v>136</v>
+      </c>
+      <c r="P51" s="6">
+        <v>131</v>
+      </c>
+      <c r="Q51" s="2">
+        <v>129</v>
+      </c>
+      <c r="R51" s="2">
+        <v>139</v>
+      </c>
+      <c r="S51" s="7">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A52" s="1">
+        <v>8</v>
+      </c>
+      <c r="B52" s="4">
+        <v>394</v>
+      </c>
+      <c r="C52" s="7">
+        <v>391</v>
+      </c>
+      <c r="D52" s="6">
+        <v>393</v>
+      </c>
+      <c r="E52" s="4">
+        <v>390</v>
+      </c>
+      <c r="F52" s="4">
+        <v>138</v>
+      </c>
+      <c r="G52" s="7">
+        <v>136</v>
+      </c>
+      <c r="H52" s="6">
+        <v>139</v>
+      </c>
+      <c r="I52" s="4">
+        <v>393</v>
+      </c>
+      <c r="K52" s="1">
+        <v>8</v>
+      </c>
+      <c r="L52" s="4">
+        <v>138</v>
+      </c>
+      <c r="M52" s="7">
+        <v>135</v>
+      </c>
+      <c r="N52" s="6">
+        <v>137</v>
+      </c>
+      <c r="O52" s="4">
+        <v>134</v>
+      </c>
+      <c r="P52" s="4">
+        <v>138</v>
+      </c>
+      <c r="Q52" s="7">
+        <v>136</v>
+      </c>
+      <c r="R52" s="6">
+        <v>139</v>
+      </c>
+      <c r="S52" s="4">
+        <v>137</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/工作簿1(1).xlsx
+++ b/工作簿1(1).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\BIYE\Compress\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DHU\Compress\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{546EEAEB-56CF-42C5-96EF-273C6B2C97C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D45FF31-0199-41E9-A125-3AE360EC8808}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13695" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4180" yWindow="4180" windowWidth="28800" windowHeight="15830" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,9 +20,22 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -38,6 +51,14 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -82,7 +103,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -105,13 +126,93 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -147,6 +248,99 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -426,23 +620,23 @@
   <dimension ref="A1:AC52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AE24" sqref="A1:XFD1048576"/>
+      <selection activeCell="I60" sqref="I60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.3984375" style="1" customWidth="1"/>
-    <col min="2" max="9" width="4.3984375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="2.36328125" style="1" customWidth="1"/>
+    <col min="2" max="9" width="4.36328125" style="1" customWidth="1"/>
     <col min="10" max="10" width="9" style="1"/>
-    <col min="11" max="11" width="2.3984375" style="1" customWidth="1"/>
-    <col min="12" max="19" width="4.3984375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="2.36328125" style="1" customWidth="1"/>
+    <col min="12" max="19" width="4.36328125" style="1" customWidth="1"/>
     <col min="20" max="20" width="9" style="1"/>
-    <col min="21" max="21" width="3.3984375" style="1" customWidth="1"/>
-    <col min="22" max="29" width="4.3984375" style="1" customWidth="1"/>
+    <col min="21" max="21" width="3.36328125" style="1" customWidth="1"/>
+    <col min="22" max="29" width="4.36328125" style="1" customWidth="1"/>
     <col min="30" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B1" s="1">
         <v>1</v>
       </c>
@@ -516,7 +710,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -599,7 +793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -682,7 +876,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -765,7 +959,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -848,7 +1042,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -931,7 +1125,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1014,7 +1208,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1097,7 +1291,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1180,7 +1374,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
         <v>1</v>
       </c>
@@ -1254,7 +1448,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>1</v>
       </c>
@@ -1337,7 +1531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>2</v>
       </c>
@@ -1420,7 +1614,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>3</v>
       </c>
@@ -1503,7 +1697,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>4</v>
       </c>
@@ -1586,7 +1780,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>5</v>
       </c>
@@ -1669,7 +1863,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>6</v>
       </c>
@@ -1752,7 +1946,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>7</v>
       </c>
@@ -1835,7 +2029,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>8</v>
       </c>
@@ -1918,7 +2112,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B21" s="1">
         <v>1</v>
       </c>
@@ -1992,7 +2186,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>1</v>
       </c>
@@ -2075,7 +2269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>2</v>
       </c>
@@ -2158,7 +2352,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>3</v>
       </c>
@@ -2241,7 +2435,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>4</v>
       </c>
@@ -2324,7 +2518,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>5</v>
       </c>
@@ -2407,7 +2601,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>6</v>
       </c>
@@ -2490,7 +2684,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>7</v>
       </c>
@@ -2573,7 +2767,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>8</v>
       </c>
@@ -2656,7 +2850,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
@@ -2682,7 +2876,7 @@
       <c r="AB30" s="7"/>
       <c r="AC30" s="7"/>
     </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
@@ -2708,7 +2902,7 @@
       <c r="AB31" s="7"/>
       <c r="AC31" s="7"/>
     </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
@@ -2734,7 +2928,7 @@
       <c r="AB32" s="7"/>
       <c r="AC32" s="7"/>
     </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B34" s="1">
         <v>1</v>
       </c>
@@ -2808,7 +3002,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>1</v>
       </c>
@@ -2891,7 +3085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>2</v>
       </c>
@@ -2974,7 +3168,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>3</v>
       </c>
@@ -3057,7 +3251,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>4</v>
       </c>
@@ -3140,7 +3334,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="39" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>5</v>
       </c>
@@ -3223,7 +3417,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>6</v>
       </c>
@@ -3306,7 +3500,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="41" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>7</v>
       </c>
@@ -3389,7 +3583,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="42" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>8</v>
       </c>
@@ -3472,7 +3666,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B44" s="1">
         <v>1</v>
       </c>
@@ -3522,7 +3716,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>1</v>
       </c>
@@ -3578,7 +3772,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="46" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>2</v>
       </c>
@@ -3634,7 +3828,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="47" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>3</v>
       </c>
@@ -3690,7 +3884,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="48" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>4</v>
       </c>
@@ -3746,7 +3940,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>5</v>
       </c>
@@ -3802,7 +3996,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>6</v>
       </c>
@@ -3858,7 +4052,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>7</v>
       </c>
@@ -3914,7 +4108,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>8</v>
       </c>
@@ -3978,3555 +4172,3574 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95F37FE0-6766-4987-9FD4-EA9070FC1F3F}">
-  <dimension ref="A1:AC52"/>
+  <dimension ref="A1:AI52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="AF20" sqref="AF20"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45:I52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.3984375" style="1" customWidth="1"/>
-    <col min="2" max="9" width="4.3984375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="9" style="1"/>
-    <col min="11" max="11" width="2.3984375" style="1" customWidth="1"/>
-    <col min="12" max="19" width="4.3984375" style="1" customWidth="1"/>
-    <col min="20" max="20" width="9" style="1"/>
-    <col min="21" max="21" width="3.3984375" style="1" customWidth="1"/>
-    <col min="22" max="29" width="4.3984375" style="1" customWidth="1"/>
-    <col min="30" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="2.36328125" style="14" customWidth="1"/>
+    <col min="2" max="9" width="4.08984375" style="14" customWidth="1"/>
+    <col min="10" max="10" width="9" style="14"/>
+    <col min="11" max="11" width="2.36328125" style="14" customWidth="1"/>
+    <col min="12" max="19" width="4.08984375" style="14" customWidth="1"/>
+    <col min="20" max="20" width="9" style="14"/>
+    <col min="21" max="21" width="3.36328125" style="14" customWidth="1"/>
+    <col min="22" max="29" width="4.08984375" style="14" customWidth="1"/>
+    <col min="30" max="16384" width="9" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="B1" s="1">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="B1" s="14">
+        <v>1</v>
+      </c>
+      <c r="C1" s="14">
+        <v>2</v>
+      </c>
+      <c r="D1" s="14">
+        <v>3</v>
+      </c>
+      <c r="E1" s="14">
+        <v>4</v>
+      </c>
+      <c r="F1" s="14">
+        <v>5</v>
+      </c>
+      <c r="G1" s="14">
+        <v>6</v>
+      </c>
+      <c r="H1" s="14">
+        <v>7</v>
+      </c>
+      <c r="I1" s="14">
         <v>8</v>
       </c>
-      <c r="L1" s="1">
-        <v>1</v>
-      </c>
-      <c r="M1" s="1">
-        <v>2</v>
-      </c>
-      <c r="N1" s="1">
-        <v>3</v>
-      </c>
-      <c r="O1" s="1">
-        <v>4</v>
-      </c>
-      <c r="P1" s="1">
-        <v>5</v>
-      </c>
-      <c r="Q1" s="1">
-        <v>6</v>
-      </c>
-      <c r="R1" s="1">
-        <v>7</v>
-      </c>
-      <c r="S1" s="1">
+      <c r="L1" s="14">
+        <v>1</v>
+      </c>
+      <c r="M1" s="14">
+        <v>2</v>
+      </c>
+      <c r="N1" s="14">
+        <v>3</v>
+      </c>
+      <c r="O1" s="14">
+        <v>4</v>
+      </c>
+      <c r="P1" s="14">
+        <v>5</v>
+      </c>
+      <c r="Q1" s="14">
+        <v>6</v>
+      </c>
+      <c r="R1" s="14">
+        <v>7</v>
+      </c>
+      <c r="S1" s="14">
         <v>8</v>
       </c>
-      <c r="V1" s="1">
-        <v>1</v>
-      </c>
-      <c r="W1" s="1">
-        <v>2</v>
-      </c>
-      <c r="X1" s="1">
-        <v>3</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>4</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>5</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>6</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>7</v>
-      </c>
-      <c r="AC1" s="1">
+      <c r="V1" s="14">
+        <v>1</v>
+      </c>
+      <c r="W1" s="14">
+        <v>2</v>
+      </c>
+      <c r="X1" s="14">
+        <v>3</v>
+      </c>
+      <c r="Y1" s="14">
+        <v>4</v>
+      </c>
+      <c r="Z1" s="14">
+        <v>5</v>
+      </c>
+      <c r="AA1" s="14">
+        <v>6</v>
+      </c>
+      <c r="AB1" s="14">
+        <v>7</v>
+      </c>
+      <c r="AC1" s="14">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1">
+    <row r="2" spans="1:35" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="14">
+        <v>1</v>
+      </c>
+      <c r="B2" s="14">
         <v>137</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="14">
         <v>135</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="14">
         <v>140</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="14">
         <v>140</v>
       </c>
-      <c r="F2" s="1">
-        <v>138</v>
-      </c>
-      <c r="G2" s="1">
+      <c r="F2" s="14">
+        <v>138</v>
+      </c>
+      <c r="G2" s="14">
         <v>140</v>
       </c>
-      <c r="H2" s="1">
+      <c r="H2" s="14">
         <v>140</v>
       </c>
-      <c r="I2" s="1">
+      <c r="I2" s="14">
         <v>140</v>
       </c>
-      <c r="K2" s="1">
-        <v>1</v>
-      </c>
-      <c r="L2" s="4">
-        <v>-1</v>
-      </c>
-      <c r="M2" s="10">
+      <c r="K2" s="14">
+        <v>1</v>
+      </c>
+      <c r="L2" s="15">
+        <v>-1</v>
+      </c>
+      <c r="M2" s="16">
         <v>-3</v>
       </c>
-      <c r="N2" s="7">
-        <v>1</v>
-      </c>
-      <c r="O2" s="4">
-        <v>1</v>
-      </c>
-      <c r="P2" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="10">
-        <v>3</v>
-      </c>
-      <c r="R2" s="7">
-        <v>0</v>
-      </c>
-      <c r="S2" s="4">
-        <v>0</v>
-      </c>
-      <c r="U2" s="1">
-        <v>1</v>
-      </c>
-      <c r="V2" s="11">
-        <v>138</v>
-      </c>
-      <c r="W2" s="11">
-        <v>139</v>
-      </c>
-      <c r="X2" s="2">
+      <c r="N2" s="17">
+        <v>1</v>
+      </c>
+      <c r="O2" s="15">
+        <v>1</v>
+      </c>
+      <c r="P2" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="16">
+        <v>3</v>
+      </c>
+      <c r="R2" s="17">
+        <v>0</v>
+      </c>
+      <c r="S2" s="15">
+        <v>0</v>
+      </c>
+      <c r="U2" s="14">
+        <v>1</v>
+      </c>
+      <c r="V2" s="19">
+        <v>138</v>
+      </c>
+      <c r="W2" s="20">
+        <v>139</v>
+      </c>
+      <c r="X2" s="20">
         <v>137</v>
       </c>
-      <c r="Y2" s="2">
+      <c r="Y2" s="21">
         <v>140</v>
       </c>
-      <c r="Z2" s="5">
-        <v>-1</v>
-      </c>
-      <c r="AA2" s="5">
-        <v>1</v>
-      </c>
-      <c r="AB2" s="4">
-        <v>1</v>
-      </c>
-      <c r="AC2" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1">
+      <c r="Z2" s="15">
+        <v>-1</v>
+      </c>
+      <c r="AA2" s="15">
+        <v>1</v>
+      </c>
+      <c r="AB2" s="15">
+        <v>1</v>
+      </c>
+      <c r="AC2" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:35" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="14">
+        <v>2</v>
+      </c>
+      <c r="B3" s="14">
         <v>143</v>
       </c>
-      <c r="C3" s="2">
-        <v>138</v>
-      </c>
-      <c r="D3" s="2">
-        <v>139</v>
-      </c>
-      <c r="E3" s="1">
+      <c r="C3" s="13">
+        <v>138</v>
+      </c>
+      <c r="D3" s="13">
+        <v>139</v>
+      </c>
+      <c r="E3" s="14">
         <v>143</v>
       </c>
-      <c r="F3" s="1">
-        <v>139</v>
-      </c>
-      <c r="G3" s="2">
+      <c r="F3" s="14">
+        <v>139</v>
+      </c>
+      <c r="G3" s="13">
         <v>137</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="13">
         <v>140</v>
       </c>
-      <c r="I3" s="1">
+      <c r="I3" s="14">
         <v>142</v>
       </c>
-      <c r="K3" s="1">
-        <v>2</v>
-      </c>
-      <c r="L3" s="7">
-        <v>5</v>
-      </c>
-      <c r="M3" s="2">
-        <v>138</v>
-      </c>
-      <c r="N3" s="2">
-        <v>139</v>
-      </c>
-      <c r="O3" s="10">
-        <v>4</v>
-      </c>
-      <c r="P3" s="7">
-        <v>2</v>
-      </c>
-      <c r="Q3" s="2">
+      <c r="K3" s="14">
+        <v>2</v>
+      </c>
+      <c r="L3" s="17">
+        <v>5</v>
+      </c>
+      <c r="M3" s="13">
+        <v>138</v>
+      </c>
+      <c r="N3" s="13">
+        <v>139</v>
+      </c>
+      <c r="O3" s="16">
+        <v>4</v>
+      </c>
+      <c r="P3" s="17">
+        <v>2</v>
+      </c>
+      <c r="Q3" s="13">
         <v>137</v>
       </c>
-      <c r="R3" s="2">
+      <c r="R3" s="13">
         <v>140</v>
       </c>
-      <c r="S3" s="6">
-        <v>2</v>
-      </c>
-      <c r="U3" s="1">
-        <v>2</v>
-      </c>
-      <c r="V3" s="11">
+      <c r="S3" s="16">
+        <v>2</v>
+      </c>
+      <c r="U3" s="14">
+        <v>2</v>
+      </c>
+      <c r="V3" s="22">
         <v>136</v>
       </c>
-      <c r="W3" s="11">
-        <v>138</v>
-      </c>
-      <c r="X3" s="2">
-        <v>138</v>
-      </c>
-      <c r="Y3" s="2">
-        <v>138</v>
-      </c>
-      <c r="Z3" s="5">
-        <v>2</v>
-      </c>
-      <c r="AA3" s="5">
-        <v>1</v>
-      </c>
-      <c r="AB3" s="4">
-        <v>0</v>
-      </c>
-      <c r="AC3" s="4">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1">
+      <c r="W3" s="13">
+        <v>138</v>
+      </c>
+      <c r="X3" s="13">
+        <v>138</v>
+      </c>
+      <c r="Y3" s="23">
+        <v>138</v>
+      </c>
+      <c r="Z3" s="15">
+        <v>2</v>
+      </c>
+      <c r="AA3" s="15">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="15">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="14">
+        <v>3</v>
+      </c>
+      <c r="B4" s="14">
         <v>135</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="13">
         <v>136</v>
       </c>
-      <c r="D4" s="2">
-        <v>138</v>
-      </c>
-      <c r="E4" s="1">
-        <v>139</v>
-      </c>
-      <c r="F4" s="1">
+      <c r="D4" s="13">
+        <v>138</v>
+      </c>
+      <c r="E4" s="14">
+        <v>139</v>
+      </c>
+      <c r="F4" s="14">
         <v>136</v>
       </c>
-      <c r="G4" s="2">
-        <v>138</v>
-      </c>
-      <c r="H4" s="2">
-        <v>138</v>
-      </c>
-      <c r="I4" s="1">
+      <c r="G4" s="13">
+        <v>138</v>
+      </c>
+      <c r="H4" s="13">
+        <v>138</v>
+      </c>
+      <c r="I4" s="14">
         <v>141</v>
       </c>
-      <c r="K4" s="1">
-        <v>3</v>
-      </c>
-      <c r="L4" s="10">
-        <v>-1</v>
-      </c>
-      <c r="M4" s="2">
+      <c r="K4" s="14">
+        <v>3</v>
+      </c>
+      <c r="L4" s="16">
+        <v>-1</v>
+      </c>
+      <c r="M4" s="13">
         <v>136</v>
       </c>
-      <c r="N4" s="2">
-        <v>138</v>
-      </c>
-      <c r="O4" s="7">
-        <v>1</v>
-      </c>
-      <c r="P4" s="6">
+      <c r="N4" s="13">
+        <v>138</v>
+      </c>
+      <c r="O4" s="17">
+        <v>1</v>
+      </c>
+      <c r="P4" s="16">
         <v>-2</v>
       </c>
-      <c r="Q4" s="2">
-        <v>138</v>
-      </c>
-      <c r="R4" s="2">
-        <v>138</v>
-      </c>
-      <c r="S4" s="7">
-        <v>3</v>
-      </c>
-      <c r="U4" s="1">
-        <v>3</v>
-      </c>
-      <c r="V4" s="2">
+      <c r="Q4" s="13">
+        <v>138</v>
+      </c>
+      <c r="R4" s="13">
+        <v>138</v>
+      </c>
+      <c r="S4" s="17">
+        <v>3</v>
+      </c>
+      <c r="U4" s="14">
+        <v>3</v>
+      </c>
+      <c r="V4" s="22">
         <v>140</v>
       </c>
-      <c r="W4" s="2">
+      <c r="W4" s="13">
         <v>137</v>
       </c>
-      <c r="X4" s="2">
+      <c r="X4" s="13">
         <v>132</v>
       </c>
-      <c r="Y4" s="2">
-        <v>138</v>
-      </c>
-      <c r="Z4" s="4">
+      <c r="Y4" s="23">
+        <v>138</v>
+      </c>
+      <c r="Z4" s="15">
         <v>-3</v>
       </c>
-      <c r="AA4" s="4">
+      <c r="AA4" s="15">
         <v>-2</v>
       </c>
-      <c r="AB4" s="4">
-        <v>4</v>
-      </c>
-      <c r="AC4" s="4">
+      <c r="AB4" s="15">
+        <v>4</v>
+      </c>
+      <c r="AC4" s="15">
         <v>-4</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1">
-        <v>138</v>
-      </c>
-      <c r="C5" s="1">
+    <row r="5" spans="1:35" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="14">
+        <v>4</v>
+      </c>
+      <c r="B5" s="14">
+        <v>138</v>
+      </c>
+      <c r="C5" s="14">
         <v>137</v>
       </c>
-      <c r="D5" s="1">
-        <v>139</v>
-      </c>
-      <c r="E5" s="1">
-        <v>139</v>
-      </c>
-      <c r="F5" s="1">
-        <v>138</v>
-      </c>
-      <c r="G5" s="1">
+      <c r="D5" s="14">
+        <v>139</v>
+      </c>
+      <c r="E5" s="14">
+        <v>139</v>
+      </c>
+      <c r="F5" s="14">
+        <v>138</v>
+      </c>
+      <c r="G5" s="14">
         <v>137</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5" s="14">
         <v>143</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5" s="14">
         <v>137</v>
       </c>
-      <c r="K5" s="1">
-        <v>4</v>
-      </c>
-      <c r="L5" s="4">
-        <v>2</v>
-      </c>
-      <c r="M5" s="7">
-        <v>1</v>
-      </c>
-      <c r="N5" s="10">
-        <v>1</v>
-      </c>
-      <c r="O5" s="4">
-        <v>1</v>
-      </c>
-      <c r="P5" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="7">
-        <v>-1</v>
-      </c>
-      <c r="R5" s="6">
-        <v>5</v>
-      </c>
-      <c r="S5" s="4">
-        <v>-1</v>
-      </c>
-      <c r="U5" s="1">
-        <v>4</v>
-      </c>
-      <c r="V5" s="2">
-        <v>139</v>
-      </c>
-      <c r="W5" s="2">
-        <v>139</v>
-      </c>
-      <c r="X5" s="2">
+      <c r="K5" s="14">
+        <v>4</v>
+      </c>
+      <c r="L5" s="15">
+        <v>2</v>
+      </c>
+      <c r="M5" s="17">
+        <v>1</v>
+      </c>
+      <c r="N5" s="16">
+        <v>1</v>
+      </c>
+      <c r="O5" s="15">
+        <v>1</v>
+      </c>
+      <c r="P5" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="17">
+        <v>-1</v>
+      </c>
+      <c r="R5" s="16">
+        <v>5</v>
+      </c>
+      <c r="S5" s="15">
+        <v>-1</v>
+      </c>
+      <c r="U5" s="14">
+        <v>4</v>
+      </c>
+      <c r="V5" s="24">
+        <v>139</v>
+      </c>
+      <c r="W5" s="25">
+        <v>139</v>
+      </c>
+      <c r="X5" s="25">
         <v>129</v>
       </c>
-      <c r="Y5" s="2">
-        <v>139</v>
-      </c>
-      <c r="Z5" s="4">
-        <v>-1</v>
-      </c>
-      <c r="AA5" s="4">
+      <c r="Y5" s="26">
+        <v>139</v>
+      </c>
+      <c r="Z5" s="15">
+        <v>-1</v>
+      </c>
+      <c r="AA5" s="15">
         <v>-5</v>
       </c>
-      <c r="AB5" s="4">
+      <c r="AB5" s="15">
         <v>9</v>
       </c>
-      <c r="AC5" s="4">
+      <c r="AC5" s="15">
         <v>-2</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1">
+    <row r="6" spans="1:35" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="14">
+        <v>5</v>
+      </c>
+      <c r="B6" s="14">
         <v>137</v>
       </c>
-      <c r="C6" s="1">
-        <v>138</v>
-      </c>
-      <c r="D6" s="1">
+      <c r="C6" s="14">
+        <v>138</v>
+      </c>
+      <c r="D6" s="14">
         <v>136</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="14">
         <v>135</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="14">
         <v>136</v>
       </c>
-      <c r="G6" s="1">
-        <v>138</v>
-      </c>
-      <c r="H6" s="1">
+      <c r="G6" s="14">
+        <v>138</v>
+      </c>
+      <c r="H6" s="14">
         <v>141</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I6" s="14">
         <v>134</v>
       </c>
-      <c r="K6" s="1">
-        <v>5</v>
-      </c>
-      <c r="L6" s="4">
+      <c r="K6" s="14">
+        <v>5</v>
+      </c>
+      <c r="L6" s="15">
         <v>-3</v>
       </c>
-      <c r="M6" s="6">
+      <c r="M6" s="16">
         <v>-2</v>
       </c>
-      <c r="N6" s="7">
-        <v>-1</v>
-      </c>
-      <c r="O6" s="4">
+      <c r="N6" s="17">
+        <v>-1</v>
+      </c>
+      <c r="O6" s="15">
         <v>-2</v>
       </c>
-      <c r="P6" s="4">
-        <v>4</v>
-      </c>
-      <c r="Q6" s="6">
-        <v>6</v>
-      </c>
-      <c r="R6" s="7">
-        <v>3</v>
-      </c>
-      <c r="S6" s="4">
+      <c r="P6" s="15">
+        <v>4</v>
+      </c>
+      <c r="Q6" s="16">
+        <v>6</v>
+      </c>
+      <c r="R6" s="17">
+        <v>3</v>
+      </c>
+      <c r="S6" s="15">
         <v>-4</v>
       </c>
-      <c r="U6" s="1">
-        <v>5</v>
-      </c>
-      <c r="V6" s="8">
+      <c r="U6" s="14">
+        <v>5</v>
+      </c>
+      <c r="V6" s="16">
         <v>-3</v>
       </c>
-      <c r="W6" s="8">
-        <v>4</v>
-      </c>
-      <c r="X6" s="6">
-        <v>3</v>
-      </c>
-      <c r="Y6" s="6">
-        <v>2</v>
-      </c>
-      <c r="Z6" s="9">
-        <v>5</v>
-      </c>
-      <c r="AA6" s="9">
-        <v>1</v>
-      </c>
-      <c r="AB6" s="7">
-        <v>2</v>
-      </c>
-      <c r="AC6" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1">
+      <c r="W6" s="16">
+        <v>4</v>
+      </c>
+      <c r="X6" s="16">
+        <v>3</v>
+      </c>
+      <c r="Y6" s="16">
+        <v>2</v>
+      </c>
+      <c r="Z6" s="17">
+        <v>5</v>
+      </c>
+      <c r="AA6" s="17">
+        <v>1</v>
+      </c>
+      <c r="AB6" s="17">
+        <v>2</v>
+      </c>
+      <c r="AC6" s="17">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH6" s="14">
+        <v>25</v>
+      </c>
+      <c r="AI6" s="14">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:35" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="14">
+        <v>6</v>
+      </c>
+      <c r="B7" s="14">
         <v>136</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="13">
         <v>140</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="13">
         <v>137</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="14">
         <v>136</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="14">
         <v>135</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="13">
         <v>132</v>
       </c>
-      <c r="H7" s="2">
-        <v>138</v>
-      </c>
-      <c r="I7" s="1">
-        <v>138</v>
-      </c>
-      <c r="K7" s="1">
-        <v>6</v>
-      </c>
-      <c r="L7" s="7">
+      <c r="H7" s="13">
+        <v>138</v>
+      </c>
+      <c r="I7" s="14">
+        <v>138</v>
+      </c>
+      <c r="K7" s="14">
+        <v>6</v>
+      </c>
+      <c r="L7" s="17">
         <v>-4</v>
       </c>
-      <c r="M7" s="2">
+      <c r="M7" s="13">
         <v>140</v>
       </c>
-      <c r="N7" s="2">
+      <c r="N7" s="13">
         <v>137</v>
       </c>
-      <c r="O7" s="6">
-        <v>-1</v>
-      </c>
-      <c r="P7" s="7">
-        <v>3</v>
-      </c>
-      <c r="Q7" s="2">
+      <c r="O7" s="16">
+        <v>-1</v>
+      </c>
+      <c r="P7" s="17">
+        <v>3</v>
+      </c>
+      <c r="Q7" s="13">
         <v>132</v>
       </c>
-      <c r="R7" s="2">
-        <v>138</v>
-      </c>
-      <c r="S7" s="6">
-        <v>0</v>
-      </c>
-      <c r="U7" s="1">
-        <v>6</v>
-      </c>
-      <c r="V7" s="8">
-        <v>-1</v>
-      </c>
-      <c r="W7" s="8">
-        <v>1</v>
-      </c>
-      <c r="X7" s="6">
+      <c r="R7" s="13">
+        <v>138</v>
+      </c>
+      <c r="S7" s="16">
+        <v>0</v>
+      </c>
+      <c r="U7" s="14">
+        <v>6</v>
+      </c>
+      <c r="V7" s="16">
+        <v>-1</v>
+      </c>
+      <c r="W7" s="16">
+        <v>1</v>
+      </c>
+      <c r="X7" s="16">
         <v>-2</v>
       </c>
-      <c r="Y7" s="6">
-        <v>5</v>
-      </c>
-      <c r="Z7" s="9">
-        <v>1</v>
-      </c>
-      <c r="AA7" s="9">
-        <v>1</v>
-      </c>
-      <c r="AB7" s="7">
-        <v>-1</v>
-      </c>
-      <c r="AC7" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1">
+      <c r="Y7" s="16">
+        <v>5</v>
+      </c>
+      <c r="Z7" s="17">
+        <v>1</v>
+      </c>
+      <c r="AA7" s="17">
+        <v>1</v>
+      </c>
+      <c r="AB7" s="17">
+        <v>-1</v>
+      </c>
+      <c r="AC7" s="17">
+        <v>3</v>
+      </c>
+      <c r="AG7" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH7" s="14">
+        <v>3.91</v>
+      </c>
+      <c r="AI7" s="14">
+        <v>3.45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:35" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="14">
+        <v>7</v>
+      </c>
+      <c r="B8" s="14">
         <v>137</v>
       </c>
-      <c r="C8" s="2">
-        <v>139</v>
-      </c>
-      <c r="D8" s="2">
-        <v>139</v>
-      </c>
-      <c r="E8" s="1">
+      <c r="C8" s="13">
+        <v>139</v>
+      </c>
+      <c r="D8" s="13">
+        <v>139</v>
+      </c>
+      <c r="E8" s="14">
         <v>136</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="14">
         <v>131</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="13">
         <v>129</v>
       </c>
-      <c r="H8" s="2">
-        <v>139</v>
-      </c>
-      <c r="I8" s="1">
-        <v>138</v>
-      </c>
-      <c r="K8" s="1">
-        <v>7</v>
-      </c>
-      <c r="L8" s="6">
+      <c r="H8" s="13">
+        <v>139</v>
+      </c>
+      <c r="I8" s="14">
+        <v>138</v>
+      </c>
+      <c r="K8" s="14">
+        <v>7</v>
+      </c>
+      <c r="L8" s="16">
         <v>-2</v>
       </c>
-      <c r="M8" s="2">
-        <v>139</v>
-      </c>
-      <c r="N8" s="2">
-        <v>139</v>
-      </c>
-      <c r="O8" s="7">
+      <c r="M8" s="13">
+        <v>139</v>
+      </c>
+      <c r="N8" s="13">
+        <v>139</v>
+      </c>
+      <c r="O8" s="17">
         <v>-3</v>
       </c>
-      <c r="P8" s="6">
-        <v>2</v>
-      </c>
-      <c r="Q8" s="2">
+      <c r="P8" s="16">
+        <v>2</v>
+      </c>
+      <c r="Q8" s="13">
         <v>129</v>
       </c>
-      <c r="R8" s="2">
-        <v>139</v>
-      </c>
-      <c r="S8" s="7">
-        <v>-1</v>
-      </c>
-      <c r="U8" s="1">
-        <v>7</v>
-      </c>
-      <c r="V8" s="6">
+      <c r="R8" s="13">
+        <v>139</v>
+      </c>
+      <c r="S8" s="17">
+        <v>-1</v>
+      </c>
+      <c r="U8" s="14">
+        <v>7</v>
+      </c>
+      <c r="V8" s="16">
         <v>-2</v>
       </c>
-      <c r="W8" s="6">
-        <v>-1</v>
-      </c>
-      <c r="X8" s="6">
-        <v>6</v>
-      </c>
-      <c r="Y8" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="7">
+      <c r="W8" s="16">
+        <v>-1</v>
+      </c>
+      <c r="X8" s="16">
+        <v>6</v>
+      </c>
+      <c r="Y8" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="17">
         <v>-4</v>
       </c>
-      <c r="AA8" s="7">
-        <v>-1</v>
-      </c>
-      <c r="AB8" s="7">
-        <v>3</v>
-      </c>
-      <c r="AC8" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
+      <c r="AA8" s="17">
+        <v>-1</v>
+      </c>
+      <c r="AB8" s="17">
+        <v>3</v>
+      </c>
+      <c r="AC8" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:35" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="14">
         <v>8</v>
       </c>
-      <c r="B9" s="1">
-        <v>138</v>
-      </c>
-      <c r="C9" s="1">
+      <c r="B9" s="14">
+        <v>138</v>
+      </c>
+      <c r="C9" s="14">
         <v>135</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="14">
         <v>137</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="14">
         <v>134</v>
       </c>
-      <c r="F9" s="1">
-        <v>138</v>
-      </c>
-      <c r="G9" s="1">
+      <c r="F9" s="14">
+        <v>138</v>
+      </c>
+      <c r="G9" s="14">
         <v>136</v>
       </c>
-      <c r="H9" s="1">
-        <v>139</v>
-      </c>
-      <c r="I9" s="1">
+      <c r="H9" s="14">
+        <v>139</v>
+      </c>
+      <c r="I9" s="14">
         <v>137</v>
       </c>
-      <c r="K9" s="1">
+      <c r="K9" s="14">
         <v>8</v>
       </c>
-      <c r="L9" s="4">
-        <v>-1</v>
-      </c>
-      <c r="M9" s="7">
+      <c r="L9" s="15">
+        <v>-1</v>
+      </c>
+      <c r="M9" s="17">
         <v>-4</v>
       </c>
-      <c r="N9" s="6">
+      <c r="N9" s="16">
         <v>-2</v>
       </c>
-      <c r="O9" s="4">
+      <c r="O9" s="15">
         <v>-5</v>
       </c>
-      <c r="P9" s="4">
+      <c r="P9" s="15">
         <v>9</v>
       </c>
-      <c r="Q9" s="7">
-        <v>7</v>
-      </c>
-      <c r="R9" s="6">
-        <v>0</v>
-      </c>
-      <c r="S9" s="4">
+      <c r="Q9" s="17">
+        <v>7</v>
+      </c>
+      <c r="R9" s="16">
+        <v>0</v>
+      </c>
+      <c r="S9" s="15">
         <v>-2</v>
       </c>
-      <c r="U9" s="1">
+      <c r="U9" s="14">
         <v>8</v>
       </c>
-      <c r="V9" s="6">
+      <c r="V9" s="16">
         <v>-2</v>
       </c>
-      <c r="W9" s="6">
+      <c r="W9" s="16">
         <v>-2</v>
       </c>
-      <c r="X9" s="6">
-        <v>2</v>
-      </c>
-      <c r="Y9" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="7">
+      <c r="X9" s="16">
+        <v>2</v>
+      </c>
+      <c r="Y9" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="17">
         <v>-4</v>
       </c>
-      <c r="AA9" s="7">
+      <c r="AA9" s="17">
         <v>-3</v>
       </c>
-      <c r="AB9" s="7">
-        <v>7</v>
-      </c>
-      <c r="AC9" s="7">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="B11" s="1">
-        <v>1</v>
-      </c>
-      <c r="C11" s="1">
-        <v>2</v>
-      </c>
-      <c r="D11" s="1">
-        <v>3</v>
-      </c>
-      <c r="E11" s="1">
-        <v>4</v>
-      </c>
-      <c r="F11" s="1">
-        <v>5</v>
-      </c>
-      <c r="G11" s="1">
-        <v>6</v>
-      </c>
-      <c r="H11" s="1">
-        <v>7</v>
-      </c>
-      <c r="I11" s="1">
+      <c r="AB9" s="17">
+        <v>7</v>
+      </c>
+      <c r="AC9" s="17">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="B11" s="14">
+        <v>1</v>
+      </c>
+      <c r="C11" s="14">
+        <v>2</v>
+      </c>
+      <c r="D11" s="14">
+        <v>3</v>
+      </c>
+      <c r="E11" s="14">
+        <v>4</v>
+      </c>
+      <c r="F11" s="14">
+        <v>5</v>
+      </c>
+      <c r="G11" s="14">
+        <v>6</v>
+      </c>
+      <c r="H11" s="14">
+        <v>7</v>
+      </c>
+      <c r="I11" s="14">
         <v>8</v>
       </c>
-      <c r="L11" s="1">
-        <v>1</v>
-      </c>
-      <c r="M11" s="1">
-        <v>2</v>
-      </c>
-      <c r="N11" s="1">
-        <v>3</v>
-      </c>
-      <c r="O11" s="1">
-        <v>4</v>
-      </c>
-      <c r="P11" s="1">
-        <v>5</v>
-      </c>
-      <c r="Q11" s="1">
-        <v>6</v>
-      </c>
-      <c r="R11" s="1">
-        <v>7</v>
-      </c>
-      <c r="S11" s="1">
+      <c r="L11" s="14">
+        <v>1</v>
+      </c>
+      <c r="M11" s="14">
+        <v>2</v>
+      </c>
+      <c r="N11" s="14">
+        <v>3</v>
+      </c>
+      <c r="O11" s="14">
+        <v>4</v>
+      </c>
+      <c r="P11" s="14">
+        <v>5</v>
+      </c>
+      <c r="Q11" s="14">
+        <v>6</v>
+      </c>
+      <c r="R11" s="14">
+        <v>7</v>
+      </c>
+      <c r="S11" s="14">
         <v>8</v>
       </c>
-      <c r="V11" s="1">
-        <v>1</v>
-      </c>
-      <c r="W11" s="1">
-        <v>2</v>
-      </c>
-      <c r="X11" s="1">
-        <v>3</v>
-      </c>
-      <c r="Y11" s="1">
-        <v>4</v>
-      </c>
-      <c r="Z11" s="1">
-        <v>5</v>
-      </c>
-      <c r="AA11" s="1">
-        <v>6</v>
-      </c>
-      <c r="AB11" s="1">
-        <v>7</v>
-      </c>
-      <c r="AC11" s="1">
+      <c r="V11" s="14">
+        <v>1</v>
+      </c>
+      <c r="W11" s="14">
+        <v>2</v>
+      </c>
+      <c r="X11" s="14">
+        <v>3</v>
+      </c>
+      <c r="Y11" s="14">
+        <v>4</v>
+      </c>
+      <c r="Z11" s="14">
+        <v>5</v>
+      </c>
+      <c r="AA11" s="14">
+        <v>6</v>
+      </c>
+      <c r="AB11" s="14">
+        <v>7</v>
+      </c>
+      <c r="AC11" s="14">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
-        <v>1</v>
-      </c>
-      <c r="B12" s="3">
-        <v>138</v>
-      </c>
-      <c r="C12" s="2">
-        <v>0</v>
-      </c>
-      <c r="D12" s="4">
-        <v>0</v>
-      </c>
-      <c r="E12" s="4">
-        <v>2</v>
-      </c>
-      <c r="F12" s="5">
-        <v>-1</v>
-      </c>
-      <c r="G12" s="5">
-        <v>1</v>
-      </c>
-      <c r="H12" s="4">
-        <v>1</v>
-      </c>
-      <c r="I12" s="4">
-        <v>0</v>
-      </c>
-      <c r="K12" s="1">
-        <v>1</v>
-      </c>
-      <c r="L12" s="3">
-        <v>138</v>
-      </c>
-      <c r="M12" s="2">
-        <v>138</v>
-      </c>
-      <c r="N12" s="4">
-        <v>0</v>
-      </c>
-      <c r="O12" s="4">
-        <v>2</v>
-      </c>
-      <c r="P12" s="5">
-        <v>-1</v>
-      </c>
-      <c r="Q12" s="5">
-        <v>1</v>
-      </c>
-      <c r="R12" s="4">
-        <v>1</v>
-      </c>
-      <c r="S12" s="4">
-        <v>0</v>
-      </c>
-      <c r="U12" s="1">
-        <v>1</v>
-      </c>
-      <c r="V12" s="4">
-        <v>0</v>
-      </c>
-      <c r="W12" s="6">
-        <v>1</v>
-      </c>
-      <c r="X12" s="7">
-        <v>-1</v>
-      </c>
-      <c r="Y12" s="4">
-        <v>2</v>
-      </c>
-      <c r="Z12" s="5">
-        <v>-1</v>
-      </c>
-      <c r="AA12" s="5">
-        <v>1</v>
-      </c>
-      <c r="AB12" s="4">
-        <v>1</v>
-      </c>
-      <c r="AC12" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
-        <v>2</v>
-      </c>
-      <c r="B13" s="2">
-        <v>-1</v>
-      </c>
-      <c r="C13" s="2">
+    <row r="12" spans="1:35" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="14">
+        <v>1</v>
+      </c>
+      <c r="B12" s="12">
+        <v>138</v>
+      </c>
+      <c r="C12" s="13">
+        <v>0</v>
+      </c>
+      <c r="D12" s="15">
+        <v>0</v>
+      </c>
+      <c r="E12" s="15">
+        <v>2</v>
+      </c>
+      <c r="F12" s="15">
+        <v>-1</v>
+      </c>
+      <c r="G12" s="15">
+        <v>1</v>
+      </c>
+      <c r="H12" s="15">
+        <v>1</v>
+      </c>
+      <c r="I12" s="15">
+        <v>0</v>
+      </c>
+      <c r="K12" s="14">
+        <v>1</v>
+      </c>
+      <c r="L12" s="19">
+        <v>138</v>
+      </c>
+      <c r="M12" s="21">
+        <v>138</v>
+      </c>
+      <c r="N12" s="15">
+        <v>0</v>
+      </c>
+      <c r="O12" s="15">
+        <v>2</v>
+      </c>
+      <c r="P12" s="15">
+        <v>-1</v>
+      </c>
+      <c r="Q12" s="15">
+        <v>1</v>
+      </c>
+      <c r="R12" s="15">
+        <v>1</v>
+      </c>
+      <c r="S12" s="15">
+        <v>0</v>
+      </c>
+      <c r="U12" s="14">
+        <v>1</v>
+      </c>
+      <c r="V12" s="15">
+        <v>0</v>
+      </c>
+      <c r="W12" s="16">
+        <v>1</v>
+      </c>
+      <c r="X12" s="17">
+        <v>-1</v>
+      </c>
+      <c r="Y12" s="15">
+        <v>2</v>
+      </c>
+      <c r="Z12" s="15">
+        <v>-1</v>
+      </c>
+      <c r="AA12" s="15">
+        <v>1</v>
+      </c>
+      <c r="AB12" s="15">
+        <v>1</v>
+      </c>
+      <c r="AC12" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:35" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="14">
+        <v>2</v>
+      </c>
+      <c r="B13" s="13">
+        <v>-1</v>
+      </c>
+      <c r="C13" s="13">
         <v>-6</v>
       </c>
-      <c r="D13" s="4">
-        <v>2</v>
-      </c>
-      <c r="E13" s="4">
-        <v>7</v>
-      </c>
-      <c r="F13" s="5">
-        <v>2</v>
-      </c>
-      <c r="G13" s="5">
-        <v>1</v>
-      </c>
-      <c r="H13" s="4">
-        <v>0</v>
-      </c>
-      <c r="I13" s="4">
-        <v>-1</v>
-      </c>
-      <c r="K13" s="1">
-        <v>2</v>
-      </c>
-      <c r="L13" s="2">
+      <c r="D13" s="15">
+        <v>2</v>
+      </c>
+      <c r="E13" s="15">
+        <v>7</v>
+      </c>
+      <c r="F13" s="15">
+        <v>2</v>
+      </c>
+      <c r="G13" s="15">
+        <v>1</v>
+      </c>
+      <c r="H13" s="15">
+        <v>0</v>
+      </c>
+      <c r="I13" s="15">
+        <v>-1</v>
+      </c>
+      <c r="K13" s="14">
+        <v>2</v>
+      </c>
+      <c r="L13" s="24">
         <v>137</v>
       </c>
-      <c r="M13" s="2">
+      <c r="M13" s="26">
         <v>132</v>
       </c>
-      <c r="N13" s="4">
-        <v>2</v>
-      </c>
-      <c r="O13" s="4">
-        <v>7</v>
-      </c>
-      <c r="P13" s="5">
-        <v>2</v>
-      </c>
-      <c r="Q13" s="5">
-        <v>1</v>
-      </c>
-      <c r="R13" s="4">
-        <v>0</v>
-      </c>
-      <c r="S13" s="4">
-        <v>-1</v>
-      </c>
-      <c r="U13" s="1">
-        <v>2</v>
-      </c>
-      <c r="V13" s="7">
+      <c r="N13" s="15">
+        <v>2</v>
+      </c>
+      <c r="O13" s="15">
+        <v>7</v>
+      </c>
+      <c r="P13" s="15">
+        <v>2</v>
+      </c>
+      <c r="Q13" s="15">
+        <v>1</v>
+      </c>
+      <c r="R13" s="15">
+        <v>0</v>
+      </c>
+      <c r="S13" s="15">
+        <v>-1</v>
+      </c>
+      <c r="U13" s="14">
+        <v>2</v>
+      </c>
+      <c r="V13" s="17">
         <v>-2</v>
       </c>
-      <c r="W13" s="3">
-        <v>138</v>
-      </c>
-      <c r="X13" s="2">
-        <v>138</v>
-      </c>
-      <c r="Y13" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z13" s="5">
-        <v>2</v>
-      </c>
-      <c r="AA13" s="5">
-        <v>1</v>
-      </c>
-      <c r="AB13" s="4">
-        <v>0</v>
-      </c>
-      <c r="AC13" s="4">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
-        <v>3</v>
-      </c>
-      <c r="B14" s="6">
-        <v>1</v>
-      </c>
-      <c r="C14" s="6">
-        <v>0</v>
-      </c>
-      <c r="D14" s="7">
+      <c r="W13" s="19">
+        <v>138</v>
+      </c>
+      <c r="X13" s="21">
+        <v>138</v>
+      </c>
+      <c r="Y13" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="15">
+        <v>2</v>
+      </c>
+      <c r="AA13" s="15">
+        <v>1</v>
+      </c>
+      <c r="AB13" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="15">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:35" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="14">
+        <v>3</v>
+      </c>
+      <c r="B14" s="16">
+        <v>1</v>
+      </c>
+      <c r="C14" s="16">
+        <v>0</v>
+      </c>
+      <c r="D14" s="17">
         <v>-2</v>
       </c>
-      <c r="E14" s="7">
-        <v>-1</v>
-      </c>
-      <c r="F14" s="4">
+      <c r="E14" s="17">
+        <v>-1</v>
+      </c>
+      <c r="F14" s="15">
         <v>-3</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14" s="15">
         <v>-2</v>
       </c>
-      <c r="H14" s="4">
-        <v>4</v>
-      </c>
-      <c r="I14" s="4">
+      <c r="H14" s="15">
+        <v>4</v>
+      </c>
+      <c r="I14" s="15">
         <v>-4</v>
       </c>
-      <c r="K14" s="1">
-        <v>3</v>
-      </c>
-      <c r="L14" s="6">
-        <v>1</v>
-      </c>
-      <c r="M14" s="6">
-        <v>0</v>
-      </c>
-      <c r="N14" s="7">
+      <c r="K14" s="14">
+        <v>3</v>
+      </c>
+      <c r="L14" s="16">
+        <v>1</v>
+      </c>
+      <c r="M14" s="16">
+        <v>0</v>
+      </c>
+      <c r="N14" s="17">
         <v>-2</v>
       </c>
-      <c r="O14" s="7">
-        <v>-1</v>
-      </c>
-      <c r="P14" s="4">
+      <c r="O14" s="17">
+        <v>-1</v>
+      </c>
+      <c r="P14" s="15">
         <v>-3</v>
       </c>
-      <c r="Q14" s="4">
+      <c r="Q14" s="15">
         <v>-2</v>
       </c>
-      <c r="R14" s="4">
-        <v>4</v>
-      </c>
-      <c r="S14" s="4">
+      <c r="R14" s="15">
+        <v>4</v>
+      </c>
+      <c r="S14" s="15">
         <v>-4</v>
       </c>
-      <c r="U14" s="1">
-        <v>3</v>
-      </c>
-      <c r="V14" s="6">
-        <v>3</v>
-      </c>
-      <c r="W14" s="2">
+      <c r="U14" s="14">
+        <v>3</v>
+      </c>
+      <c r="V14" s="16">
+        <v>3</v>
+      </c>
+      <c r="W14" s="24">
         <v>137</v>
       </c>
-      <c r="X14" s="2">
+      <c r="X14" s="26">
         <v>132</v>
       </c>
-      <c r="Y14" s="7">
-        <v>6</v>
-      </c>
-      <c r="Z14" s="4">
+      <c r="Y14" s="17">
+        <v>6</v>
+      </c>
+      <c r="Z14" s="15">
         <v>-3</v>
       </c>
-      <c r="AA14" s="4">
+      <c r="AA14" s="15">
         <v>-2</v>
       </c>
-      <c r="AB14" s="4">
-        <v>4</v>
-      </c>
-      <c r="AC14" s="4">
+      <c r="AB14" s="15">
+        <v>4</v>
+      </c>
+      <c r="AC14" s="15">
         <v>-4</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
-        <v>4</v>
-      </c>
-      <c r="B15" s="6">
-        <v>3</v>
-      </c>
-      <c r="C15" s="6">
+    <row r="15" spans="1:35" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="14">
+        <v>4</v>
+      </c>
+      <c r="B15" s="16">
+        <v>3</v>
+      </c>
+      <c r="C15" s="16">
         <v>-3</v>
       </c>
-      <c r="D15" s="7">
-        <v>2</v>
-      </c>
-      <c r="E15" s="7">
-        <v>6</v>
-      </c>
-      <c r="F15" s="4">
-        <v>-1</v>
-      </c>
-      <c r="G15" s="4">
+      <c r="D15" s="17">
+        <v>2</v>
+      </c>
+      <c r="E15" s="17">
+        <v>6</v>
+      </c>
+      <c r="F15" s="15">
+        <v>-1</v>
+      </c>
+      <c r="G15" s="15">
         <v>-5</v>
       </c>
-      <c r="H15" s="4">
+      <c r="H15" s="15">
         <v>9</v>
       </c>
-      <c r="I15" s="4">
+      <c r="I15" s="15">
         <v>-2</v>
       </c>
-      <c r="K15" s="1">
-        <v>4</v>
-      </c>
-      <c r="L15" s="6">
-        <v>3</v>
-      </c>
-      <c r="M15" s="6">
+      <c r="K15" s="14">
+        <v>4</v>
+      </c>
+      <c r="L15" s="16">
+        <v>3</v>
+      </c>
+      <c r="M15" s="16">
         <v>-3</v>
       </c>
-      <c r="N15" s="7">
-        <v>2</v>
-      </c>
-      <c r="O15" s="7">
-        <v>6</v>
-      </c>
-      <c r="P15" s="4">
-        <v>-1</v>
-      </c>
-      <c r="Q15" s="4">
+      <c r="N15" s="17">
+        <v>2</v>
+      </c>
+      <c r="O15" s="17">
+        <v>6</v>
+      </c>
+      <c r="P15" s="15">
+        <v>-1</v>
+      </c>
+      <c r="Q15" s="15">
         <v>-5</v>
       </c>
-      <c r="R15" s="4">
+      <c r="R15" s="15">
         <v>9</v>
       </c>
-      <c r="S15" s="4">
+      <c r="S15" s="15">
         <v>-2</v>
       </c>
-      <c r="U15" s="1">
-        <v>4</v>
-      </c>
-      <c r="V15" s="4">
-        <v>2</v>
-      </c>
-      <c r="W15" s="7">
-        <v>2</v>
-      </c>
-      <c r="X15" s="6">
+      <c r="U15" s="14">
+        <v>4</v>
+      </c>
+      <c r="V15" s="15">
+        <v>2</v>
+      </c>
+      <c r="W15" s="17">
+        <v>2</v>
+      </c>
+      <c r="X15" s="16">
         <v>-3</v>
       </c>
-      <c r="Y15" s="4">
-        <v>7</v>
-      </c>
-      <c r="Z15" s="4">
-        <v>-1</v>
-      </c>
-      <c r="AA15" s="4">
+      <c r="Y15" s="15">
+        <v>7</v>
+      </c>
+      <c r="Z15" s="15">
+        <v>-1</v>
+      </c>
+      <c r="AA15" s="15">
         <v>-5</v>
       </c>
-      <c r="AB15" s="4">
+      <c r="AB15" s="15">
         <v>9</v>
       </c>
-      <c r="AC15" s="4">
+      <c r="AC15" s="15">
         <v>-2</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
-        <v>5</v>
-      </c>
-      <c r="B16" s="8">
+    <row r="16" spans="1:35" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="14">
+        <v>5</v>
+      </c>
+      <c r="B16" s="16">
         <v>-3</v>
       </c>
-      <c r="C16" s="8">
-        <v>4</v>
-      </c>
-      <c r="D16" s="6">
-        <v>3</v>
-      </c>
-      <c r="E16" s="6">
-        <v>2</v>
-      </c>
-      <c r="F16" s="9">
-        <v>1</v>
-      </c>
-      <c r="G16" s="9">
-        <v>1</v>
-      </c>
-      <c r="H16" s="7">
-        <v>0</v>
-      </c>
-      <c r="I16" s="7">
-        <v>3</v>
-      </c>
-      <c r="K16" s="1">
-        <v>5</v>
-      </c>
-      <c r="L16" s="8">
+      <c r="C16" s="16">
+        <v>4</v>
+      </c>
+      <c r="D16" s="16">
+        <v>3</v>
+      </c>
+      <c r="E16" s="16">
+        <v>2</v>
+      </c>
+      <c r="F16" s="17">
+        <v>1</v>
+      </c>
+      <c r="G16" s="17">
+        <v>1</v>
+      </c>
+      <c r="H16" s="17">
+        <v>0</v>
+      </c>
+      <c r="I16" s="17">
+        <v>3</v>
+      </c>
+      <c r="K16" s="14">
+        <v>5</v>
+      </c>
+      <c r="L16" s="16">
         <v>-3</v>
       </c>
-      <c r="M16" s="8">
-        <v>4</v>
-      </c>
-      <c r="N16" s="6">
-        <v>3</v>
-      </c>
-      <c r="O16" s="6">
-        <v>2</v>
-      </c>
-      <c r="P16" s="9">
-        <v>1</v>
-      </c>
-      <c r="Q16" s="9">
-        <v>1</v>
-      </c>
-      <c r="R16" s="7">
-        <v>0</v>
-      </c>
-      <c r="S16" s="7">
-        <v>3</v>
-      </c>
-      <c r="U16" s="1">
-        <v>5</v>
-      </c>
-      <c r="V16" s="8">
+      <c r="M16" s="16">
+        <v>4</v>
+      </c>
+      <c r="N16" s="16">
+        <v>3</v>
+      </c>
+      <c r="O16" s="16">
+        <v>2</v>
+      </c>
+      <c r="P16" s="17">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="17">
+        <v>1</v>
+      </c>
+      <c r="R16" s="17">
+        <v>0</v>
+      </c>
+      <c r="S16" s="17">
+        <v>3</v>
+      </c>
+      <c r="U16" s="14">
+        <v>5</v>
+      </c>
+      <c r="V16" s="16">
         <v>-3</v>
       </c>
-      <c r="W16" s="8">
-        <v>4</v>
-      </c>
-      <c r="X16" s="6">
-        <v>3</v>
-      </c>
-      <c r="Y16" s="6">
-        <v>2</v>
-      </c>
-      <c r="Z16" s="9">
-        <v>5</v>
-      </c>
-      <c r="AA16" s="9">
-        <v>1</v>
-      </c>
-      <c r="AB16" s="7">
-        <v>2</v>
-      </c>
-      <c r="AC16" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
-        <v>6</v>
-      </c>
-      <c r="B17" s="8">
-        <v>-1</v>
-      </c>
-      <c r="C17" s="8">
-        <v>1</v>
-      </c>
-      <c r="D17" s="6">
+      <c r="W16" s="16">
+        <v>4</v>
+      </c>
+      <c r="X16" s="16">
+        <v>3</v>
+      </c>
+      <c r="Y16" s="16">
+        <v>2</v>
+      </c>
+      <c r="Z16" s="17">
+        <v>5</v>
+      </c>
+      <c r="AA16" s="17">
+        <v>1</v>
+      </c>
+      <c r="AB16" s="17">
+        <v>2</v>
+      </c>
+      <c r="AC16" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="14">
+        <v>6</v>
+      </c>
+      <c r="B17" s="16">
+        <v>-1</v>
+      </c>
+      <c r="C17" s="16">
+        <v>1</v>
+      </c>
+      <c r="D17" s="16">
         <v>-2</v>
       </c>
-      <c r="E17" s="6">
-        <v>5</v>
-      </c>
-      <c r="F17" s="9">
-        <v>5</v>
-      </c>
-      <c r="G17" s="9">
-        <v>1</v>
-      </c>
-      <c r="H17" s="7">
-        <v>2</v>
-      </c>
-      <c r="I17" s="7">
-        <v>-1</v>
-      </c>
-      <c r="K17" s="1">
-        <v>6</v>
-      </c>
-      <c r="L17" s="8">
-        <v>-1</v>
-      </c>
-      <c r="M17" s="8">
-        <v>1</v>
-      </c>
-      <c r="N17" s="6">
+      <c r="E17" s="16">
+        <v>5</v>
+      </c>
+      <c r="F17" s="17">
+        <v>5</v>
+      </c>
+      <c r="G17" s="17">
+        <v>1</v>
+      </c>
+      <c r="H17" s="17">
+        <v>2</v>
+      </c>
+      <c r="I17" s="17">
+        <v>-1</v>
+      </c>
+      <c r="K17" s="14">
+        <v>6</v>
+      </c>
+      <c r="L17" s="16">
+        <v>-1</v>
+      </c>
+      <c r="M17" s="16">
+        <v>1</v>
+      </c>
+      <c r="N17" s="16">
         <v>-2</v>
       </c>
-      <c r="O17" s="6">
-        <v>5</v>
-      </c>
-      <c r="P17" s="9">
-        <v>5</v>
-      </c>
-      <c r="Q17" s="9">
-        <v>1</v>
-      </c>
-      <c r="R17" s="7">
-        <v>2</v>
-      </c>
-      <c r="S17" s="7">
-        <v>-1</v>
-      </c>
-      <c r="U17" s="1">
-        <v>6</v>
-      </c>
-      <c r="V17" s="8">
-        <v>-1</v>
-      </c>
-      <c r="W17" s="8">
-        <v>1</v>
-      </c>
-      <c r="X17" s="6">
+      <c r="O17" s="16">
+        <v>5</v>
+      </c>
+      <c r="P17" s="17">
+        <v>5</v>
+      </c>
+      <c r="Q17" s="17">
+        <v>1</v>
+      </c>
+      <c r="R17" s="17">
+        <v>2</v>
+      </c>
+      <c r="S17" s="17">
+        <v>-1</v>
+      </c>
+      <c r="U17" s="14">
+        <v>6</v>
+      </c>
+      <c r="V17" s="16">
+        <v>-1</v>
+      </c>
+      <c r="W17" s="16">
+        <v>1</v>
+      </c>
+      <c r="X17" s="16">
         <v>-2</v>
       </c>
-      <c r="Y17" s="6">
-        <v>5</v>
-      </c>
-      <c r="Z17" s="9">
-        <v>1</v>
-      </c>
-      <c r="AA17" s="9">
-        <v>1</v>
-      </c>
-      <c r="AB17" s="7">
-        <v>-1</v>
-      </c>
-      <c r="AC17" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
-        <v>7</v>
-      </c>
-      <c r="B18" s="6">
+      <c r="Y17" s="16">
+        <v>5</v>
+      </c>
+      <c r="Z17" s="17">
+        <v>1</v>
+      </c>
+      <c r="AA17" s="17">
+        <v>1</v>
+      </c>
+      <c r="AB17" s="17">
+        <v>-1</v>
+      </c>
+      <c r="AC17" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="14">
+        <v>7</v>
+      </c>
+      <c r="B18" s="16">
         <v>-2</v>
       </c>
-      <c r="C18" s="6">
-        <v>-1</v>
-      </c>
-      <c r="D18" s="6">
-        <v>6</v>
-      </c>
-      <c r="E18" s="6">
-        <v>0</v>
-      </c>
-      <c r="F18" s="7">
-        <v>-1</v>
-      </c>
-      <c r="G18" s="7">
+      <c r="C18" s="16">
+        <v>-1</v>
+      </c>
+      <c r="D18" s="16">
+        <v>6</v>
+      </c>
+      <c r="E18" s="16">
+        <v>0</v>
+      </c>
+      <c r="F18" s="17">
+        <v>-1</v>
+      </c>
+      <c r="G18" s="17">
         <v>-3</v>
       </c>
-      <c r="H18" s="7">
-        <v>3</v>
-      </c>
-      <c r="I18" s="7">
-        <v>-1</v>
-      </c>
-      <c r="K18" s="1">
-        <v>7</v>
-      </c>
-      <c r="L18" s="6">
+      <c r="H18" s="17">
+        <v>3</v>
+      </c>
+      <c r="I18" s="17">
+        <v>-1</v>
+      </c>
+      <c r="K18" s="14">
+        <v>7</v>
+      </c>
+      <c r="L18" s="16">
         <v>-2</v>
       </c>
-      <c r="M18" s="6">
-        <v>-1</v>
-      </c>
-      <c r="N18" s="6">
-        <v>6</v>
-      </c>
-      <c r="O18" s="6">
-        <v>0</v>
-      </c>
-      <c r="P18" s="7">
-        <v>-1</v>
-      </c>
-      <c r="Q18" s="7">
+      <c r="M18" s="16">
+        <v>-1</v>
+      </c>
+      <c r="N18" s="16">
+        <v>6</v>
+      </c>
+      <c r="O18" s="16">
+        <v>0</v>
+      </c>
+      <c r="P18" s="17">
+        <v>-1</v>
+      </c>
+      <c r="Q18" s="17">
         <v>-3</v>
       </c>
-      <c r="R18" s="7">
-        <v>3</v>
-      </c>
-      <c r="S18" s="7">
-        <v>-1</v>
-      </c>
-      <c r="U18" s="1">
-        <v>7</v>
-      </c>
-      <c r="V18" s="6">
+      <c r="R18" s="17">
+        <v>3</v>
+      </c>
+      <c r="S18" s="17">
+        <v>-1</v>
+      </c>
+      <c r="U18" s="14">
+        <v>7</v>
+      </c>
+      <c r="V18" s="16">
         <v>-2</v>
       </c>
-      <c r="W18" s="6">
-        <v>-1</v>
-      </c>
-      <c r="X18" s="6">
-        <v>6</v>
-      </c>
-      <c r="Y18" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z18" s="7">
+      <c r="W18" s="16">
+        <v>-1</v>
+      </c>
+      <c r="X18" s="16">
+        <v>6</v>
+      </c>
+      <c r="Y18" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="17">
         <v>-4</v>
       </c>
-      <c r="AA18" s="7">
-        <v>-1</v>
-      </c>
-      <c r="AB18" s="7">
-        <v>3</v>
-      </c>
-      <c r="AC18" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
+      <c r="AA18" s="17">
+        <v>-1</v>
+      </c>
+      <c r="AB18" s="17">
+        <v>3</v>
+      </c>
+      <c r="AC18" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="14">
         <v>8</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B19" s="16">
         <v>-2</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19" s="16">
         <v>-2</v>
       </c>
-      <c r="D19" s="6">
-        <v>2</v>
-      </c>
-      <c r="E19" s="6">
-        <v>0</v>
-      </c>
-      <c r="F19" s="7">
+      <c r="D19" s="16">
+        <v>2</v>
+      </c>
+      <c r="E19" s="16">
+        <v>0</v>
+      </c>
+      <c r="F19" s="17">
         <v>-4</v>
       </c>
-      <c r="G19" s="7">
+      <c r="G19" s="17">
         <v>-4</v>
       </c>
-      <c r="H19" s="7">
-        <v>3</v>
-      </c>
-      <c r="I19" s="7">
-        <v>7</v>
-      </c>
-      <c r="K19" s="1">
+      <c r="H19" s="17">
+        <v>3</v>
+      </c>
+      <c r="I19" s="17">
+        <v>7</v>
+      </c>
+      <c r="K19" s="14">
         <v>8</v>
       </c>
-      <c r="L19" s="6">
+      <c r="L19" s="16">
         <v>-2</v>
       </c>
-      <c r="M19" s="6">
+      <c r="M19" s="16">
         <v>-2</v>
       </c>
-      <c r="N19" s="6">
-        <v>2</v>
-      </c>
-      <c r="O19" s="6">
-        <v>0</v>
-      </c>
-      <c r="P19" s="7">
+      <c r="N19" s="16">
+        <v>2</v>
+      </c>
+      <c r="O19" s="16">
+        <v>0</v>
+      </c>
+      <c r="P19" s="17">
         <v>-4</v>
       </c>
-      <c r="Q19" s="7">
+      <c r="Q19" s="17">
         <v>-4</v>
       </c>
-      <c r="R19" s="7">
-        <v>3</v>
-      </c>
-      <c r="S19" s="7">
-        <v>7</v>
-      </c>
-      <c r="U19" s="1">
+      <c r="R19" s="17">
+        <v>3</v>
+      </c>
+      <c r="S19" s="17">
+        <v>7</v>
+      </c>
+      <c r="U19" s="14">
         <v>8</v>
       </c>
-      <c r="V19" s="6">
+      <c r="V19" s="16">
         <v>-2</v>
       </c>
-      <c r="W19" s="6">
+      <c r="W19" s="16">
         <v>-2</v>
       </c>
-      <c r="X19" s="6">
-        <v>2</v>
-      </c>
-      <c r="Y19" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z19" s="7">
+      <c r="X19" s="16">
+        <v>2</v>
+      </c>
+      <c r="Y19" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="17">
         <v>-4</v>
       </c>
-      <c r="AA19" s="7">
+      <c r="AA19" s="17">
         <v>-3</v>
       </c>
-      <c r="AB19" s="7">
-        <v>7</v>
-      </c>
-      <c r="AC19" s="7">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="B21" s="1">
-        <v>1</v>
-      </c>
-      <c r="C21" s="1">
-        <v>2</v>
-      </c>
-      <c r="D21" s="1">
-        <v>3</v>
-      </c>
-      <c r="E21" s="1">
-        <v>4</v>
-      </c>
-      <c r="F21" s="1">
-        <v>5</v>
-      </c>
-      <c r="G21" s="1">
-        <v>6</v>
-      </c>
-      <c r="H21" s="1">
-        <v>7</v>
-      </c>
-      <c r="I21" s="1">
+      <c r="AB19" s="17">
+        <v>7</v>
+      </c>
+      <c r="AC19" s="17">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B21" s="14">
+        <v>1</v>
+      </c>
+      <c r="C21" s="14">
+        <v>2</v>
+      </c>
+      <c r="D21" s="14">
+        <v>3</v>
+      </c>
+      <c r="E21" s="14">
+        <v>4</v>
+      </c>
+      <c r="F21" s="14">
+        <v>5</v>
+      </c>
+      <c r="G21" s="14">
+        <v>6</v>
+      </c>
+      <c r="H21" s="14">
+        <v>7</v>
+      </c>
+      <c r="I21" s="14">
         <v>8</v>
       </c>
-      <c r="L21" s="1">
-        <v>1</v>
-      </c>
-      <c r="M21" s="1">
-        <v>2</v>
-      </c>
-      <c r="N21" s="1">
-        <v>3</v>
-      </c>
-      <c r="O21" s="1">
-        <v>4</v>
-      </c>
-      <c r="P21" s="1">
-        <v>5</v>
-      </c>
-      <c r="Q21" s="1">
-        <v>6</v>
-      </c>
-      <c r="R21" s="1">
-        <v>7</v>
-      </c>
-      <c r="S21" s="1">
+      <c r="L21" s="14">
+        <v>1</v>
+      </c>
+      <c r="M21" s="14">
+        <v>2</v>
+      </c>
+      <c r="N21" s="14">
+        <v>3</v>
+      </c>
+      <c r="O21" s="14">
+        <v>4</v>
+      </c>
+      <c r="P21" s="14">
+        <v>5</v>
+      </c>
+      <c r="Q21" s="14">
+        <v>6</v>
+      </c>
+      <c r="R21" s="14">
+        <v>7</v>
+      </c>
+      <c r="S21" s="14">
         <v>8</v>
       </c>
-      <c r="V21" s="1">
-        <v>1</v>
-      </c>
-      <c r="W21" s="1">
-        <v>2</v>
-      </c>
-      <c r="X21" s="1">
-        <v>3</v>
-      </c>
-      <c r="Y21" s="1">
-        <v>4</v>
-      </c>
-      <c r="Z21" s="1">
-        <v>5</v>
-      </c>
-      <c r="AA21" s="1">
-        <v>6</v>
-      </c>
-      <c r="AB21" s="1">
-        <v>7</v>
-      </c>
-      <c r="AC21" s="1">
+      <c r="V21" s="14">
+        <v>1</v>
+      </c>
+      <c r="W21" s="14">
+        <v>2</v>
+      </c>
+      <c r="X21" s="14">
+        <v>3</v>
+      </c>
+      <c r="Y21" s="14">
+        <v>4</v>
+      </c>
+      <c r="Z21" s="14">
+        <v>5</v>
+      </c>
+      <c r="AA21" s="14">
+        <v>6</v>
+      </c>
+      <c r="AB21" s="14">
+        <v>7</v>
+      </c>
+      <c r="AC21" s="14">
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A22" s="1">
-        <v>1</v>
-      </c>
-      <c r="B22" s="3">
-        <v>138</v>
-      </c>
-      <c r="C22" s="2">
-        <v>0</v>
-      </c>
-      <c r="D22" s="4">
-        <v>0</v>
-      </c>
-      <c r="E22" s="4">
-        <v>2</v>
-      </c>
-      <c r="F22" s="5">
-        <v>255</v>
-      </c>
-      <c r="G22" s="5">
-        <v>1</v>
-      </c>
-      <c r="H22" s="4">
-        <v>1</v>
-      </c>
-      <c r="I22" s="4">
-        <v>0</v>
-      </c>
-      <c r="K22" s="1">
-        <v>1</v>
-      </c>
-      <c r="L22" s="3">
-        <v>138</v>
-      </c>
-      <c r="M22" s="2">
-        <v>138</v>
-      </c>
-      <c r="N22" s="4">
-        <v>0</v>
-      </c>
-      <c r="O22" s="4">
-        <v>2</v>
-      </c>
-      <c r="P22" s="5">
-        <v>255</v>
-      </c>
-      <c r="Q22" s="5">
-        <v>1</v>
-      </c>
-      <c r="R22" s="4">
-        <v>1</v>
-      </c>
-      <c r="S22" s="4">
-        <v>0</v>
-      </c>
-      <c r="U22" s="1">
-        <v>1</v>
-      </c>
-      <c r="V22" s="4">
-        <v>0</v>
-      </c>
-      <c r="W22" s="6">
-        <v>1</v>
-      </c>
-      <c r="X22" s="7">
-        <v>255</v>
-      </c>
-      <c r="Y22" s="4">
-        <v>2</v>
-      </c>
-      <c r="Z22" s="5">
-        <v>255</v>
-      </c>
-      <c r="AA22" s="5">
-        <v>1</v>
-      </c>
-      <c r="AB22" s="4">
-        <v>1</v>
-      </c>
-      <c r="AC22" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A23" s="1">
-        <v>2</v>
-      </c>
-      <c r="B23" s="2">
-        <v>-1</v>
-      </c>
-      <c r="C23" s="2">
+    <row r="22" spans="1:29" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="14">
+        <v>1</v>
+      </c>
+      <c r="B22" s="13">
+        <v>138</v>
+      </c>
+      <c r="C22" s="13">
+        <v>0</v>
+      </c>
+      <c r="D22" s="15">
+        <v>0</v>
+      </c>
+      <c r="E22" s="15">
+        <v>2</v>
+      </c>
+      <c r="F22" s="15">
+        <v>255</v>
+      </c>
+      <c r="G22" s="15">
+        <v>1</v>
+      </c>
+      <c r="H22" s="15">
+        <v>1</v>
+      </c>
+      <c r="I22" s="15">
+        <v>0</v>
+      </c>
+      <c r="K22" s="14">
+        <v>1</v>
+      </c>
+      <c r="L22" s="19">
+        <v>138</v>
+      </c>
+      <c r="M22" s="20">
+        <v>138</v>
+      </c>
+      <c r="N22" s="27">
+        <v>0</v>
+      </c>
+      <c r="O22" s="28">
+        <v>2</v>
+      </c>
+      <c r="P22" s="15">
+        <v>255</v>
+      </c>
+      <c r="Q22" s="15">
+        <v>1</v>
+      </c>
+      <c r="R22" s="15">
+        <v>1</v>
+      </c>
+      <c r="S22" s="15">
+        <v>0</v>
+      </c>
+      <c r="U22" s="14">
+        <v>1</v>
+      </c>
+      <c r="V22" s="36">
+        <v>0</v>
+      </c>
+      <c r="W22" s="37">
+        <v>1</v>
+      </c>
+      <c r="X22" s="38">
+        <v>255</v>
+      </c>
+      <c r="Y22" s="28">
+        <v>2</v>
+      </c>
+      <c r="Z22" s="15">
+        <v>255</v>
+      </c>
+      <c r="AA22" s="15">
+        <v>1</v>
+      </c>
+      <c r="AB22" s="15">
+        <v>1</v>
+      </c>
+      <c r="AC22" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="14">
+        <v>2</v>
+      </c>
+      <c r="B23" s="13">
+        <v>-1</v>
+      </c>
+      <c r="C23" s="13">
         <v>-6</v>
       </c>
-      <c r="D23" s="4">
-        <v>2</v>
-      </c>
-      <c r="E23" s="4">
-        <v>7</v>
-      </c>
-      <c r="F23" s="5">
-        <v>2</v>
-      </c>
-      <c r="G23" s="5">
-        <v>1</v>
-      </c>
-      <c r="H23" s="4">
-        <v>0</v>
-      </c>
-      <c r="I23" s="4">
-        <v>255</v>
-      </c>
-      <c r="K23" s="1">
-        <v>2</v>
-      </c>
-      <c r="L23" s="2">
+      <c r="D23" s="15">
+        <v>2</v>
+      </c>
+      <c r="E23" s="15">
+        <v>7</v>
+      </c>
+      <c r="F23" s="15">
+        <v>2</v>
+      </c>
+      <c r="G23" s="15">
+        <v>1</v>
+      </c>
+      <c r="H23" s="15">
+        <v>0</v>
+      </c>
+      <c r="I23" s="15">
+        <v>255</v>
+      </c>
+      <c r="K23" s="14">
+        <v>2</v>
+      </c>
+      <c r="L23" s="22">
         <v>137</v>
       </c>
-      <c r="M23" s="2">
+      <c r="M23" s="13">
         <v>132</v>
       </c>
-      <c r="N23" s="4">
-        <v>2</v>
-      </c>
-      <c r="O23" s="4">
-        <v>7</v>
-      </c>
-      <c r="P23" s="5">
-        <v>2</v>
-      </c>
-      <c r="Q23" s="5">
-        <v>1</v>
-      </c>
-      <c r="R23" s="4">
-        <v>0</v>
-      </c>
-      <c r="S23" s="4">
-        <v>255</v>
-      </c>
-      <c r="U23" s="1">
-        <v>2</v>
-      </c>
-      <c r="V23" s="7">
+      <c r="N23" s="15">
+        <v>2</v>
+      </c>
+      <c r="O23" s="29">
+        <v>7</v>
+      </c>
+      <c r="P23" s="15">
+        <v>2</v>
+      </c>
+      <c r="Q23" s="15">
+        <v>1</v>
+      </c>
+      <c r="R23" s="15">
+        <v>0</v>
+      </c>
+      <c r="S23" s="15">
+        <v>255</v>
+      </c>
+      <c r="U23" s="14">
+        <v>2</v>
+      </c>
+      <c r="V23" s="39">
         <v>254</v>
       </c>
-      <c r="W23" s="3">
-        <v>138</v>
-      </c>
-      <c r="X23" s="2">
-        <v>138</v>
-      </c>
-      <c r="Y23" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z23" s="5">
-        <v>2</v>
-      </c>
-      <c r="AA23" s="5">
-        <v>1</v>
-      </c>
-      <c r="AB23" s="4">
-        <v>0</v>
-      </c>
-      <c r="AC23" s="4">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A24" s="1">
-        <v>3</v>
-      </c>
-      <c r="B24" s="6">
-        <v>1</v>
-      </c>
-      <c r="C24" s="6">
-        <v>0</v>
-      </c>
-      <c r="D24" s="7">
-        <v>255</v>
-      </c>
-      <c r="E24" s="7">
-        <v>6</v>
-      </c>
-      <c r="F24" s="4">
+      <c r="W23" s="13">
+        <v>138</v>
+      </c>
+      <c r="X23" s="13">
+        <v>138</v>
+      </c>
+      <c r="Y23" s="40">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="15">
+        <v>2</v>
+      </c>
+      <c r="AA23" s="15">
+        <v>1</v>
+      </c>
+      <c r="AB23" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC23" s="15">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="14">
+        <v>3</v>
+      </c>
+      <c r="B24" s="16">
+        <v>1</v>
+      </c>
+      <c r="C24" s="16">
+        <v>0</v>
+      </c>
+      <c r="D24" s="17">
+        <v>255</v>
+      </c>
+      <c r="E24" s="17">
+        <v>6</v>
+      </c>
+      <c r="F24" s="15">
         <v>253</v>
       </c>
-      <c r="G24" s="4">
+      <c r="G24" s="15">
         <v>254</v>
       </c>
-      <c r="H24" s="4">
-        <v>4</v>
-      </c>
-      <c r="I24" s="4">
+      <c r="H24" s="15">
+        <v>4</v>
+      </c>
+      <c r="I24" s="15">
         <v>252</v>
       </c>
-      <c r="K24" s="1">
-        <v>3</v>
-      </c>
-      <c r="L24" s="6">
-        <v>1</v>
-      </c>
-      <c r="M24" s="6">
-        <v>0</v>
-      </c>
-      <c r="N24" s="7">
-        <v>255</v>
-      </c>
-      <c r="O24" s="7">
-        <v>6</v>
-      </c>
-      <c r="P24" s="4">
+      <c r="K24" s="14">
+        <v>3</v>
+      </c>
+      <c r="L24" s="30">
+        <v>1</v>
+      </c>
+      <c r="M24" s="16">
+        <v>0</v>
+      </c>
+      <c r="N24" s="17">
+        <v>255</v>
+      </c>
+      <c r="O24" s="31">
+        <v>6</v>
+      </c>
+      <c r="P24" s="15">
         <v>253</v>
       </c>
-      <c r="Q24" s="4">
+      <c r="Q24" s="15">
         <v>254</v>
       </c>
-      <c r="R24" s="4">
-        <v>4</v>
-      </c>
-      <c r="S24" s="4">
+      <c r="R24" s="15">
+        <v>4</v>
+      </c>
+      <c r="S24" s="15">
         <v>252</v>
       </c>
-      <c r="U24" s="1">
-        <v>3</v>
-      </c>
-      <c r="V24" s="6">
-        <v>3</v>
-      </c>
-      <c r="W24" s="2">
+      <c r="U24" s="14">
+        <v>3</v>
+      </c>
+      <c r="V24" s="30">
+        <v>3</v>
+      </c>
+      <c r="W24" s="13">
         <v>137</v>
       </c>
-      <c r="X24" s="2">
+      <c r="X24" s="13">
         <v>132</v>
       </c>
-      <c r="Y24" s="7">
-        <v>6</v>
-      </c>
-      <c r="Z24" s="4">
+      <c r="Y24" s="31">
+        <v>6</v>
+      </c>
+      <c r="Z24" s="15">
         <v>253</v>
       </c>
-      <c r="AA24" s="4">
+      <c r="AA24" s="15">
         <v>254</v>
       </c>
-      <c r="AB24" s="4">
-        <v>4</v>
-      </c>
-      <c r="AC24" s="4">
+      <c r="AB24" s="15">
+        <v>4</v>
+      </c>
+      <c r="AC24" s="15">
         <v>252</v>
       </c>
     </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A25" s="1">
-        <v>4</v>
-      </c>
-      <c r="B25" s="6">
-        <v>3</v>
-      </c>
-      <c r="C25" s="6">
+    <row r="25" spans="1:29" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="14">
+        <v>4</v>
+      </c>
+      <c r="B25" s="16">
+        <v>3</v>
+      </c>
+      <c r="C25" s="16">
         <v>253</v>
       </c>
-      <c r="D25" s="7">
+      <c r="D25" s="17">
         <v>254</v>
       </c>
-      <c r="E25" s="7">
-        <v>2</v>
-      </c>
-      <c r="F25" s="4">
-        <v>255</v>
-      </c>
-      <c r="G25" s="4">
+      <c r="E25" s="17">
+        <v>2</v>
+      </c>
+      <c r="F25" s="15">
+        <v>255</v>
+      </c>
+      <c r="G25" s="15">
         <v>251</v>
       </c>
-      <c r="H25" s="4">
+      <c r="H25" s="15">
         <v>9</v>
       </c>
-      <c r="I25" s="4">
+      <c r="I25" s="15">
         <v>254</v>
       </c>
-      <c r="K25" s="1">
-        <v>4</v>
-      </c>
-      <c r="L25" s="6">
-        <v>3</v>
-      </c>
-      <c r="M25" s="6">
+      <c r="K25" s="14">
+        <v>4</v>
+      </c>
+      <c r="L25" s="32">
+        <v>3</v>
+      </c>
+      <c r="M25" s="33">
         <v>253</v>
       </c>
-      <c r="N25" s="7">
+      <c r="N25" s="34">
         <v>254</v>
       </c>
-      <c r="O25" s="7">
-        <v>2</v>
-      </c>
-      <c r="P25" s="4">
-        <v>255</v>
-      </c>
-      <c r="Q25" s="4">
+      <c r="O25" s="35">
+        <v>2</v>
+      </c>
+      <c r="P25" s="15">
+        <v>255</v>
+      </c>
+      <c r="Q25" s="15">
         <v>251</v>
       </c>
-      <c r="R25" s="4">
+      <c r="R25" s="15">
         <v>9</v>
       </c>
-      <c r="S25" s="4">
+      <c r="S25" s="15">
         <v>254</v>
       </c>
-      <c r="U25" s="1">
-        <v>4</v>
-      </c>
-      <c r="V25" s="4">
-        <v>2</v>
-      </c>
-      <c r="W25" s="7">
-        <v>2</v>
-      </c>
-      <c r="X25" s="6">
+      <c r="U25" s="14">
+        <v>4</v>
+      </c>
+      <c r="V25" s="41">
+        <v>2</v>
+      </c>
+      <c r="W25" s="34">
+        <v>2</v>
+      </c>
+      <c r="X25" s="33">
         <v>253</v>
       </c>
-      <c r="Y25" s="4">
-        <v>7</v>
-      </c>
-      <c r="Z25" s="4">
-        <v>255</v>
-      </c>
-      <c r="AA25" s="4">
+      <c r="Y25" s="42">
+        <v>7</v>
+      </c>
+      <c r="Z25" s="15">
+        <v>255</v>
+      </c>
+      <c r="AA25" s="15">
         <v>251</v>
       </c>
-      <c r="AB25" s="4">
+      <c r="AB25" s="15">
         <v>9</v>
       </c>
-      <c r="AC25" s="4">
+      <c r="AC25" s="15">
         <v>254</v>
       </c>
     </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A26" s="1">
-        <v>5</v>
-      </c>
-      <c r="B26" s="8">
+    <row r="26" spans="1:29" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="14">
+        <v>5</v>
+      </c>
+      <c r="B26" s="16">
         <v>253</v>
       </c>
-      <c r="C26" s="8">
-        <v>4</v>
-      </c>
-      <c r="D26" s="6">
-        <v>3</v>
-      </c>
-      <c r="E26" s="6">
-        <v>2</v>
-      </c>
-      <c r="F26" s="9">
-        <v>1</v>
-      </c>
-      <c r="G26" s="9">
-        <v>1</v>
-      </c>
-      <c r="H26" s="7">
-        <v>0</v>
-      </c>
-      <c r="I26" s="7">
-        <v>3</v>
-      </c>
-      <c r="K26" s="1">
-        <v>5</v>
-      </c>
-      <c r="L26" s="8">
+      <c r="C26" s="16">
+        <v>4</v>
+      </c>
+      <c r="D26" s="16">
+        <v>3</v>
+      </c>
+      <c r="E26" s="16">
+        <v>2</v>
+      </c>
+      <c r="F26" s="17">
+        <v>1</v>
+      </c>
+      <c r="G26" s="17">
+        <v>1</v>
+      </c>
+      <c r="H26" s="17">
+        <v>0</v>
+      </c>
+      <c r="I26" s="17">
+        <v>3</v>
+      </c>
+      <c r="K26" s="14">
+        <v>5</v>
+      </c>
+      <c r="L26" s="16">
         <v>253</v>
       </c>
-      <c r="M26" s="8">
-        <v>4</v>
-      </c>
-      <c r="N26" s="6">
-        <v>3</v>
-      </c>
-      <c r="O26" s="6">
-        <v>2</v>
-      </c>
-      <c r="P26" s="9">
-        <v>1</v>
-      </c>
-      <c r="Q26" s="9">
-        <v>1</v>
-      </c>
-      <c r="R26" s="7">
-        <v>0</v>
-      </c>
-      <c r="S26" s="7">
-        <v>3</v>
-      </c>
-      <c r="U26" s="1">
-        <v>5</v>
-      </c>
-      <c r="V26" s="8">
+      <c r="M26" s="16">
+        <v>4</v>
+      </c>
+      <c r="N26" s="16">
+        <v>3</v>
+      </c>
+      <c r="O26" s="16">
+        <v>2</v>
+      </c>
+      <c r="P26" s="17">
+        <v>1</v>
+      </c>
+      <c r="Q26" s="17">
+        <v>1</v>
+      </c>
+      <c r="R26" s="17">
+        <v>0</v>
+      </c>
+      <c r="S26" s="17">
+        <v>3</v>
+      </c>
+      <c r="U26" s="14">
+        <v>5</v>
+      </c>
+      <c r="V26" s="16">
         <v>253</v>
       </c>
-      <c r="W26" s="8">
-        <v>4</v>
-      </c>
-      <c r="X26" s="6">
-        <v>3</v>
-      </c>
-      <c r="Y26" s="6">
-        <v>2</v>
-      </c>
-      <c r="Z26" s="9">
-        <v>1</v>
-      </c>
-      <c r="AA26" s="9">
-        <v>1</v>
-      </c>
-      <c r="AB26" s="7">
-        <v>0</v>
-      </c>
-      <c r="AC26" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A27" s="1">
-        <v>6</v>
-      </c>
-      <c r="B27" s="8">
-        <v>255</v>
-      </c>
-      <c r="C27" s="8">
-        <v>1</v>
-      </c>
-      <c r="D27" s="6">
+      <c r="W26" s="16">
+        <v>4</v>
+      </c>
+      <c r="X26" s="16">
+        <v>3</v>
+      </c>
+      <c r="Y26" s="16">
+        <v>2</v>
+      </c>
+      <c r="Z26" s="17">
+        <v>1</v>
+      </c>
+      <c r="AA26" s="17">
+        <v>1</v>
+      </c>
+      <c r="AB26" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC26" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="14">
+        <v>6</v>
+      </c>
+      <c r="B27" s="16">
+        <v>255</v>
+      </c>
+      <c r="C27" s="16">
+        <v>1</v>
+      </c>
+      <c r="D27" s="16">
         <v>254</v>
       </c>
-      <c r="E27" s="6">
-        <v>5</v>
-      </c>
-      <c r="F27" s="9">
-        <v>5</v>
-      </c>
-      <c r="G27" s="9">
-        <v>1</v>
-      </c>
-      <c r="H27" s="7">
-        <v>2</v>
-      </c>
-      <c r="I27" s="7">
-        <v>255</v>
-      </c>
-      <c r="K27" s="1">
-        <v>6</v>
-      </c>
-      <c r="L27" s="8">
-        <v>255</v>
-      </c>
-      <c r="M27" s="8">
-        <v>1</v>
-      </c>
-      <c r="N27" s="6">
+      <c r="E27" s="16">
+        <v>5</v>
+      </c>
+      <c r="F27" s="17">
+        <v>5</v>
+      </c>
+      <c r="G27" s="17">
+        <v>1</v>
+      </c>
+      <c r="H27" s="17">
+        <v>2</v>
+      </c>
+      <c r="I27" s="17">
+        <v>255</v>
+      </c>
+      <c r="K27" s="14">
+        <v>6</v>
+      </c>
+      <c r="L27" s="16">
+        <v>255</v>
+      </c>
+      <c r="M27" s="16">
+        <v>1</v>
+      </c>
+      <c r="N27" s="16">
         <v>254</v>
       </c>
-      <c r="O27" s="6">
-        <v>5</v>
-      </c>
-      <c r="P27" s="9">
-        <v>5</v>
-      </c>
-      <c r="Q27" s="9">
-        <v>1</v>
-      </c>
-      <c r="R27" s="7">
-        <v>2</v>
-      </c>
-      <c r="S27" s="7">
-        <v>255</v>
-      </c>
-      <c r="U27" s="1">
-        <v>6</v>
-      </c>
-      <c r="V27" s="8">
-        <v>255</v>
-      </c>
-      <c r="W27" s="8">
-        <v>1</v>
-      </c>
-      <c r="X27" s="6">
+      <c r="O27" s="16">
+        <v>5</v>
+      </c>
+      <c r="P27" s="17">
+        <v>5</v>
+      </c>
+      <c r="Q27" s="17">
+        <v>1</v>
+      </c>
+      <c r="R27" s="17">
+        <v>2</v>
+      </c>
+      <c r="S27" s="17">
+        <v>255</v>
+      </c>
+      <c r="U27" s="14">
+        <v>6</v>
+      </c>
+      <c r="V27" s="16">
+        <v>255</v>
+      </c>
+      <c r="W27" s="16">
+        <v>1</v>
+      </c>
+      <c r="X27" s="16">
         <v>254</v>
       </c>
-      <c r="Y27" s="6">
-        <v>5</v>
-      </c>
-      <c r="Z27" s="9">
-        <v>5</v>
-      </c>
-      <c r="AA27" s="9">
-        <v>1</v>
-      </c>
-      <c r="AB27" s="7">
-        <v>2</v>
-      </c>
-      <c r="AC27" s="7">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A28" s="1">
-        <v>7</v>
-      </c>
-      <c r="B28" s="6">
+      <c r="Y27" s="16">
+        <v>5</v>
+      </c>
+      <c r="Z27" s="17">
+        <v>5</v>
+      </c>
+      <c r="AA27" s="17">
+        <v>1</v>
+      </c>
+      <c r="AB27" s="17">
+        <v>2</v>
+      </c>
+      <c r="AC27" s="17">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="14">
+        <v>7</v>
+      </c>
+      <c r="B28" s="16">
         <v>254</v>
       </c>
-      <c r="C28" s="6">
-        <v>255</v>
-      </c>
-      <c r="D28" s="6">
-        <v>6</v>
-      </c>
-      <c r="E28" s="6">
-        <v>0</v>
-      </c>
-      <c r="F28" s="7">
-        <v>255</v>
-      </c>
-      <c r="G28" s="7">
+      <c r="C28" s="16">
+        <v>255</v>
+      </c>
+      <c r="D28" s="16">
+        <v>6</v>
+      </c>
+      <c r="E28" s="16">
+        <v>0</v>
+      </c>
+      <c r="F28" s="17">
+        <v>255</v>
+      </c>
+      <c r="G28" s="17">
         <v>253</v>
       </c>
-      <c r="H28" s="7">
-        <v>3</v>
-      </c>
-      <c r="I28" s="7">
-        <v>255</v>
-      </c>
-      <c r="K28" s="1">
-        <v>7</v>
-      </c>
-      <c r="L28" s="6">
+      <c r="H28" s="17">
+        <v>3</v>
+      </c>
+      <c r="I28" s="17">
+        <v>255</v>
+      </c>
+      <c r="K28" s="14">
+        <v>7</v>
+      </c>
+      <c r="L28" s="16">
         <v>254</v>
       </c>
-      <c r="M28" s="6">
-        <v>255</v>
-      </c>
-      <c r="N28" s="6">
-        <v>6</v>
-      </c>
-      <c r="O28" s="6">
-        <v>0</v>
-      </c>
-      <c r="P28" s="7">
-        <v>255</v>
-      </c>
-      <c r="Q28" s="7">
+      <c r="M28" s="16">
+        <v>255</v>
+      </c>
+      <c r="N28" s="16">
+        <v>6</v>
+      </c>
+      <c r="O28" s="16">
+        <v>0</v>
+      </c>
+      <c r="P28" s="17">
+        <v>255</v>
+      </c>
+      <c r="Q28" s="17">
         <v>253</v>
       </c>
-      <c r="R28" s="7">
-        <v>3</v>
-      </c>
-      <c r="S28" s="7">
-        <v>255</v>
-      </c>
-      <c r="U28" s="1">
-        <v>7</v>
-      </c>
-      <c r="V28" s="6">
+      <c r="R28" s="17">
+        <v>3</v>
+      </c>
+      <c r="S28" s="17">
+        <v>255</v>
+      </c>
+      <c r="U28" s="14">
+        <v>7</v>
+      </c>
+      <c r="V28" s="16">
         <v>254</v>
       </c>
-      <c r="W28" s="6">
-        <v>255</v>
-      </c>
-      <c r="X28" s="6">
-        <v>6</v>
-      </c>
-      <c r="Y28" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z28" s="7">
-        <v>255</v>
-      </c>
-      <c r="AA28" s="7">
+      <c r="W28" s="16">
+        <v>255</v>
+      </c>
+      <c r="X28" s="16">
+        <v>6</v>
+      </c>
+      <c r="Y28" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="17">
+        <v>255</v>
+      </c>
+      <c r="AA28" s="17">
         <v>253</v>
       </c>
-      <c r="AB28" s="7">
-        <v>3</v>
-      </c>
-      <c r="AC28" s="7">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A29" s="1">
+      <c r="AB28" s="17">
+        <v>3</v>
+      </c>
+      <c r="AC28" s="17">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="14">
         <v>8</v>
       </c>
-      <c r="B29" s="6">
+      <c r="B29" s="16">
         <v>254</v>
       </c>
-      <c r="C29" s="6">
+      <c r="C29" s="16">
         <v>254</v>
       </c>
-      <c r="D29" s="6">
-        <v>2</v>
-      </c>
-      <c r="E29" s="6">
-        <v>0</v>
-      </c>
-      <c r="F29" s="7">
+      <c r="D29" s="16">
+        <v>2</v>
+      </c>
+      <c r="E29" s="16">
+        <v>0</v>
+      </c>
+      <c r="F29" s="17">
         <v>252</v>
       </c>
-      <c r="G29" s="7">
+      <c r="G29" s="17">
         <v>252</v>
       </c>
-      <c r="H29" s="7">
-        <v>3</v>
-      </c>
-      <c r="I29" s="7">
-        <v>7</v>
-      </c>
-      <c r="K29" s="1">
+      <c r="H29" s="17">
+        <v>3</v>
+      </c>
+      <c r="I29" s="17">
+        <v>7</v>
+      </c>
+      <c r="K29" s="14">
         <v>8</v>
       </c>
-      <c r="L29" s="6">
+      <c r="L29" s="16">
         <v>254</v>
       </c>
-      <c r="M29" s="6">
+      <c r="M29" s="16">
         <v>254</v>
       </c>
-      <c r="N29" s="6">
-        <v>2</v>
-      </c>
-      <c r="O29" s="6">
-        <v>0</v>
-      </c>
-      <c r="P29" s="7">
+      <c r="N29" s="16">
+        <v>2</v>
+      </c>
+      <c r="O29" s="16">
+        <v>0</v>
+      </c>
+      <c r="P29" s="17">
         <v>252</v>
       </c>
-      <c r="Q29" s="7">
+      <c r="Q29" s="17">
         <v>252</v>
       </c>
-      <c r="R29" s="7">
-        <v>3</v>
-      </c>
-      <c r="S29" s="7">
-        <v>7</v>
-      </c>
-      <c r="U29" s="1">
+      <c r="R29" s="17">
+        <v>3</v>
+      </c>
+      <c r="S29" s="17">
+        <v>7</v>
+      </c>
+      <c r="U29" s="14">
         <v>8</v>
       </c>
-      <c r="V29" s="6">
+      <c r="V29" s="16">
         <v>254</v>
       </c>
-      <c r="W29" s="6">
+      <c r="W29" s="16">
         <v>254</v>
       </c>
-      <c r="X29" s="6">
-        <v>2</v>
-      </c>
-      <c r="Y29" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z29" s="7">
+      <c r="X29" s="16">
+        <v>2</v>
+      </c>
+      <c r="Y29" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="17">
         <v>252</v>
       </c>
-      <c r="AA29" s="7">
+      <c r="AA29" s="17">
         <v>252</v>
       </c>
-      <c r="AB29" s="7">
-        <v>3</v>
-      </c>
-      <c r="AC29" s="7">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="7"/>
-      <c r="L30" s="6"/>
-      <c r="M30" s="6"/>
-      <c r="N30" s="6"/>
-      <c r="O30" s="6"/>
-      <c r="P30" s="7"/>
-      <c r="Q30" s="7"/>
-      <c r="R30" s="7"/>
-      <c r="S30" s="7"/>
-      <c r="V30" s="6"/>
-      <c r="W30" s="6"/>
-      <c r="X30" s="6"/>
-      <c r="Y30" s="6"/>
-      <c r="Z30" s="7"/>
-      <c r="AA30" s="7"/>
-      <c r="AB30" s="7"/>
-      <c r="AC30" s="7"/>
-    </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
-      <c r="L31" s="6"/>
-      <c r="M31" s="6"/>
-      <c r="N31" s="6"/>
-      <c r="O31" s="6"/>
-      <c r="P31" s="7"/>
-      <c r="Q31" s="7"/>
-      <c r="R31" s="7"/>
-      <c r="S31" s="7"/>
-      <c r="V31" s="6"/>
-      <c r="W31" s="6"/>
-      <c r="X31" s="6"/>
-      <c r="Y31" s="6"/>
-      <c r="Z31" s="7"/>
-      <c r="AA31" s="7"/>
-      <c r="AB31" s="7"/>
-      <c r="AC31" s="7"/>
-    </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="7"/>
-      <c r="L32" s="6"/>
-      <c r="M32" s="6"/>
-      <c r="N32" s="6"/>
-      <c r="O32" s="6"/>
-      <c r="P32" s="7"/>
-      <c r="Q32" s="7"/>
-      <c r="R32" s="7"/>
-      <c r="S32" s="7"/>
-      <c r="V32" s="6"/>
-      <c r="W32" s="6"/>
-      <c r="X32" s="6"/>
-      <c r="Y32" s="6"/>
-      <c r="Z32" s="7"/>
-      <c r="AA32" s="7"/>
-      <c r="AB32" s="7"/>
-      <c r="AC32" s="7"/>
-    </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="B34" s="1">
-        <v>1</v>
-      </c>
-      <c r="C34" s="1">
-        <v>2</v>
-      </c>
-      <c r="D34" s="1">
-        <v>3</v>
-      </c>
-      <c r="E34" s="1">
-        <v>4</v>
-      </c>
-      <c r="F34" s="1">
-        <v>5</v>
-      </c>
-      <c r="G34" s="1">
-        <v>6</v>
-      </c>
-      <c r="H34" s="1">
-        <v>7</v>
-      </c>
-      <c r="I34" s="1">
+      <c r="AB29" s="17">
+        <v>3</v>
+      </c>
+      <c r="AC29" s="17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B30" s="16"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="17"/>
+      <c r="I30" s="17"/>
+      <c r="L30" s="16"/>
+      <c r="M30" s="16"/>
+      <c r="N30" s="16"/>
+      <c r="O30" s="16"/>
+      <c r="P30" s="17"/>
+      <c r="Q30" s="17"/>
+      <c r="R30" s="17"/>
+      <c r="S30" s="17"/>
+      <c r="V30" s="16"/>
+      <c r="W30" s="16"/>
+      <c r="X30" s="16"/>
+      <c r="Y30" s="16"/>
+      <c r="Z30" s="17"/>
+      <c r="AA30" s="17"/>
+      <c r="AB30" s="17"/>
+      <c r="AC30" s="17"/>
+    </row>
+    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B31" s="16"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="17"/>
+      <c r="L31" s="16"/>
+      <c r="M31" s="16"/>
+      <c r="N31" s="16"/>
+      <c r="O31" s="16"/>
+      <c r="P31" s="17"/>
+      <c r="Q31" s="17"/>
+      <c r="R31" s="17"/>
+      <c r="S31" s="17"/>
+      <c r="V31" s="16"/>
+      <c r="W31" s="16"/>
+      <c r="X31" s="16"/>
+      <c r="Y31" s="16"/>
+      <c r="Z31" s="17"/>
+      <c r="AA31" s="17"/>
+      <c r="AB31" s="17"/>
+      <c r="AC31" s="17"/>
+    </row>
+    <row r="32" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="17"/>
+      <c r="I32" s="17"/>
+      <c r="L32" s="16"/>
+      <c r="M32" s="16"/>
+      <c r="N32" s="16"/>
+      <c r="O32" s="16"/>
+      <c r="P32" s="17"/>
+      <c r="Q32" s="17"/>
+      <c r="R32" s="17"/>
+      <c r="S32" s="17"/>
+      <c r="V32" s="16"/>
+      <c r="W32" s="16"/>
+      <c r="X32" s="16"/>
+      <c r="Y32" s="16"/>
+      <c r="Z32" s="17"/>
+      <c r="AA32" s="17"/>
+      <c r="AB32" s="17"/>
+      <c r="AC32" s="17"/>
+    </row>
+    <row r="34" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B34" s="14">
+        <v>1</v>
+      </c>
+      <c r="C34" s="14">
+        <v>2</v>
+      </c>
+      <c r="D34" s="14">
+        <v>3</v>
+      </c>
+      <c r="E34" s="14">
+        <v>4</v>
+      </c>
+      <c r="F34" s="14">
+        <v>5</v>
+      </c>
+      <c r="G34" s="14">
+        <v>6</v>
+      </c>
+      <c r="H34" s="14">
+        <v>7</v>
+      </c>
+      <c r="I34" s="14">
         <v>8</v>
       </c>
-      <c r="L34" s="1">
-        <v>1</v>
-      </c>
-      <c r="M34" s="1">
-        <v>2</v>
-      </c>
-      <c r="N34" s="1">
-        <v>3</v>
-      </c>
-      <c r="O34" s="1">
-        <v>4</v>
-      </c>
-      <c r="P34" s="1">
-        <v>5</v>
-      </c>
-      <c r="Q34" s="1">
-        <v>6</v>
-      </c>
-      <c r="R34" s="1">
-        <v>7</v>
-      </c>
-      <c r="S34" s="1">
+      <c r="L34" s="14">
+        <v>1</v>
+      </c>
+      <c r="M34" s="14">
+        <v>2</v>
+      </c>
+      <c r="N34" s="14">
+        <v>3</v>
+      </c>
+      <c r="O34" s="14">
+        <v>4</v>
+      </c>
+      <c r="P34" s="14">
+        <v>5</v>
+      </c>
+      <c r="Q34" s="14">
+        <v>6</v>
+      </c>
+      <c r="R34" s="14">
+        <v>7</v>
+      </c>
+      <c r="S34" s="14">
         <v>8</v>
       </c>
-      <c r="V34" s="1">
-        <v>1</v>
-      </c>
-      <c r="W34" s="1">
-        <v>2</v>
-      </c>
-      <c r="X34" s="1">
-        <v>3</v>
-      </c>
-      <c r="Y34" s="1">
-        <v>4</v>
-      </c>
-      <c r="Z34" s="1">
-        <v>5</v>
-      </c>
-      <c r="AA34" s="1">
-        <v>6</v>
-      </c>
-      <c r="AB34" s="1">
-        <v>7</v>
-      </c>
-      <c r="AC34" s="1">
+      <c r="V34" s="14">
+        <v>1</v>
+      </c>
+      <c r="W34" s="14">
+        <v>2</v>
+      </c>
+      <c r="X34" s="14">
+        <v>3</v>
+      </c>
+      <c r="Y34" s="14">
+        <v>4</v>
+      </c>
+      <c r="Z34" s="14">
+        <v>5</v>
+      </c>
+      <c r="AA34" s="14">
+        <v>6</v>
+      </c>
+      <c r="AB34" s="14">
+        <v>7</v>
+      </c>
+      <c r="AC34" s="14">
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A35" s="1">
-        <v>1</v>
-      </c>
-      <c r="B35" s="4">
-        <v>255</v>
-      </c>
-      <c r="C35" s="6">
+    <row r="35" spans="1:29" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="14">
+        <v>1</v>
+      </c>
+      <c r="B35" s="15">
+        <v>255</v>
+      </c>
+      <c r="C35" s="16">
         <v>253</v>
       </c>
-      <c r="D35" s="7">
-        <v>1</v>
-      </c>
-      <c r="E35" s="4">
-        <v>1</v>
-      </c>
-      <c r="F35" s="4">
-        <v>1</v>
-      </c>
-      <c r="G35" s="6">
-        <v>3</v>
-      </c>
-      <c r="H35" s="7">
-        <v>0</v>
-      </c>
-      <c r="I35" s="4">
-        <v>0</v>
-      </c>
-      <c r="K35" s="1">
-        <v>1</v>
-      </c>
-      <c r="L35" s="4">
-        <v>138</v>
-      </c>
-      <c r="M35" s="6">
-        <v>139</v>
-      </c>
-      <c r="N35" s="7">
+      <c r="D35" s="17">
+        <v>1</v>
+      </c>
+      <c r="E35" s="15">
+        <v>1</v>
+      </c>
+      <c r="F35" s="15">
+        <v>1</v>
+      </c>
+      <c r="G35" s="16">
+        <v>3</v>
+      </c>
+      <c r="H35" s="17">
+        <v>0</v>
+      </c>
+      <c r="I35" s="15">
+        <v>0</v>
+      </c>
+      <c r="K35" s="14">
+        <v>1</v>
+      </c>
+      <c r="L35" s="15">
+        <v>138</v>
+      </c>
+      <c r="M35" s="16">
+        <v>139</v>
+      </c>
+      <c r="N35" s="17">
         <v>137</v>
       </c>
-      <c r="O35" s="4">
+      <c r="O35" s="15">
         <v>140</v>
       </c>
-      <c r="P35" s="5">
-        <v>255</v>
-      </c>
-      <c r="Q35" s="5">
-        <v>1</v>
-      </c>
-      <c r="R35" s="4">
-        <v>1</v>
-      </c>
-      <c r="S35" s="4">
-        <v>0</v>
-      </c>
-      <c r="U35" s="1">
-        <v>1</v>
-      </c>
-      <c r="V35" s="4">
-        <v>138</v>
-      </c>
-      <c r="W35" s="6">
-        <v>139</v>
-      </c>
-      <c r="X35" s="7">
+      <c r="P35" s="15">
+        <v>255</v>
+      </c>
+      <c r="Q35" s="15">
+        <v>1</v>
+      </c>
+      <c r="R35" s="15">
+        <v>1</v>
+      </c>
+      <c r="S35" s="15">
+        <v>0</v>
+      </c>
+      <c r="U35" s="14">
+        <v>1</v>
+      </c>
+      <c r="V35" s="19">
+        <v>138</v>
+      </c>
+      <c r="W35" s="20">
+        <v>139</v>
+      </c>
+      <c r="X35" s="20">
         <v>393</v>
       </c>
-      <c r="Y35" s="4">
+      <c r="Y35" s="21">
         <v>140</v>
       </c>
-      <c r="Z35" s="5">
-        <v>255</v>
-      </c>
-      <c r="AA35" s="5">
-        <v>1</v>
-      </c>
-      <c r="AB35" s="4">
-        <v>1</v>
-      </c>
-      <c r="AC35" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A36" s="1">
-        <v>2</v>
-      </c>
-      <c r="B36" s="7">
-        <v>5</v>
-      </c>
-      <c r="C36" s="3">
-        <v>138</v>
-      </c>
-      <c r="D36" s="3">
-        <v>139</v>
-      </c>
-      <c r="E36" s="6">
-        <v>4</v>
-      </c>
-      <c r="F36" s="7">
-        <v>2</v>
-      </c>
-      <c r="G36" s="2">
+      <c r="Z35" s="15">
+        <v>255</v>
+      </c>
+      <c r="AA35" s="15">
+        <v>1</v>
+      </c>
+      <c r="AB35" s="15">
+        <v>1</v>
+      </c>
+      <c r="AC35" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:29" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="14">
+        <v>2</v>
+      </c>
+      <c r="B36" s="17">
+        <v>5</v>
+      </c>
+      <c r="C36" s="13">
+        <v>138</v>
+      </c>
+      <c r="D36" s="13">
+        <v>139</v>
+      </c>
+      <c r="E36" s="16">
+        <v>4</v>
+      </c>
+      <c r="F36" s="17">
+        <v>2</v>
+      </c>
+      <c r="G36" s="13">
+        <v>393</v>
+      </c>
+      <c r="H36" s="13">
+        <v>140</v>
+      </c>
+      <c r="I36" s="16">
+        <v>2</v>
+      </c>
+      <c r="K36" s="14">
+        <v>2</v>
+      </c>
+      <c r="L36" s="17">
+        <v>136</v>
+      </c>
+      <c r="M36" s="13">
+        <v>138</v>
+      </c>
+      <c r="N36" s="13">
+        <v>138</v>
+      </c>
+      <c r="O36" s="16">
+        <v>138</v>
+      </c>
+      <c r="P36" s="15">
+        <v>2</v>
+      </c>
+      <c r="Q36" s="15">
+        <v>1</v>
+      </c>
+      <c r="R36" s="15">
+        <v>0</v>
+      </c>
+      <c r="S36" s="15">
+        <v>255</v>
+      </c>
+      <c r="U36" s="14">
+        <v>2</v>
+      </c>
+      <c r="V36" s="22">
+        <v>392</v>
+      </c>
+      <c r="W36" s="13">
+        <v>138</v>
+      </c>
+      <c r="X36" s="13">
+        <v>138</v>
+      </c>
+      <c r="Y36" s="23">
+        <v>138</v>
+      </c>
+      <c r="Z36" s="15">
+        <v>2</v>
+      </c>
+      <c r="AA36" s="15">
+        <v>1</v>
+      </c>
+      <c r="AB36" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC36" s="15">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="37" spans="1:29" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="14">
+        <v>3</v>
+      </c>
+      <c r="B37" s="16">
+        <v>255</v>
+      </c>
+      <c r="C37" s="13">
+        <v>392</v>
+      </c>
+      <c r="D37" s="13">
+        <v>138</v>
+      </c>
+      <c r="E37" s="17">
+        <v>1</v>
+      </c>
+      <c r="F37" s="16">
+        <v>254</v>
+      </c>
+      <c r="G37" s="13">
+        <v>138</v>
+      </c>
+      <c r="H37" s="13">
+        <v>138</v>
+      </c>
+      <c r="I37" s="17">
+        <v>3</v>
+      </c>
+      <c r="K37" s="14">
+        <v>3</v>
+      </c>
+      <c r="L37" s="16">
+        <v>140</v>
+      </c>
+      <c r="M37" s="13">
         <v>137</v>
       </c>
-      <c r="H36" s="2">
+      <c r="N37" s="13">
+        <v>132</v>
+      </c>
+      <c r="O37" s="17">
+        <v>138</v>
+      </c>
+      <c r="P37" s="15">
+        <v>253</v>
+      </c>
+      <c r="Q37" s="15">
+        <v>254</v>
+      </c>
+      <c r="R37" s="15">
+        <v>4</v>
+      </c>
+      <c r="S37" s="15">
+        <v>252</v>
+      </c>
+      <c r="U37" s="14">
+        <v>3</v>
+      </c>
+      <c r="V37" s="22">
         <v>140</v>
       </c>
-      <c r="I36" s="6">
-        <v>2</v>
-      </c>
-      <c r="K36" s="1">
-        <v>2</v>
-      </c>
-      <c r="L36" s="7">
+      <c r="W37" s="13">
+        <v>137</v>
+      </c>
+      <c r="X37" s="13">
+        <v>132</v>
+      </c>
+      <c r="Y37" s="23">
+        <v>138</v>
+      </c>
+      <c r="Z37" s="15">
+        <v>253</v>
+      </c>
+      <c r="AA37" s="15">
+        <v>254</v>
+      </c>
+      <c r="AB37" s="15">
+        <v>4</v>
+      </c>
+      <c r="AC37" s="15">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="38" spans="1:29" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="14">
+        <v>4</v>
+      </c>
+      <c r="B38" s="15">
+        <v>2</v>
+      </c>
+      <c r="C38" s="17">
+        <v>1</v>
+      </c>
+      <c r="D38" s="16">
+        <v>1</v>
+      </c>
+      <c r="E38" s="15">
+        <v>1</v>
+      </c>
+      <c r="F38" s="15">
+        <v>0</v>
+      </c>
+      <c r="G38" s="17">
+        <v>255</v>
+      </c>
+      <c r="H38" s="16">
+        <v>5</v>
+      </c>
+      <c r="I38" s="15">
+        <v>255</v>
+      </c>
+      <c r="K38" s="14">
+        <v>4</v>
+      </c>
+      <c r="L38" s="15">
+        <v>139</v>
+      </c>
+      <c r="M38" s="17">
+        <v>139</v>
+      </c>
+      <c r="N38" s="16">
+        <v>129</v>
+      </c>
+      <c r="O38" s="15">
+        <v>139</v>
+      </c>
+      <c r="P38" s="15">
+        <v>255</v>
+      </c>
+      <c r="Q38" s="15">
+        <v>251</v>
+      </c>
+      <c r="R38" s="15">
+        <v>9</v>
+      </c>
+      <c r="S38" s="15">
+        <v>254</v>
+      </c>
+      <c r="U38" s="14">
+        <v>4</v>
+      </c>
+      <c r="V38" s="24">
+        <v>139</v>
+      </c>
+      <c r="W38" s="25">
+        <v>139</v>
+      </c>
+      <c r="X38" s="25">
+        <v>385</v>
+      </c>
+      <c r="Y38" s="26">
+        <v>139</v>
+      </c>
+      <c r="Z38" s="15">
+        <v>255</v>
+      </c>
+      <c r="AA38" s="15">
+        <v>251</v>
+      </c>
+      <c r="AB38" s="15">
+        <v>9</v>
+      </c>
+      <c r="AC38" s="15">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="39" spans="1:29" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="14">
+        <v>5</v>
+      </c>
+      <c r="B39" s="15">
+        <v>253</v>
+      </c>
+      <c r="C39" s="16">
+        <v>254</v>
+      </c>
+      <c r="D39" s="17">
+        <v>255</v>
+      </c>
+      <c r="E39" s="15">
+        <v>254</v>
+      </c>
+      <c r="F39" s="15">
+        <v>4</v>
+      </c>
+      <c r="G39" s="16">
+        <v>6</v>
+      </c>
+      <c r="H39" s="17">
+        <v>3</v>
+      </c>
+      <c r="I39" s="15">
+        <v>252</v>
+      </c>
+      <c r="K39" s="14">
+        <v>5</v>
+      </c>
+      <c r="L39" s="16">
+        <v>253</v>
+      </c>
+      <c r="M39" s="16">
+        <v>4</v>
+      </c>
+      <c r="N39" s="16">
+        <v>3</v>
+      </c>
+      <c r="O39" s="16">
+        <v>2</v>
+      </c>
+      <c r="P39" s="17">
+        <v>1</v>
+      </c>
+      <c r="Q39" s="17">
+        <v>1</v>
+      </c>
+      <c r="R39" s="17">
+        <v>0</v>
+      </c>
+      <c r="S39" s="17">
+        <v>3</v>
+      </c>
+      <c r="U39" s="14">
+        <v>5</v>
+      </c>
+      <c r="V39" s="16">
+        <v>253</v>
+      </c>
+      <c r="W39" s="16">
+        <v>4</v>
+      </c>
+      <c r="X39" s="16">
+        <v>3</v>
+      </c>
+      <c r="Y39" s="16">
+        <v>2</v>
+      </c>
+      <c r="Z39" s="17">
+        <v>1</v>
+      </c>
+      <c r="AA39" s="17">
+        <v>1</v>
+      </c>
+      <c r="AB39" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC39" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:29" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="14">
+        <v>6</v>
+      </c>
+      <c r="B40" s="17">
+        <v>252</v>
+      </c>
+      <c r="C40" s="13">
+        <v>140</v>
+      </c>
+      <c r="D40" s="13">
+        <v>137</v>
+      </c>
+      <c r="E40" s="16">
+        <v>255</v>
+      </c>
+      <c r="F40" s="17">
+        <v>3</v>
+      </c>
+      <c r="G40" s="13">
+        <v>132</v>
+      </c>
+      <c r="H40" s="13">
+        <v>138</v>
+      </c>
+      <c r="I40" s="16">
+        <v>0</v>
+      </c>
+      <c r="K40" s="14">
+        <v>6</v>
+      </c>
+      <c r="L40" s="16">
+        <v>255</v>
+      </c>
+      <c r="M40" s="16">
+        <v>1</v>
+      </c>
+      <c r="N40" s="16">
+        <v>254</v>
+      </c>
+      <c r="O40" s="16">
+        <v>5</v>
+      </c>
+      <c r="P40" s="17">
+        <v>5</v>
+      </c>
+      <c r="Q40" s="17">
+        <v>1</v>
+      </c>
+      <c r="R40" s="17">
+        <v>2</v>
+      </c>
+      <c r="S40" s="17">
+        <v>255</v>
+      </c>
+      <c r="U40" s="14">
+        <v>6</v>
+      </c>
+      <c r="V40" s="16">
+        <v>255</v>
+      </c>
+      <c r="W40" s="16">
+        <v>1</v>
+      </c>
+      <c r="X40" s="16">
+        <v>254</v>
+      </c>
+      <c r="Y40" s="16">
+        <v>5</v>
+      </c>
+      <c r="Z40" s="17">
+        <v>5</v>
+      </c>
+      <c r="AA40" s="17">
+        <v>1</v>
+      </c>
+      <c r="AB40" s="17">
+        <v>2</v>
+      </c>
+      <c r="AC40" s="17">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="41" spans="1:29" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="14">
+        <v>7</v>
+      </c>
+      <c r="B41" s="16">
+        <v>254</v>
+      </c>
+      <c r="C41" s="13">
+        <v>139</v>
+      </c>
+      <c r="D41" s="13">
+        <v>139</v>
+      </c>
+      <c r="E41" s="17">
+        <v>253</v>
+      </c>
+      <c r="F41" s="16">
+        <v>2</v>
+      </c>
+      <c r="G41" s="13">
+        <v>385</v>
+      </c>
+      <c r="H41" s="13">
+        <v>139</v>
+      </c>
+      <c r="I41" s="17">
+        <v>255</v>
+      </c>
+      <c r="K41" s="14">
+        <v>7</v>
+      </c>
+      <c r="L41" s="16">
+        <v>254</v>
+      </c>
+      <c r="M41" s="16">
+        <v>255</v>
+      </c>
+      <c r="N41" s="16">
+        <v>6</v>
+      </c>
+      <c r="O41" s="16">
+        <v>0</v>
+      </c>
+      <c r="P41" s="17">
+        <v>255</v>
+      </c>
+      <c r="Q41" s="17">
+        <v>253</v>
+      </c>
+      <c r="R41" s="17">
+        <v>3</v>
+      </c>
+      <c r="S41" s="17">
+        <v>255</v>
+      </c>
+      <c r="U41" s="14">
+        <v>7</v>
+      </c>
+      <c r="V41" s="16">
+        <v>254</v>
+      </c>
+      <c r="W41" s="16">
+        <v>255</v>
+      </c>
+      <c r="X41" s="16">
+        <v>6</v>
+      </c>
+      <c r="Y41" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z41" s="17">
+        <v>255</v>
+      </c>
+      <c r="AA41" s="17">
+        <v>253</v>
+      </c>
+      <c r="AB41" s="17">
+        <v>3</v>
+      </c>
+      <c r="AC41" s="17">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="42" spans="1:29" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="14">
+        <v>8</v>
+      </c>
+      <c r="B42" s="15">
+        <v>255</v>
+      </c>
+      <c r="C42" s="17">
+        <v>252</v>
+      </c>
+      <c r="D42" s="16">
+        <v>254</v>
+      </c>
+      <c r="E42" s="15">
+        <v>251</v>
+      </c>
+      <c r="F42" s="15">
+        <v>9</v>
+      </c>
+      <c r="G42" s="17">
+        <v>7</v>
+      </c>
+      <c r="H42" s="16">
+        <v>0</v>
+      </c>
+      <c r="I42" s="15">
+        <v>254</v>
+      </c>
+      <c r="K42" s="14">
+        <v>8</v>
+      </c>
+      <c r="L42" s="16">
+        <v>254</v>
+      </c>
+      <c r="M42" s="16">
+        <v>254</v>
+      </c>
+      <c r="N42" s="16">
+        <v>2</v>
+      </c>
+      <c r="O42" s="16">
+        <v>0</v>
+      </c>
+      <c r="P42" s="17">
+        <v>252</v>
+      </c>
+      <c r="Q42" s="17">
+        <v>252</v>
+      </c>
+      <c r="R42" s="17">
+        <v>3</v>
+      </c>
+      <c r="S42" s="17">
+        <v>7</v>
+      </c>
+      <c r="U42" s="14">
+        <v>8</v>
+      </c>
+      <c r="V42" s="16">
+        <v>254</v>
+      </c>
+      <c r="W42" s="16">
+        <v>254</v>
+      </c>
+      <c r="X42" s="16">
+        <v>2</v>
+      </c>
+      <c r="Y42" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z42" s="17">
+        <v>252</v>
+      </c>
+      <c r="AA42" s="17">
+        <v>252</v>
+      </c>
+      <c r="AB42" s="17">
+        <v>3</v>
+      </c>
+      <c r="AC42" s="17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B44" s="14">
+        <v>1</v>
+      </c>
+      <c r="C44" s="14">
+        <v>2</v>
+      </c>
+      <c r="D44" s="14">
+        <v>3</v>
+      </c>
+      <c r="E44" s="14">
+        <v>4</v>
+      </c>
+      <c r="F44" s="14">
+        <v>5</v>
+      </c>
+      <c r="G44" s="14">
+        <v>6</v>
+      </c>
+      <c r="H44" s="14">
+        <v>7</v>
+      </c>
+      <c r="I44" s="14">
+        <v>8</v>
+      </c>
+      <c r="L44" s="14">
+        <v>1</v>
+      </c>
+      <c r="M44" s="14">
+        <v>2</v>
+      </c>
+      <c r="N44" s="14">
+        <v>3</v>
+      </c>
+      <c r="O44" s="14">
+        <v>4</v>
+      </c>
+      <c r="P44" s="14">
+        <v>5</v>
+      </c>
+      <c r="Q44" s="14">
+        <v>6</v>
+      </c>
+      <c r="R44" s="14">
+        <v>7</v>
+      </c>
+      <c r="S44" s="14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:29" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="14">
+        <v>1</v>
+      </c>
+      <c r="B45" s="15">
+        <v>393</v>
+      </c>
+      <c r="C45" s="16">
+        <v>391</v>
+      </c>
+      <c r="D45" s="17">
+        <v>140</v>
+      </c>
+      <c r="E45" s="15">
+        <v>140</v>
+      </c>
+      <c r="F45" s="15">
+        <v>394</v>
+      </c>
+      <c r="G45" s="16">
+        <v>396</v>
+      </c>
+      <c r="H45" s="17">
+        <v>140</v>
+      </c>
+      <c r="I45" s="15">
+        <v>140</v>
+      </c>
+      <c r="K45" s="14">
+        <v>1</v>
+      </c>
+      <c r="L45" s="15">
+        <v>137</v>
+      </c>
+      <c r="M45" s="16">
+        <v>135</v>
+      </c>
+      <c r="N45" s="17">
+        <v>140</v>
+      </c>
+      <c r="O45" s="15">
+        <v>140</v>
+      </c>
+      <c r="P45" s="15">
+        <v>138</v>
+      </c>
+      <c r="Q45" s="16">
+        <v>140</v>
+      </c>
+      <c r="R45" s="17">
+        <v>140</v>
+      </c>
+      <c r="S45" s="15">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="46" spans="1:29" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="14">
+        <v>2</v>
+      </c>
+      <c r="B46" s="17">
+        <v>143</v>
+      </c>
+      <c r="C46" s="13">
+        <v>138</v>
+      </c>
+      <c r="D46" s="13">
+        <v>139</v>
+      </c>
+      <c r="E46" s="16">
+        <v>143</v>
+      </c>
+      <c r="F46" s="17">
+        <v>395</v>
+      </c>
+      <c r="G46" s="13">
+        <v>393</v>
+      </c>
+      <c r="H46" s="13">
+        <v>140</v>
+      </c>
+      <c r="I46" s="16">
+        <v>142</v>
+      </c>
+      <c r="K46" s="14">
+        <v>2</v>
+      </c>
+      <c r="L46" s="17">
+        <v>143</v>
+      </c>
+      <c r="M46" s="13">
+        <v>138</v>
+      </c>
+      <c r="N46" s="13">
+        <v>139</v>
+      </c>
+      <c r="O46" s="16">
+        <v>143</v>
+      </c>
+      <c r="P46" s="17">
+        <v>139</v>
+      </c>
+      <c r="Q46" s="13">
+        <v>137</v>
+      </c>
+      <c r="R46" s="13">
+        <v>140</v>
+      </c>
+      <c r="S46" s="16">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="47" spans="1:29" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="14">
+        <v>3</v>
+      </c>
+      <c r="B47" s="16">
+        <v>647</v>
+      </c>
+      <c r="C47" s="13">
+        <v>392</v>
+      </c>
+      <c r="D47" s="13">
+        <v>138</v>
+      </c>
+      <c r="E47" s="17">
+        <v>139</v>
+      </c>
+      <c r="F47" s="16">
+        <v>392</v>
+      </c>
+      <c r="G47" s="13">
+        <v>138</v>
+      </c>
+      <c r="H47" s="13">
+        <v>138</v>
+      </c>
+      <c r="I47" s="17">
+        <v>141</v>
+      </c>
+      <c r="K47" s="14">
+        <v>3</v>
+      </c>
+      <c r="L47" s="16">
+        <v>135</v>
+      </c>
+      <c r="M47" s="13">
         <v>136</v>
       </c>
-      <c r="M36" s="3">
-        <v>138</v>
-      </c>
-      <c r="N36" s="2">
-        <v>138</v>
-      </c>
-      <c r="O36" s="6">
-        <v>138</v>
-      </c>
-      <c r="P36" s="5">
-        <v>2</v>
-      </c>
-      <c r="Q36" s="5">
-        <v>1</v>
-      </c>
-      <c r="R36" s="4">
-        <v>0</v>
-      </c>
-      <c r="S36" s="4">
-        <v>255</v>
-      </c>
-      <c r="U36" s="1">
-        <v>2</v>
-      </c>
-      <c r="V36" s="7">
+      <c r="N47" s="13">
+        <v>138</v>
+      </c>
+      <c r="O47" s="17">
+        <v>139</v>
+      </c>
+      <c r="P47" s="16">
+        <v>136</v>
+      </c>
+      <c r="Q47" s="13">
+        <v>138</v>
+      </c>
+      <c r="R47" s="13">
+        <v>138</v>
+      </c>
+      <c r="S47" s="17">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="48" spans="1:29" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="14">
+        <v>4</v>
+      </c>
+      <c r="B48" s="15">
+        <v>394</v>
+      </c>
+      <c r="C48" s="17">
+        <v>393</v>
+      </c>
+      <c r="D48" s="16">
+        <v>139</v>
+      </c>
+      <c r="E48" s="15">
+        <v>139</v>
+      </c>
+      <c r="F48" s="15">
+        <v>138</v>
+      </c>
+      <c r="G48" s="17">
+        <v>393</v>
+      </c>
+      <c r="H48" s="16">
+        <v>143</v>
+      </c>
+      <c r="I48" s="15">
+        <v>393</v>
+      </c>
+      <c r="K48" s="14">
+        <v>4</v>
+      </c>
+      <c r="L48" s="15">
+        <v>138</v>
+      </c>
+      <c r="M48" s="17">
+        <v>137</v>
+      </c>
+      <c r="N48" s="16">
+        <v>139</v>
+      </c>
+      <c r="O48" s="15">
+        <v>139</v>
+      </c>
+      <c r="P48" s="15">
+        <v>138</v>
+      </c>
+      <c r="Q48" s="17">
+        <v>137</v>
+      </c>
+      <c r="R48" s="16">
+        <v>143</v>
+      </c>
+      <c r="S48" s="15">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="14">
+        <v>5</v>
+      </c>
+      <c r="B49" s="15">
+        <v>393</v>
+      </c>
+      <c r="C49" s="16">
+        <v>394</v>
+      </c>
+      <c r="D49" s="17">
         <v>392</v>
       </c>
-      <c r="W36" s="3">
-        <v>138</v>
-      </c>
-      <c r="X36" s="2">
-        <v>138</v>
-      </c>
-      <c r="Y36" s="6">
-        <v>138</v>
-      </c>
-      <c r="Z36" s="5">
-        <v>2</v>
-      </c>
-      <c r="AA36" s="5">
-        <v>1</v>
-      </c>
-      <c r="AB36" s="4">
-        <v>0</v>
-      </c>
-      <c r="AC36" s="4">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A37" s="1">
-        <v>3</v>
-      </c>
-      <c r="B37" s="6">
-        <v>255</v>
-      </c>
-      <c r="C37" s="3">
+      <c r="E49" s="15">
+        <v>391</v>
+      </c>
+      <c r="F49" s="15">
         <v>136</v>
       </c>
-      <c r="D37" s="3">
-        <v>138</v>
-      </c>
-      <c r="E37" s="7">
-        <v>1</v>
-      </c>
-      <c r="F37" s="6">
-        <v>254</v>
-      </c>
-      <c r="G37" s="2">
-        <v>138</v>
-      </c>
-      <c r="H37" s="2">
-        <v>138</v>
-      </c>
-      <c r="I37" s="7">
-        <v>3</v>
-      </c>
-      <c r="K37" s="1">
-        <v>3</v>
-      </c>
-      <c r="L37" s="6">
+      <c r="G49" s="16">
+        <v>138</v>
+      </c>
+      <c r="H49" s="17">
+        <v>141</v>
+      </c>
+      <c r="I49" s="15">
+        <v>390</v>
+      </c>
+      <c r="K49" s="14">
+        <v>5</v>
+      </c>
+      <c r="L49" s="15">
+        <v>137</v>
+      </c>
+      <c r="M49" s="16">
+        <v>138</v>
+      </c>
+      <c r="N49" s="17">
+        <v>136</v>
+      </c>
+      <c r="O49" s="15">
+        <v>135</v>
+      </c>
+      <c r="P49" s="15">
+        <v>136</v>
+      </c>
+      <c r="Q49" s="16">
+        <v>138</v>
+      </c>
+      <c r="R49" s="17">
+        <v>141</v>
+      </c>
+      <c r="S49" s="15">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="14">
+        <v>6</v>
+      </c>
+      <c r="B50" s="17">
+        <v>392</v>
+      </c>
+      <c r="C50" s="13">
         <v>140</v>
       </c>
-      <c r="M37" s="2">
+      <c r="D50" s="13">
         <v>137</v>
       </c>
-      <c r="N37" s="2">
+      <c r="E50" s="16">
+        <v>392</v>
+      </c>
+      <c r="F50" s="17">
+        <v>135</v>
+      </c>
+      <c r="G50" s="13">
         <v>132</v>
       </c>
-      <c r="O37" s="7">
-        <v>138</v>
-      </c>
-      <c r="P37" s="4">
-        <v>253</v>
-      </c>
-      <c r="Q37" s="4">
-        <v>254</v>
-      </c>
-      <c r="R37" s="4">
-        <v>4</v>
-      </c>
-      <c r="S37" s="4">
-        <v>252</v>
-      </c>
-      <c r="U37" s="1">
-        <v>3</v>
-      </c>
-      <c r="V37" s="6">
+      <c r="H50" s="13">
+        <v>138</v>
+      </c>
+      <c r="I50" s="16">
+        <v>138</v>
+      </c>
+      <c r="K50" s="14">
+        <v>6</v>
+      </c>
+      <c r="L50" s="17">
+        <v>136</v>
+      </c>
+      <c r="M50" s="13">
         <v>140</v>
       </c>
-      <c r="W37" s="2">
+      <c r="N50" s="13">
         <v>137</v>
       </c>
-      <c r="X37" s="2">
+      <c r="O50" s="16">
+        <v>136</v>
+      </c>
+      <c r="P50" s="17">
+        <v>135</v>
+      </c>
+      <c r="Q50" s="13">
         <v>132</v>
       </c>
-      <c r="Y37" s="7">
-        <v>138</v>
-      </c>
-      <c r="Z37" s="4">
-        <v>253</v>
-      </c>
-      <c r="AA37" s="4">
-        <v>254</v>
-      </c>
-      <c r="AB37" s="4">
-        <v>4</v>
-      </c>
-      <c r="AC37" s="4">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A38" s="1">
-        <v>4</v>
-      </c>
-      <c r="B38" s="4">
-        <v>2</v>
-      </c>
-      <c r="C38" s="7">
-        <v>1</v>
-      </c>
-      <c r="D38" s="6">
-        <v>1</v>
-      </c>
-      <c r="E38" s="4">
-        <v>1</v>
-      </c>
-      <c r="F38" s="4">
-        <v>0</v>
-      </c>
-      <c r="G38" s="7">
-        <v>255</v>
-      </c>
-      <c r="H38" s="6">
-        <v>5</v>
-      </c>
-      <c r="I38" s="4">
-        <v>255</v>
-      </c>
-      <c r="K38" s="1">
-        <v>4</v>
-      </c>
-      <c r="L38" s="4">
-        <v>139</v>
-      </c>
-      <c r="M38" s="7">
-        <v>139</v>
-      </c>
-      <c r="N38" s="6">
+      <c r="R50" s="13">
+        <v>138</v>
+      </c>
+      <c r="S50" s="16">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="14">
+        <v>7</v>
+      </c>
+      <c r="B51" s="16">
+        <v>393</v>
+      </c>
+      <c r="C51" s="13">
+        <v>139</v>
+      </c>
+      <c r="D51" s="13">
+        <v>139</v>
+      </c>
+      <c r="E51" s="17">
+        <v>392</v>
+      </c>
+      <c r="F51" s="16">
+        <v>387</v>
+      </c>
+      <c r="G51" s="13">
+        <v>385</v>
+      </c>
+      <c r="H51" s="13">
+        <v>139</v>
+      </c>
+      <c r="I51" s="17">
+        <v>394</v>
+      </c>
+      <c r="K51" s="14">
+        <v>7</v>
+      </c>
+      <c r="L51" s="16">
+        <v>137</v>
+      </c>
+      <c r="M51" s="13">
+        <v>139</v>
+      </c>
+      <c r="N51" s="13">
+        <v>139</v>
+      </c>
+      <c r="O51" s="17">
+        <v>136</v>
+      </c>
+      <c r="P51" s="16">
+        <v>131</v>
+      </c>
+      <c r="Q51" s="13">
         <v>129</v>
       </c>
-      <c r="O38" s="4">
-        <v>139</v>
-      </c>
-      <c r="P38" s="4">
-        <v>255</v>
-      </c>
-      <c r="Q38" s="4">
-        <v>251</v>
-      </c>
-      <c r="R38" s="4">
-        <v>9</v>
-      </c>
-      <c r="S38" s="4">
-        <v>254</v>
-      </c>
-      <c r="U38" s="1">
-        <v>4</v>
-      </c>
-      <c r="V38" s="4">
-        <v>139</v>
-      </c>
-      <c r="W38" s="7">
-        <v>139</v>
-      </c>
-      <c r="X38" s="6">
-        <v>385</v>
-      </c>
-      <c r="Y38" s="4">
-        <v>139</v>
-      </c>
-      <c r="Z38" s="4">
-        <v>255</v>
-      </c>
-      <c r="AA38" s="4">
-        <v>251</v>
-      </c>
-      <c r="AB38" s="4">
-        <v>9</v>
-      </c>
-      <c r="AC38" s="4">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="39" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A39" s="1">
-        <v>5</v>
-      </c>
-      <c r="B39" s="4">
-        <v>253</v>
-      </c>
-      <c r="C39" s="6">
-        <v>254</v>
-      </c>
-      <c r="D39" s="7">
-        <v>255</v>
-      </c>
-      <c r="E39" s="4">
-        <v>254</v>
-      </c>
-      <c r="F39" s="4">
-        <v>4</v>
-      </c>
-      <c r="G39" s="6">
-        <v>6</v>
-      </c>
-      <c r="H39" s="7">
-        <v>3</v>
-      </c>
-      <c r="I39" s="4">
-        <v>252</v>
-      </c>
-      <c r="K39" s="1">
-        <v>5</v>
-      </c>
-      <c r="L39" s="8">
-        <v>253</v>
-      </c>
-      <c r="M39" s="8">
-        <v>4</v>
-      </c>
-      <c r="N39" s="6">
-        <v>3</v>
-      </c>
-      <c r="O39" s="6">
-        <v>2</v>
-      </c>
-      <c r="P39" s="9">
-        <v>1</v>
-      </c>
-      <c r="Q39" s="9">
-        <v>1</v>
-      </c>
-      <c r="R39" s="7">
-        <v>0</v>
-      </c>
-      <c r="S39" s="7">
-        <v>3</v>
-      </c>
-      <c r="U39" s="1">
-        <v>5</v>
-      </c>
-      <c r="V39" s="8">
-        <v>253</v>
-      </c>
-      <c r="W39" s="8">
-        <v>4</v>
-      </c>
-      <c r="X39" s="6">
-        <v>3</v>
-      </c>
-      <c r="Y39" s="6">
-        <v>2</v>
-      </c>
-      <c r="Z39" s="9">
-        <v>1</v>
-      </c>
-      <c r="AA39" s="9">
-        <v>1</v>
-      </c>
-      <c r="AB39" s="7">
-        <v>0</v>
-      </c>
-      <c r="AC39" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A40" s="1">
-        <v>6</v>
-      </c>
-      <c r="B40" s="7">
-        <v>252</v>
-      </c>
-      <c r="C40" s="2">
-        <v>140</v>
-      </c>
-      <c r="D40" s="2">
+      <c r="R51" s="13">
+        <v>139</v>
+      </c>
+      <c r="S51" s="17">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="14">
+        <v>8</v>
+      </c>
+      <c r="B52" s="15">
+        <v>394</v>
+      </c>
+      <c r="C52" s="17">
+        <v>391</v>
+      </c>
+      <c r="D52" s="16">
+        <v>393</v>
+      </c>
+      <c r="E52" s="15">
+        <v>390</v>
+      </c>
+      <c r="F52" s="15">
+        <v>394</v>
+      </c>
+      <c r="G52" s="17">
+        <v>392</v>
+      </c>
+      <c r="H52" s="16">
+        <v>139</v>
+      </c>
+      <c r="I52" s="15">
+        <v>393</v>
+      </c>
+      <c r="K52" s="14">
+        <v>8</v>
+      </c>
+      <c r="L52" s="15">
+        <v>138</v>
+      </c>
+      <c r="M52" s="17">
+        <v>135</v>
+      </c>
+      <c r="N52" s="16">
         <v>137</v>
       </c>
-      <c r="E40" s="6">
-        <v>255</v>
-      </c>
-      <c r="F40" s="7">
-        <v>3</v>
-      </c>
-      <c r="G40" s="2">
-        <v>132</v>
-      </c>
-      <c r="H40" s="2">
-        <v>138</v>
-      </c>
-      <c r="I40" s="6">
-        <v>0</v>
-      </c>
-      <c r="K40" s="1">
-        <v>6</v>
-      </c>
-      <c r="L40" s="8">
-        <v>255</v>
-      </c>
-      <c r="M40" s="8">
-        <v>1</v>
-      </c>
-      <c r="N40" s="6">
-        <v>254</v>
-      </c>
-      <c r="O40" s="6">
-        <v>5</v>
-      </c>
-      <c r="P40" s="9">
-        <v>5</v>
-      </c>
-      <c r="Q40" s="9">
-        <v>1</v>
-      </c>
-      <c r="R40" s="7">
-        <v>2</v>
-      </c>
-      <c r="S40" s="7">
-        <v>255</v>
-      </c>
-      <c r="U40" s="1">
-        <v>6</v>
-      </c>
-      <c r="V40" s="8">
-        <v>255</v>
-      </c>
-      <c r="W40" s="8">
-        <v>1</v>
-      </c>
-      <c r="X40" s="6">
-        <v>254</v>
-      </c>
-      <c r="Y40" s="6">
-        <v>5</v>
-      </c>
-      <c r="Z40" s="9">
-        <v>5</v>
-      </c>
-      <c r="AA40" s="9">
-        <v>1</v>
-      </c>
-      <c r="AB40" s="7">
-        <v>2</v>
-      </c>
-      <c r="AC40" s="7">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="41" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A41" s="1">
-        <v>7</v>
-      </c>
-      <c r="B41" s="6">
-        <v>254</v>
-      </c>
-      <c r="C41" s="2">
-        <v>139</v>
-      </c>
-      <c r="D41" s="2">
-        <v>139</v>
-      </c>
-      <c r="E41" s="7">
-        <v>253</v>
-      </c>
-      <c r="F41" s="6">
-        <v>2</v>
-      </c>
-      <c r="G41" s="2">
-        <v>129</v>
-      </c>
-      <c r="H41" s="2">
-        <v>139</v>
-      </c>
-      <c r="I41" s="7">
-        <v>255</v>
-      </c>
-      <c r="K41" s="1">
-        <v>7</v>
-      </c>
-      <c r="L41" s="6">
-        <v>254</v>
-      </c>
-      <c r="M41" s="6">
-        <v>255</v>
-      </c>
-      <c r="N41" s="6">
-        <v>6</v>
-      </c>
-      <c r="O41" s="6">
-        <v>0</v>
-      </c>
-      <c r="P41" s="7">
-        <v>255</v>
-      </c>
-      <c r="Q41" s="7">
-        <v>253</v>
-      </c>
-      <c r="R41" s="7">
-        <v>3</v>
-      </c>
-      <c r="S41" s="7">
-        <v>255</v>
-      </c>
-      <c r="U41" s="1">
-        <v>7</v>
-      </c>
-      <c r="V41" s="6">
-        <v>254</v>
-      </c>
-      <c r="W41" s="6">
-        <v>255</v>
-      </c>
-      <c r="X41" s="6">
-        <v>6</v>
-      </c>
-      <c r="Y41" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z41" s="7">
-        <v>255</v>
-      </c>
-      <c r="AA41" s="7">
-        <v>253</v>
-      </c>
-      <c r="AB41" s="7">
-        <v>3</v>
-      </c>
-      <c r="AC41" s="7">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="42" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A42" s="1">
-        <v>8</v>
-      </c>
-      <c r="B42" s="4">
-        <v>255</v>
-      </c>
-      <c r="C42" s="7">
-        <v>252</v>
-      </c>
-      <c r="D42" s="6">
-        <v>254</v>
-      </c>
-      <c r="E42" s="4">
-        <v>251</v>
-      </c>
-      <c r="F42" s="4">
-        <v>9</v>
-      </c>
-      <c r="G42" s="7">
-        <v>7</v>
-      </c>
-      <c r="H42" s="6">
-        <v>0</v>
-      </c>
-      <c r="I42" s="4">
-        <v>254</v>
-      </c>
-      <c r="K42" s="1">
-        <v>8</v>
-      </c>
-      <c r="L42" s="6">
-        <v>254</v>
-      </c>
-      <c r="M42" s="6">
-        <v>254</v>
-      </c>
-      <c r="N42" s="6">
-        <v>2</v>
-      </c>
-      <c r="O42" s="6">
-        <v>0</v>
-      </c>
-      <c r="P42" s="7">
-        <v>252</v>
-      </c>
-      <c r="Q42" s="7">
-        <v>252</v>
-      </c>
-      <c r="R42" s="7">
-        <v>3</v>
-      </c>
-      <c r="S42" s="7">
-        <v>7</v>
-      </c>
-      <c r="U42" s="1">
-        <v>8</v>
-      </c>
-      <c r="V42" s="6">
-        <v>254</v>
-      </c>
-      <c r="W42" s="6">
-        <v>254</v>
-      </c>
-      <c r="X42" s="6">
-        <v>2</v>
-      </c>
-      <c r="Y42" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z42" s="7">
-        <v>252</v>
-      </c>
-      <c r="AA42" s="7">
-        <v>252</v>
-      </c>
-      <c r="AB42" s="7">
-        <v>3</v>
-      </c>
-      <c r="AC42" s="7">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="44" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="B44" s="1">
-        <v>1</v>
-      </c>
-      <c r="C44" s="1">
-        <v>2</v>
-      </c>
-      <c r="D44" s="1">
-        <v>3</v>
-      </c>
-      <c r="E44" s="1">
-        <v>4</v>
-      </c>
-      <c r="F44" s="1">
-        <v>5</v>
-      </c>
-      <c r="G44" s="1">
-        <v>6</v>
-      </c>
-      <c r="H44" s="1">
-        <v>7</v>
-      </c>
-      <c r="I44" s="1">
-        <v>8</v>
-      </c>
-      <c r="L44" s="1">
-        <v>1</v>
-      </c>
-      <c r="M44" s="1">
-        <v>2</v>
-      </c>
-      <c r="N44" s="1">
-        <v>3</v>
-      </c>
-      <c r="O44" s="1">
-        <v>4</v>
-      </c>
-      <c r="P44" s="1">
-        <v>5</v>
-      </c>
-      <c r="Q44" s="1">
-        <v>6</v>
-      </c>
-      <c r="R44" s="1">
-        <v>7</v>
-      </c>
-      <c r="S44" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="45" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A45" s="1">
-        <v>1</v>
-      </c>
-      <c r="B45" s="4">
-        <v>393</v>
-      </c>
-      <c r="C45" s="6">
-        <v>391</v>
-      </c>
-      <c r="D45" s="7">
-        <v>140</v>
-      </c>
-      <c r="E45" s="4">
-        <v>140</v>
-      </c>
-      <c r="F45" s="4">
-        <v>138</v>
-      </c>
-      <c r="G45" s="6">
-        <v>140</v>
-      </c>
-      <c r="H45" s="7">
-        <v>140</v>
-      </c>
-      <c r="I45" s="4">
-        <v>140</v>
-      </c>
-      <c r="K45" s="1">
-        <v>1</v>
-      </c>
-      <c r="L45" s="4">
-        <v>137</v>
-      </c>
-      <c r="M45" s="6">
-        <v>135</v>
-      </c>
-      <c r="N45" s="7">
-        <v>140</v>
-      </c>
-      <c r="O45" s="4">
-        <v>140</v>
-      </c>
-      <c r="P45" s="4">
-        <v>138</v>
-      </c>
-      <c r="Q45" s="6">
-        <v>140</v>
-      </c>
-      <c r="R45" s="7">
-        <v>140</v>
-      </c>
-      <c r="S45" s="4">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="46" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A46" s="1">
-        <v>2</v>
-      </c>
-      <c r="B46" s="7">
-        <v>143</v>
-      </c>
-      <c r="C46" s="3">
-        <v>138</v>
-      </c>
-      <c r="D46" s="3">
-        <v>139</v>
-      </c>
-      <c r="E46" s="6">
-        <v>143</v>
-      </c>
-      <c r="F46" s="7">
-        <v>139</v>
-      </c>
-      <c r="G46" s="2">
-        <v>137</v>
-      </c>
-      <c r="H46" s="2">
-        <v>140</v>
-      </c>
-      <c r="I46" s="6">
-        <v>142</v>
-      </c>
-      <c r="K46" s="1">
-        <v>2</v>
-      </c>
-      <c r="L46" s="7">
-        <v>143</v>
-      </c>
-      <c r="M46" s="3">
-        <v>138</v>
-      </c>
-      <c r="N46" s="3">
-        <v>139</v>
-      </c>
-      <c r="O46" s="6">
-        <v>143</v>
-      </c>
-      <c r="P46" s="7">
-        <v>139</v>
-      </c>
-      <c r="Q46" s="2">
-        <v>137</v>
-      </c>
-      <c r="R46" s="2">
-        <v>140</v>
-      </c>
-      <c r="S46" s="6">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="47" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A47" s="1">
-        <v>3</v>
-      </c>
-      <c r="B47" s="6">
-        <v>391</v>
-      </c>
-      <c r="C47" s="3">
+      <c r="O52" s="15">
+        <v>134</v>
+      </c>
+      <c r="P52" s="15">
+        <v>138</v>
+      </c>
+      <c r="Q52" s="17">
         <v>136</v>
       </c>
-      <c r="D47" s="3">
-        <v>138</v>
-      </c>
-      <c r="E47" s="7">
-        <v>139</v>
-      </c>
-      <c r="F47" s="6">
-        <v>392</v>
-      </c>
-      <c r="G47" s="2">
-        <v>138</v>
-      </c>
-      <c r="H47" s="2">
-        <v>138</v>
-      </c>
-      <c r="I47" s="7">
-        <v>141</v>
-      </c>
-      <c r="K47" s="1">
-        <v>3</v>
-      </c>
-      <c r="L47" s="6">
-        <v>135</v>
-      </c>
-      <c r="M47" s="3">
-        <v>136</v>
-      </c>
-      <c r="N47" s="3">
-        <v>138</v>
-      </c>
-      <c r="O47" s="7">
-        <v>139</v>
-      </c>
-      <c r="P47" s="6">
-        <v>136</v>
-      </c>
-      <c r="Q47" s="2">
-        <v>138</v>
-      </c>
-      <c r="R47" s="2">
-        <v>138</v>
-      </c>
-      <c r="S47" s="7">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="48" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A48" s="1">
-        <v>4</v>
-      </c>
-      <c r="B48" s="4">
-        <v>138</v>
-      </c>
-      <c r="C48" s="7">
-        <v>137</v>
-      </c>
-      <c r="D48" s="6">
-        <v>139</v>
-      </c>
-      <c r="E48" s="4">
-        <v>139</v>
-      </c>
-      <c r="F48" s="4">
-        <v>138</v>
-      </c>
-      <c r="G48" s="7">
-        <v>393</v>
-      </c>
-      <c r="H48" s="6">
-        <v>143</v>
-      </c>
-      <c r="I48" s="4">
-        <v>393</v>
-      </c>
-      <c r="K48" s="1">
-        <v>4</v>
-      </c>
-      <c r="L48" s="4">
-        <v>138</v>
-      </c>
-      <c r="M48" s="7">
-        <v>137</v>
-      </c>
-      <c r="N48" s="6">
-        <v>139</v>
-      </c>
-      <c r="O48" s="4">
-        <v>139</v>
-      </c>
-      <c r="P48" s="4">
-        <v>138</v>
-      </c>
-      <c r="Q48" s="7">
-        <v>137</v>
-      </c>
-      <c r="R48" s="6">
-        <v>143</v>
-      </c>
-      <c r="S48" s="4">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A49" s="1">
-        <v>5</v>
-      </c>
-      <c r="B49" s="4">
-        <v>393</v>
-      </c>
-      <c r="C49" s="6">
-        <v>394</v>
-      </c>
-      <c r="D49" s="7">
-        <v>392</v>
-      </c>
-      <c r="E49" s="4">
-        <v>391</v>
-      </c>
-      <c r="F49" s="4">
-        <v>136</v>
-      </c>
-      <c r="G49" s="6">
-        <v>138</v>
-      </c>
-      <c r="H49" s="7">
-        <v>141</v>
-      </c>
-      <c r="I49" s="4">
-        <v>390</v>
-      </c>
-      <c r="K49" s="1">
-        <v>5</v>
-      </c>
-      <c r="L49" s="4">
-        <v>137</v>
-      </c>
-      <c r="M49" s="6">
-        <v>138</v>
-      </c>
-      <c r="N49" s="7">
-        <v>136</v>
-      </c>
-      <c r="O49" s="4">
-        <v>135</v>
-      </c>
-      <c r="P49" s="4">
-        <v>136</v>
-      </c>
-      <c r="Q49" s="6">
-        <v>138</v>
-      </c>
-      <c r="R49" s="7">
-        <v>141</v>
-      </c>
-      <c r="S49" s="4">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A50" s="1">
-        <v>6</v>
-      </c>
-      <c r="B50" s="7">
-        <v>392</v>
-      </c>
-      <c r="C50" s="2">
-        <v>140</v>
-      </c>
-      <c r="D50" s="2">
-        <v>137</v>
-      </c>
-      <c r="E50" s="6">
-        <v>392</v>
-      </c>
-      <c r="F50" s="7">
-        <v>135</v>
-      </c>
-      <c r="G50" s="2">
-        <v>132</v>
-      </c>
-      <c r="H50" s="2">
-        <v>138</v>
-      </c>
-      <c r="I50" s="6">
-        <v>138</v>
-      </c>
-      <c r="K50" s="1">
-        <v>6</v>
-      </c>
-      <c r="L50" s="7">
-        <v>136</v>
-      </c>
-      <c r="M50" s="2">
-        <v>140</v>
-      </c>
-      <c r="N50" s="2">
-        <v>137</v>
-      </c>
-      <c r="O50" s="6">
-        <v>136</v>
-      </c>
-      <c r="P50" s="7">
-        <v>135</v>
-      </c>
-      <c r="Q50" s="2">
-        <v>132</v>
-      </c>
-      <c r="R50" s="2">
-        <v>138</v>
-      </c>
-      <c r="S50" s="6">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A51" s="1">
-        <v>7</v>
-      </c>
-      <c r="B51" s="6">
-        <v>393</v>
-      </c>
-      <c r="C51" s="2">
-        <v>139</v>
-      </c>
-      <c r="D51" s="2">
-        <v>139</v>
-      </c>
-      <c r="E51" s="7">
-        <v>392</v>
-      </c>
-      <c r="F51" s="6">
-        <v>131</v>
-      </c>
-      <c r="G51" s="2">
-        <v>129</v>
-      </c>
-      <c r="H51" s="2">
-        <v>139</v>
-      </c>
-      <c r="I51" s="7">
-        <v>394</v>
-      </c>
-      <c r="K51" s="1">
-        <v>7</v>
-      </c>
-      <c r="L51" s="6">
-        <v>137</v>
-      </c>
-      <c r="M51" s="2">
-        <v>139</v>
-      </c>
-      <c r="N51" s="2">
-        <v>139</v>
-      </c>
-      <c r="O51" s="7">
-        <v>136</v>
-      </c>
-      <c r="P51" s="6">
-        <v>131</v>
-      </c>
-      <c r="Q51" s="2">
-        <v>129</v>
-      </c>
-      <c r="R51" s="2">
-        <v>139</v>
-      </c>
-      <c r="S51" s="7">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A52" s="1">
-        <v>8</v>
-      </c>
-      <c r="B52" s="4">
-        <v>394</v>
-      </c>
-      <c r="C52" s="7">
-        <v>391</v>
-      </c>
-      <c r="D52" s="6">
-        <v>393</v>
-      </c>
-      <c r="E52" s="4">
-        <v>390</v>
-      </c>
-      <c r="F52" s="4">
-        <v>138</v>
-      </c>
-      <c r="G52" s="7">
-        <v>136</v>
-      </c>
-      <c r="H52" s="6">
-        <v>139</v>
-      </c>
-      <c r="I52" s="4">
-        <v>393</v>
-      </c>
-      <c r="K52" s="1">
-        <v>8</v>
-      </c>
-      <c r="L52" s="4">
-        <v>138</v>
-      </c>
-      <c r="M52" s="7">
-        <v>135</v>
-      </c>
-      <c r="N52" s="6">
-        <v>137</v>
-      </c>
-      <c r="O52" s="4">
-        <v>134</v>
-      </c>
-      <c r="P52" s="4">
-        <v>138</v>
-      </c>
-      <c r="Q52" s="7">
-        <v>136</v>
-      </c>
-      <c r="R52" s="6">
-        <v>139</v>
-      </c>
-      <c r="S52" s="4">
+      <c r="R52" s="16">
+        <v>139</v>
+      </c>
+      <c r="S52" s="15">
         <v>137</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>